--- a/DIC/ManuallyProcessed/Day1_DIC.xlsx
+++ b/DIC/ManuallyProcessed/Day1_DIC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bart076\Documents\rcsfa-RC3-BSLE-DIT-degradation\DIC\ManuallyProcessed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FF383D-6001-4B3C-B4AD-DCEC60374A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236EE269-9AEB-4354-9677-222BDB65AB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="060324_EBSD_DIT_Day0_DIC" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,9 @@
     <sheet name="Processing" sheetId="3" r:id="rId3"/>
     <sheet name="Summary" sheetId="4" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Alteration!$A$1:$AD$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Processing!$A$66:$BH$66</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2216,7 +2214,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="282">
+  <cellXfs count="318">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2925,6 +2923,94 @@
     <xf numFmtId="22" fontId="0" fillId="45" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="47" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="49" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="41" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="43" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="19" fillId="41" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="19" fillId="43" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="19" fillId="41" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="19" fillId="43" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="19" fillId="41" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="19" fillId="43" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="19" fillId="41" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="43" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="42" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="44" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="42" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="44" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="41" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="43" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="41" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="19" fillId="43" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="23" fillId="41" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="23" fillId="43" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="19" fillId="41" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="19" fillId="43" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="41" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="43" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="41" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="43" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="41" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="43" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="41" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="43" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="43" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="43" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="41" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="41" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3549,60 +3635,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Raw"/>
-      <sheetName val="processed"/>
-      <sheetName val="Summary"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="33">
-          <cell r="AB33">
-            <v>1.2</v>
-          </cell>
-          <cell r="AC33">
-            <v>0</v>
-          </cell>
-          <cell r="AE33">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="AB34">
-            <v>1.5</v>
-          </cell>
-          <cell r="AC34">
-            <v>0</v>
-          </cell>
-          <cell r="AE34">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="AB35">
-            <v>1.8</v>
-          </cell>
-          <cell r="AC35">
-            <v>0</v>
-          </cell>
-          <cell r="AE35">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8786,8 +8818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BH981"/>
   <sheetViews>
-    <sheetView topLeftCell="AB40" zoomScale="74" workbookViewId="0">
-      <selection activeCell="AJ67" sqref="AJ67:AP94"/>
+    <sheetView tabSelected="1" topLeftCell="AC33" zoomScale="74" workbookViewId="0">
+      <selection activeCell="AM90" activeCellId="2" sqref="AM88 AM89 AM90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -8888,7 +8920,7 @@
 0.000000006536332*X5^5 + (0.824493-0.0040899*X5 + 0.000076438*X5^2 - 0.00000082467*X5^3 +
 0.0000000053875*X5^4)*X4 + (-0.00572466 + 0.00010227*X5 - 0.0000016546*X5^2)*X4^1.5 +
 0.00048314*X4^2)/1000</f>
-        <v>1.000296507212284</v>
+        <v>0.9990372375584663</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="15" t="s">
@@ -8923,8 +8955,8 @@
         <v>11</v>
       </c>
       <c r="X3" s="18">
-        <f>2024*0.1</f>
-        <v>202.4</v>
+        <f>2024*0.05</f>
+        <v>101.2</v>
       </c>
       <c r="Y3" s="1"/>
       <c r="Z3" s="13" t="s">
@@ -8932,7 +8964,7 @@
       </c>
       <c r="AA3" s="19">
         <f>X3*AA2</f>
-        <v>202.46001305976628</v>
+        <v>101.1025684409168</v>
       </c>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
@@ -8965,8 +8997,8 @@
         <v>15</v>
       </c>
       <c r="X4" s="24">
-        <f>33.3*0.1</f>
-        <v>3.33</v>
+        <f>33.3*0.05</f>
+        <v>1.665</v>
       </c>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
@@ -12383,7 +12415,7 @@
       <c r="Y64" s="29"/>
       <c r="Z64" s="29"/>
     </row>
-    <row r="65" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="R65" s="9"/>
       <c r="S65" s="29"/>
       <c r="T65" s="2" t="s">
@@ -12413,7 +12445,7 @@
       <c r="AP65" s="1"/>
       <c r="AQ65" s="1"/>
     </row>
-    <row r="66" spans="1:43" s="128" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:60" s="128" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A66" s="231" t="s">
         <v>23</v>
       </c>
@@ -12542,572 +12574,652 @@
       </c>
       <c r="AQ66" s="240"/>
     </row>
-    <row r="67" spans="1:43" s="133" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="133" t="s">
-        <v>120</v>
-      </c>
-      <c r="B67" s="133" t="s">
+    <row r="67" spans="1:60" s="133" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="150" t="s">
+        <v>212</v>
+      </c>
+      <c r="B67" s="150" t="s">
         <v>98</v>
       </c>
-      <c r="C67" s="133" t="s">
-        <v>208</v>
-      </c>
-      <c r="D67" s="133" t="s">
+      <c r="C67" s="150" t="s">
+        <v>213</v>
+      </c>
+      <c r="D67" s="150" t="s">
         <v>119</v>
       </c>
-      <c r="E67" s="133">
+      <c r="E67" s="150">
         <v>1.5</v>
       </c>
-      <c r="F67" s="241">
-        <v>45447.478113425925</v>
-      </c>
-      <c r="G67" s="133">
+      <c r="F67" s="261">
+        <v>45447.493576388886</v>
+      </c>
+      <c r="G67" s="150">
         <v>1</v>
       </c>
-      <c r="H67" s="133">
-        <v>55.000999999999998</v>
-      </c>
-      <c r="I67" s="133">
-        <v>8.5353080000000006</v>
-      </c>
-      <c r="J67" s="133">
-        <v>1.7420949999999999</v>
-      </c>
-      <c r="K67" s="133">
-        <v>2.5376989999999999</v>
-      </c>
-      <c r="L67" s="133">
-        <v>758.95289000000002</v>
-      </c>
-      <c r="M67" s="133">
-        <v>95.995845000000003</v>
-      </c>
-      <c r="N67" s="133">
-        <v>10669.7078</v>
-      </c>
-      <c r="O67" s="133">
-        <v>10669.7078</v>
-      </c>
-      <c r="P67" s="133">
-        <v>983.50956699999995</v>
-      </c>
-      <c r="Q67" s="133" t="s">
+      <c r="H67" s="150">
+        <v>55.000300000000003</v>
+      </c>
+      <c r="I67" s="150">
+        <v>8.4011289999999992</v>
+      </c>
+      <c r="J67" s="150">
+        <v>1.832889</v>
+      </c>
+      <c r="K67" s="150">
+        <v>2.576425</v>
+      </c>
+      <c r="L67" s="150">
+        <v>84.266942</v>
+      </c>
+      <c r="M67" s="150">
+        <v>62.997447999999999</v>
+      </c>
+      <c r="N67" s="150">
+        <v>1206.5142390000001</v>
+      </c>
+      <c r="O67" s="150">
+        <v>1206.5142390000001</v>
+      </c>
+      <c r="P67" s="150">
+        <v>108.908427</v>
+      </c>
+      <c r="Q67" s="150" t="s">
         <v>100</v>
       </c>
-      <c r="R67" s="130">
-        <f t="shared" ref="R67:R72" si="31">INT(T67)</f>
+      <c r="R67" s="147">
+        <f>INT(T67)</f>
         <v>45447</v>
       </c>
-      <c r="S67" s="131">
+      <c r="S67" s="148">
         <f>T67-R67</f>
-        <v>0.47811342592467554</v>
-      </c>
-      <c r="T67" s="132">
+        <v>0.49357638888614019</v>
+      </c>
+      <c r="T67" s="149">
         <f>F67</f>
-        <v>45447.478113425925</v>
-      </c>
-      <c r="U67" s="133" t="str">
+        <v>45447.493576388886</v>
+      </c>
+      <c r="U67" s="150" t="str">
         <f>C67</f>
-        <v>ScottCr</v>
-      </c>
-      <c r="V67" s="133">
+        <v>DIT_02_BC1-1</v>
+      </c>
+      <c r="V67" s="150">
         <f>E67</f>
         <v>1.5</v>
       </c>
-      <c r="W67" s="133">
+      <c r="W67" s="150">
         <f>N67</f>
-        <v>10669.7078</v>
-      </c>
-      <c r="X67" s="134">
-        <f t="shared" ref="X67:X72" si="32">($Y$22*W67)+$Z$22</f>
-        <v>14.658521786365213</v>
-      </c>
-      <c r="Y67" s="135">
+        <v>1206.5142390000001</v>
+      </c>
+      <c r="X67" s="151">
+        <f>($Y$22*W67)+$Z$22</f>
+        <v>1.6170706345784556</v>
+      </c>
+      <c r="Y67" s="152">
         <f>($Y$22+$Y$29*(S67-$X$22)/$X$29)*W67+($Z$22+$Z$29*(S67-$X$22)/$X$29)</f>
-        <v>14.642320279019291</v>
-      </c>
-      <c r="Z67" s="136">
-        <f t="shared" ref="Z67:Z72" si="33">Y67*$AA$3</f>
-        <v>2964.4843549155262</v>
-      </c>
-      <c r="AA67" s="137">
-        <f t="shared" ref="AA67:AA72" si="34">Z67/V67</f>
-        <v>1976.3229032770175</v>
-      </c>
-      <c r="AB67" s="138">
+        <v>1.6132711652814127</v>
+      </c>
+      <c r="Z67" s="153">
+        <f>Y67*$AA$3</f>
+        <v>163.10585840162162</v>
+      </c>
+      <c r="AA67" s="154">
+        <f>Z67/V67</f>
+        <v>108.73723893441441</v>
+      </c>
+      <c r="AB67" s="155">
         <v>22</v>
       </c>
-      <c r="AC67" s="139">
-        <v>0</v>
-      </c>
-      <c r="AD67" s="140">
-        <f t="shared" ref="AD67:AD72" si="35">(999.842594 + 0.06793952*AB67 - 0.00909529*AB67^2 + 0.0001001685*AB67^3 -0.000001120083*AB67^4 +
+      <c r="AC67" s="156">
+        <v>1.65</v>
+      </c>
+      <c r="AD67" s="157">
+        <f>(999.842594 + 0.06793952*AB67 - 0.00909529*AB67^2 + 0.0001001685*AB67^3 -0.000001120083*AB67^4 +
 0.000000006536332*AB67^5 + (0.824493-0.0040899*AB67 + 0.000076438*AB67^2 - 0.00000082467*AB67^3 +
 0.0000000053875*AB67^4)*AC67 + (-0.00572466 + 0.00010227*AB67 - 0.0000016546*AB67^2)*AC67^1.5 +
 0.00048314*AC67^2)/1000</f>
-        <v>0.9977730369545097</v>
-      </c>
-      <c r="AE67" s="141">
-        <f t="shared" ref="AE67:AE72" si="36">AA67/AD67</f>
-        <v>1980.7339245298947</v>
-      </c>
-      <c r="AF67" s="142">
+        <v>0.9990258775032208</v>
+      </c>
+      <c r="AE67" s="158">
+        <f>AA67/AD67</f>
+        <v>108.84326560806613</v>
+      </c>
+      <c r="AF67" s="159">
         <v>0</v>
       </c>
-      <c r="AG67" s="143">
+      <c r="AG67" s="160">
         <v>250</v>
       </c>
-      <c r="AH67" s="144">
-        <f t="shared" ref="AH67:AH72" si="37">1+(AF67/1000/AG67)</f>
+      <c r="AH67" s="161">
+        <f>1+(AF67/1000/AG67)</f>
         <v>1</v>
       </c>
-      <c r="AI67" s="141">
+      <c r="AI67" s="158">
         <f>AH67*AE67</f>
-        <v>1980.7339245298947</v>
-      </c>
-      <c r="AJ67" s="137">
+        <v>108.84326560806613</v>
+      </c>
+      <c r="AJ67" s="162">
         <f>AI67</f>
-        <v>1980.7339245298947</v>
-      </c>
-      <c r="AK67" s="137"/>
-      <c r="AL67" s="145"/>
-      <c r="AM67" s="146">
+        <v>108.84326560806613</v>
+      </c>
+      <c r="AK67" s="163"/>
+      <c r="AL67" s="163"/>
+      <c r="AM67" s="162">
         <f>AE67</f>
-        <v>1980.7339245298947</v>
-      </c>
-      <c r="AN67" s="145"/>
-      <c r="AO67" s="145"/>
-      <c r="AP67" s="146" t="s">
-        <v>257</v>
-      </c>
-      <c r="AQ67" s="145"/>
-    </row>
-    <row r="68" spans="1:43" s="133" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="133" t="s">
-        <v>121</v>
-      </c>
-      <c r="B68" s="133" t="s">
+        <v>108.84326560806613</v>
+      </c>
+      <c r="AN67" s="164"/>
+      <c r="AO67" s="163"/>
+      <c r="AP67" s="162" t="s">
+        <v>261</v>
+      </c>
+      <c r="AQ67" s="163"/>
+      <c r="AR67" s="150"/>
+      <c r="AS67" s="150"/>
+      <c r="AT67" s="150"/>
+      <c r="AU67" s="150"/>
+      <c r="AV67" s="150"/>
+      <c r="AW67" s="150"/>
+      <c r="AX67" s="150"/>
+      <c r="AY67" s="150"/>
+      <c r="AZ67" s="150"/>
+      <c r="BA67" s="150"/>
+      <c r="BB67" s="150"/>
+      <c r="BC67" s="150"/>
+      <c r="BD67" s="150"/>
+      <c r="BE67" s="150"/>
+      <c r="BF67" s="150"/>
+      <c r="BG67" s="150"/>
+      <c r="BH67" s="150"/>
+    </row>
+    <row r="68" spans="1:60" s="133" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="150" t="s">
+        <v>127</v>
+      </c>
+      <c r="B68" s="150" t="s">
         <v>98</v>
       </c>
-      <c r="C68" s="133" t="s">
-        <v>209</v>
-      </c>
-      <c r="D68" s="133" t="s">
-        <v>129</v>
-      </c>
-      <c r="E68" s="133">
+      <c r="C68" s="150" t="s">
+        <v>214</v>
+      </c>
+      <c r="D68" s="150" t="s">
+        <v>119</v>
+      </c>
+      <c r="E68" s="150">
         <v>1.5</v>
       </c>
-      <c r="F68" s="241">
-        <v>45447.481921296298</v>
-      </c>
-      <c r="G68" s="133">
+      <c r="F68" s="261">
+        <v>45447.496342592596</v>
+      </c>
+      <c r="G68" s="150">
         <v>1</v>
       </c>
-      <c r="H68" s="133">
+      <c r="H68" s="150">
+        <v>55.000300000000003</v>
+      </c>
+      <c r="I68" s="150">
+        <v>8.3729209999999998</v>
+      </c>
+      <c r="J68" s="150">
+        <v>1.735514</v>
+      </c>
+      <c r="K68" s="150">
+        <v>2.5128379999999999</v>
+      </c>
+      <c r="L68" s="150">
+        <v>81.024382000000003</v>
+      </c>
+      <c r="M68" s="150">
+        <v>63.997447000000001</v>
+      </c>
+      <c r="N68" s="150">
+        <v>1176.8012249999999</v>
+      </c>
+      <c r="O68" s="150">
+        <v>1176.8012249999999</v>
+      </c>
+      <c r="P68" s="150">
+        <v>106.16231000000001</v>
+      </c>
+      <c r="Q68" s="150" t="s">
+        <v>100</v>
+      </c>
+      <c r="R68" s="147">
+        <f>INT(T68)</f>
+        <v>45447</v>
+      </c>
+      <c r="S68" s="148">
+        <f>T68-R68</f>
+        <v>0.49634259259619284</v>
+      </c>
+      <c r="T68" s="149">
+        <f>F68</f>
+        <v>45447.496342592596</v>
+      </c>
+      <c r="U68" s="150" t="str">
+        <f>C68</f>
+        <v>DIT_02_BC1-2</v>
+      </c>
+      <c r="V68" s="150">
+        <f>E68</f>
+        <v>1.5</v>
+      </c>
+      <c r="W68" s="150">
+        <f>N68</f>
+        <v>1176.8012249999999</v>
+      </c>
+      <c r="X68" s="151">
+        <f>($Y$22*W68)+$Z$22</f>
+        <v>1.5761224263276661</v>
+      </c>
+      <c r="Y68" s="152">
+        <f>($Y$22+$Y$29*(S68-$X$22)/$X$29)*W68+($Z$22+$Z$29*(S68-$X$22)/$X$29)</f>
+        <v>1.5720885170385235</v>
+      </c>
+      <c r="Z68" s="153">
+        <f>Y68*$AA$3</f>
+        <v>158.9421868890667</v>
+      </c>
+      <c r="AA68" s="154">
+        <f>Z68/V68</f>
+        <v>105.96145792604447</v>
+      </c>
+      <c r="AB68" s="155">
+        <v>22</v>
+      </c>
+      <c r="AC68" s="156">
+        <v>1.65</v>
+      </c>
+      <c r="AD68" s="157">
+        <f>(999.842594 + 0.06793952*AB68 - 0.00909529*AB68^2 + 0.0001001685*AB68^3 -0.000001120083*AB68^4 +
+0.000000006536332*AB68^5 + (0.824493-0.0040899*AB68 + 0.000076438*AB68^2 - 0.00000082467*AB68^3 +
+0.0000000053875*AB68^4)*AC68 + (-0.00572466 + 0.00010227*AB68 - 0.0000016546*AB68^2)*AC68^1.5 +
+0.00048314*AC68^2)/1000</f>
+        <v>0.9990258775032208</v>
+      </c>
+      <c r="AE68" s="158">
+        <f>AA68/AD68</f>
+        <v>106.06477801242227</v>
+      </c>
+      <c r="AF68" s="159">
+        <v>0</v>
+      </c>
+      <c r="AG68" s="160">
+        <v>250</v>
+      </c>
+      <c r="AH68" s="161">
+        <f>1+(AF68/1000/AG68)</f>
+        <v>1</v>
+      </c>
+      <c r="AI68" s="158">
+        <f>AH68*AE68</f>
+        <v>106.06477801242227</v>
+      </c>
+      <c r="AJ68" s="162">
+        <f>AI68</f>
+        <v>106.06477801242227</v>
+      </c>
+      <c r="AK68" s="163"/>
+      <c r="AL68" s="163"/>
+      <c r="AM68" s="162">
+        <f>AE68</f>
+        <v>106.06477801242227</v>
+      </c>
+      <c r="AN68" s="163"/>
+      <c r="AO68" s="163"/>
+      <c r="AP68" s="162" t="s">
+        <v>277</v>
+      </c>
+      <c r="AQ68" s="163"/>
+      <c r="AR68" s="150"/>
+      <c r="AS68" s="150"/>
+      <c r="AT68" s="150"/>
+      <c r="AU68" s="150"/>
+      <c r="AV68" s="150"/>
+      <c r="AW68" s="150"/>
+      <c r="AX68" s="150"/>
+      <c r="AY68" s="150"/>
+      <c r="AZ68" s="150"/>
+      <c r="BA68" s="150"/>
+      <c r="BB68" s="150"/>
+      <c r="BC68" s="150"/>
+      <c r="BD68" s="150"/>
+      <c r="BE68" s="150"/>
+      <c r="BF68" s="150"/>
+      <c r="BG68" s="150"/>
+      <c r="BH68" s="150"/>
+    </row>
+    <row r="69" spans="1:60" s="242" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="150" t="s">
+        <v>230</v>
+      </c>
+      <c r="B69" s="150" t="s">
+        <v>98</v>
+      </c>
+      <c r="C69" s="150" t="s">
+        <v>231</v>
+      </c>
+      <c r="D69" s="150" t="s">
+        <v>119</v>
+      </c>
+      <c r="E69" s="150">
+        <v>1.5</v>
+      </c>
+      <c r="F69" s="261">
+        <v>45447.530740740738</v>
+      </c>
+      <c r="G69" s="150">
+        <v>1</v>
+      </c>
+      <c r="H69" s="150">
         <v>55.000999999999998</v>
       </c>
-      <c r="I68" s="133">
-        <v>8.4028379999999991</v>
-      </c>
-      <c r="J68" s="133">
-        <v>1.824022</v>
-      </c>
-      <c r="K68" s="133">
-        <v>2.6180400000000001</v>
-      </c>
-      <c r="L68" s="133">
-        <v>766.37964999999997</v>
-      </c>
-      <c r="M68" s="133">
-        <v>93.995856000000003</v>
-      </c>
-      <c r="N68" s="133">
-        <v>10655.873065</v>
-      </c>
-      <c r="O68" s="133">
-        <v>10655.873065</v>
-      </c>
-      <c r="P68" s="133">
-        <v>982.23094200000003</v>
-      </c>
-      <c r="Q68" s="133" t="s">
+      <c r="I69" s="150">
+        <v>8.465306</v>
+      </c>
+      <c r="J69" s="150">
+        <v>1.7522819999999999</v>
+      </c>
+      <c r="K69" s="150">
+        <v>2.5455899999999998</v>
+      </c>
+      <c r="L69" s="150">
+        <v>81.260220000000004</v>
+      </c>
+      <c r="M69" s="150">
+        <v>62.997450999999998</v>
+      </c>
+      <c r="N69" s="150">
+        <v>1141.602785</v>
+      </c>
+      <c r="O69" s="150">
+        <v>1141.602785</v>
+      </c>
+      <c r="P69" s="150">
+        <v>102.909223</v>
+      </c>
+      <c r="Q69" s="150" t="s">
         <v>100</v>
       </c>
-      <c r="R68" s="130">
-        <f t="shared" si="31"/>
+      <c r="R69" s="147">
+        <f>INT(T69)</f>
         <v>45447</v>
       </c>
-      <c r="S68" s="131">
-        <f t="shared" ref="S68:S72" si="38">T68-R68</f>
-        <v>0.48192129629751435</v>
-      </c>
-      <c r="T68" s="132">
-        <f t="shared" ref="T68:T72" si="39">F68</f>
-        <v>45447.481921296298</v>
-      </c>
-      <c r="U68" s="133" t="str">
-        <f t="shared" ref="U68:U72" si="40">C68</f>
-        <v>ScottCrF</v>
-      </c>
-      <c r="V68" s="133">
-        <f t="shared" ref="V68:V72" si="41">E68</f>
+      <c r="S69" s="148">
+        <f>T69-R69</f>
+        <v>0.53074074073811062</v>
+      </c>
+      <c r="T69" s="149">
+        <f>F69</f>
+        <v>45447.530740740738</v>
+      </c>
+      <c r="U69" s="150" t="str">
+        <f>C69</f>
+        <v>DIT_02_BC2</v>
+      </c>
+      <c r="V69" s="150">
+        <f>E69</f>
         <v>1.5</v>
       </c>
-      <c r="W68" s="133">
-        <f t="shared" ref="W68:W72" si="42">N68</f>
-        <v>10655.873065</v>
-      </c>
-      <c r="X68" s="134">
-        <f t="shared" si="32"/>
-        <v>14.639455810430409</v>
-      </c>
-      <c r="Y68" s="135">
-        <f t="shared" ref="Y68:Y72" si="43">($Y$22+$Y$29*(S68-$X$22)/$X$29)*W68+($Z$22+$Z$29*(S68-$X$22)/$X$29)</f>
-        <v>14.619549822334692</v>
-      </c>
-      <c r="Z68" s="136">
-        <f t="shared" si="33"/>
-        <v>2959.8742479577854</v>
-      </c>
-      <c r="AA68" s="137">
-        <f t="shared" si="34"/>
-        <v>1973.2494986385236</v>
-      </c>
-      <c r="AB68" s="138">
+      <c r="W69" s="150">
+        <f>N69</f>
+        <v>1141.602785</v>
+      </c>
+      <c r="X69" s="151">
+        <f>($Y$22*W69)+$Z$22</f>
+        <v>1.5276146226015646</v>
+      </c>
+      <c r="Y69" s="152">
+        <f>($Y$22+$Y$29*(S69-$X$22)/$X$29)*W69+($Z$22+$Z$29*(S69-$X$22)/$X$29)</f>
+        <v>1.519811242210154</v>
+      </c>
+      <c r="Z69" s="153">
+        <f>Y69*$AA$3</f>
+        <v>153.65682013282688</v>
+      </c>
+      <c r="AA69" s="154">
+        <f>Z69/V69</f>
+        <v>102.43788008855125</v>
+      </c>
+      <c r="AB69" s="155">
         <v>22</v>
       </c>
-      <c r="AC68" s="139">
+      <c r="AC69" s="156">
+        <v>1.65</v>
+      </c>
+      <c r="AD69" s="157">
+        <f>(999.842594 + 0.06793952*AB69 - 0.00909529*AB69^2 + 0.0001001685*AB69^3 -0.000001120083*AB69^4 +
+0.000000006536332*AB69^5 + (0.824493-0.0040899*AB69 + 0.000076438*AB69^2 - 0.00000082467*AB69^3 +
+0.0000000053875*AB69^4)*AC69 + (-0.00572466 + 0.00010227*AB69 - 0.0000016546*AB69^2)*AC69^1.5 +
+0.00048314*AC69^2)/1000</f>
+        <v>0.9990258775032208</v>
+      </c>
+      <c r="AE69" s="158">
+        <f>AA69/AD69</f>
+        <v>102.53776443165357</v>
+      </c>
+      <c r="AF69" s="159">
         <v>0</v>
       </c>
-      <c r="AD68" s="140">
-        <f t="shared" si="35"/>
-        <v>0.9977730369545097</v>
-      </c>
-      <c r="AE68" s="141">
-        <f t="shared" si="36"/>
-        <v>1977.6536602566939</v>
-      </c>
-      <c r="AF68" s="142">
+      <c r="AG69" s="160">
+        <v>250</v>
+      </c>
+      <c r="AH69" s="161">
+        <f>1+(AF69/1000/AG69)</f>
+        <v>1</v>
+      </c>
+      <c r="AI69" s="158">
+        <f>AH69*AE69</f>
+        <v>102.53776443165357</v>
+      </c>
+      <c r="AJ69" s="162">
+        <f>AI69</f>
+        <v>102.53776443165357</v>
+      </c>
+      <c r="AK69" s="163"/>
+      <c r="AL69" s="163"/>
+      <c r="AM69" s="162">
+        <f>AE69</f>
+        <v>102.53776443165357</v>
+      </c>
+      <c r="AN69" s="163"/>
+      <c r="AO69" s="163"/>
+      <c r="AP69" s="162" t="s">
+        <v>276</v>
+      </c>
+      <c r="AQ69" s="163"/>
+      <c r="AR69" s="150"/>
+      <c r="AS69" s="150"/>
+      <c r="AT69" s="150"/>
+      <c r="AU69" s="150"/>
+      <c r="AV69" s="150"/>
+      <c r="AW69" s="150"/>
+      <c r="AX69" s="150"/>
+      <c r="AY69" s="150"/>
+      <c r="AZ69" s="150"/>
+      <c r="BA69" s="150"/>
+      <c r="BB69" s="150"/>
+      <c r="BC69" s="150"/>
+      <c r="BD69" s="150"/>
+      <c r="BE69" s="150"/>
+      <c r="BF69" s="150"/>
+      <c r="BG69" s="150"/>
+      <c r="BH69" s="150"/>
+    </row>
+    <row r="70" spans="1:60" s="242" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="150" t="s">
+        <v>242</v>
+      </c>
+      <c r="B70" s="150" t="s">
+        <v>98</v>
+      </c>
+      <c r="C70" s="150" t="s">
+        <v>243</v>
+      </c>
+      <c r="D70" s="150" t="s">
+        <v>119</v>
+      </c>
+      <c r="E70" s="150">
+        <v>1.5</v>
+      </c>
+      <c r="F70" s="261">
+        <v>45447.551319444443</v>
+      </c>
+      <c r="G70" s="150">
+        <v>1</v>
+      </c>
+      <c r="H70" s="150">
+        <v>55.000300000000003</v>
+      </c>
+      <c r="I70" s="150">
+        <v>8.4709129999999995</v>
+      </c>
+      <c r="J70" s="150">
+        <v>1.636906</v>
+      </c>
+      <c r="K70" s="150">
+        <v>2.3828900000000002</v>
+      </c>
+      <c r="L70" s="150">
+        <v>80.997467999999998</v>
+      </c>
+      <c r="M70" s="150">
+        <v>63.997124999999997</v>
+      </c>
+      <c r="N70" s="150">
+        <v>1152.636653</v>
+      </c>
+      <c r="O70" s="150">
+        <v>1152.636653</v>
+      </c>
+      <c r="P70" s="150">
+        <v>103.928988</v>
+      </c>
+      <c r="Q70" s="150" t="s">
+        <v>100</v>
+      </c>
+      <c r="R70" s="147">
+        <f>INT(T70)</f>
+        <v>45447</v>
+      </c>
+      <c r="S70" s="148">
+        <f>T70-R70</f>
+        <v>0.55131944444292458</v>
+      </c>
+      <c r="T70" s="149">
+        <f>F70</f>
+        <v>45447.551319444443</v>
+      </c>
+      <c r="U70" s="150" t="str">
+        <f>C70</f>
+        <v>DIT_02_BC3</v>
+      </c>
+      <c r="V70" s="150">
+        <f>E70</f>
+        <v>1.5</v>
+      </c>
+      <c r="W70" s="150">
+        <f>N70</f>
+        <v>1152.636653</v>
+      </c>
+      <c r="X70" s="151">
+        <f>($Y$22*W70)+$Z$22</f>
+        <v>1.542820657394121</v>
+      </c>
+      <c r="Y70" s="152">
+        <f>($Y$22+$Y$29*(S70-$X$22)/$X$29)*W70+($Z$22+$Z$29*(S70-$X$22)/$X$29)</f>
+        <v>1.5326055084330974</v>
+      </c>
+      <c r="Z70" s="153">
+        <f>Y70*$AA$3</f>
+        <v>154.95035330928332</v>
+      </c>
+      <c r="AA70" s="154">
+        <f>Z70/V70</f>
+        <v>103.30023553952221</v>
+      </c>
+      <c r="AB70" s="155">
+        <v>22</v>
+      </c>
+      <c r="AC70" s="156">
+        <v>1.65</v>
+      </c>
+      <c r="AD70" s="157">
+        <f>(999.842594 + 0.06793952*AB70 - 0.00909529*AB70^2 + 0.0001001685*AB70^3 -0.000001120083*AB70^4 +
+0.000000006536332*AB70^5 + (0.824493-0.0040899*AB70 + 0.000076438*AB70^2 - 0.00000082467*AB70^3 +
+0.0000000053875*AB70^4)*AC70 + (-0.00572466 + 0.00010227*AB70 - 0.0000016546*AB70^2)*AC70^1.5 +
+0.00048314*AC70^2)/1000</f>
+        <v>0.9990258775032208</v>
+      </c>
+      <c r="AE70" s="158">
+        <f>AA70/AD70</f>
+        <v>103.40096074156915</v>
+      </c>
+      <c r="AF70" s="159">
         <v>0</v>
       </c>
-      <c r="AG68" s="143">
+      <c r="AG70" s="160">
         <v>250</v>
       </c>
-      <c r="AH68" s="144">
-        <f t="shared" si="37"/>
+      <c r="AH70" s="161">
+        <f>1+(AF70/1000/AG70)</f>
         <v>1</v>
       </c>
-      <c r="AI68" s="141">
-        <f t="shared" ref="AI67:AI72" si="44">AH68*AE68</f>
-        <v>1977.6536602566939</v>
-      </c>
-      <c r="AJ68" s="137">
-        <f>AI68</f>
-        <v>1977.6536602566939</v>
-      </c>
-      <c r="AK68" s="137"/>
-      <c r="AL68" s="145"/>
-      <c r="AM68" s="146">
-        <f>AE68</f>
-        <v>1977.6536602566939</v>
-      </c>
-      <c r="AN68" s="145"/>
-      <c r="AO68" s="145"/>
-      <c r="AP68" s="146" t="s">
-        <v>258</v>
-      </c>
-      <c r="AQ68" s="145"/>
-    </row>
-    <row r="69" spans="1:43" s="242" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="242" t="s">
-        <v>122</v>
-      </c>
-      <c r="B69" s="242" t="s">
-        <v>98</v>
-      </c>
-      <c r="C69" s="242" t="s">
-        <v>210</v>
-      </c>
-      <c r="D69" s="242" t="s">
-        <v>131</v>
-      </c>
-      <c r="E69" s="242">
-        <v>1.5</v>
-      </c>
-      <c r="F69" s="243">
-        <v>45447.485682870371</v>
-      </c>
-      <c r="G69" s="242">
-        <v>1</v>
-      </c>
-      <c r="H69" s="242">
-        <v>55.000999999999998</v>
-      </c>
-      <c r="I69" s="242">
-        <v>8.5042989999999996</v>
-      </c>
-      <c r="J69" s="242">
-        <v>1.788816</v>
-      </c>
-      <c r="K69" s="242">
-        <v>2.5689540000000002</v>
-      </c>
-      <c r="L69" s="242">
-        <v>1347.2832000000001</v>
-      </c>
-      <c r="M69" s="242">
-        <v>107.995537</v>
-      </c>
-      <c r="N69" s="242">
-        <v>17923.270355000001</v>
-      </c>
-      <c r="O69" s="242">
-        <v>17923.270355000001</v>
-      </c>
-      <c r="P69" s="242">
-        <v>1653.8936229999999</v>
-      </c>
-      <c r="Q69" s="242" t="s">
-        <v>100</v>
-      </c>
-      <c r="R69" s="244">
-        <f t="shared" si="31"/>
-        <v>45447</v>
-      </c>
-      <c r="S69" s="245">
-        <f t="shared" si="38"/>
-        <v>0.4856828703705105</v>
-      </c>
-      <c r="T69" s="246">
-        <f t="shared" si="39"/>
-        <v>45447.485682870371</v>
-      </c>
-      <c r="U69" s="242" t="str">
-        <f t="shared" si="40"/>
-        <v>SequimBay</v>
-      </c>
-      <c r="V69" s="242">
-        <f t="shared" si="41"/>
-        <v>1.5</v>
-      </c>
-      <c r="W69" s="242">
-        <f t="shared" si="42"/>
-        <v>17923.270355000001</v>
-      </c>
-      <c r="X69" s="247">
-        <f t="shared" si="32"/>
-        <v>24.654828120763568</v>
-      </c>
-      <c r="Y69" s="248">
-        <f t="shared" si="43"/>
-        <v>24.61530377709747</v>
-      </c>
-      <c r="Z69" s="249">
-        <f t="shared" si="33"/>
-        <v>4983.6147241812678</v>
-      </c>
-      <c r="AA69" s="250">
-        <f t="shared" si="34"/>
-        <v>3322.4098161208453</v>
-      </c>
-      <c r="AB69" s="251">
-        <v>22</v>
-      </c>
-      <c r="AC69" s="252">
-        <v>33</v>
-      </c>
-      <c r="AD69" s="253">
-        <f t="shared" si="35"/>
-        <v>1.0227003999391113</v>
-      </c>
-      <c r="AE69" s="254">
-        <f t="shared" si="36"/>
-        <v>3248.6638475145332</v>
-      </c>
-      <c r="AF69" s="255">
-        <v>0</v>
-      </c>
-      <c r="AG69" s="256">
-        <v>250</v>
-      </c>
-      <c r="AH69" s="257">
-        <f t="shared" si="37"/>
-        <v>1</v>
-      </c>
-      <c r="AI69" s="254">
-        <f t="shared" si="44"/>
-        <v>3248.6638475145332</v>
-      </c>
-      <c r="AJ69" s="258">
-        <f>AI69</f>
-        <v>3248.6638475145332</v>
-      </c>
-      <c r="AK69" s="259"/>
-      <c r="AL69" s="259"/>
-      <c r="AM69" s="258">
-        <f>AE69</f>
-        <v>3248.6638475145332</v>
-      </c>
-      <c r="AN69" s="259"/>
-      <c r="AO69" s="259"/>
-      <c r="AP69" s="258" t="s">
-        <v>259</v>
-      </c>
-      <c r="AQ69" s="259"/>
-    </row>
-    <row r="70" spans="1:43" s="242" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="242" t="s">
-        <v>123</v>
-      </c>
-      <c r="B70" s="242" t="s">
-        <v>98</v>
-      </c>
-      <c r="C70" s="242" t="s">
-        <v>211</v>
-      </c>
-      <c r="D70" s="242" t="s">
-        <v>133</v>
-      </c>
-      <c r="E70" s="242">
-        <v>1.5</v>
-      </c>
-      <c r="F70" s="243">
-        <v>45447.489618055559</v>
-      </c>
-      <c r="G70" s="242">
-        <v>1</v>
-      </c>
-      <c r="H70" s="242">
-        <v>55.000999999999998</v>
-      </c>
-      <c r="I70" s="242">
-        <v>8.4932560000000006</v>
-      </c>
-      <c r="J70" s="242">
-        <v>1.776794</v>
-      </c>
-      <c r="K70" s="242">
-        <v>2.5753629999999998</v>
-      </c>
-      <c r="L70" s="242">
-        <v>1326.848</v>
-      </c>
-      <c r="M70" s="242">
-        <v>110.995217</v>
-      </c>
-      <c r="N70" s="242">
-        <v>17875.322458999999</v>
-      </c>
-      <c r="O70" s="242">
-        <v>17875.322458999999</v>
-      </c>
-      <c r="P70" s="242">
-        <v>1649.462213</v>
-      </c>
-      <c r="Q70" s="242" t="s">
-        <v>100</v>
-      </c>
-      <c r="R70" s="244">
-        <f t="shared" si="31"/>
-        <v>45447</v>
-      </c>
-      <c r="S70" s="245">
-        <f t="shared" si="38"/>
-        <v>0.48961805555882165</v>
-      </c>
-      <c r="T70" s="246">
-        <f t="shared" si="39"/>
-        <v>45447.489618055559</v>
-      </c>
-      <c r="U70" s="242" t="str">
-        <f t="shared" si="40"/>
-        <v>SequimBayF</v>
-      </c>
-      <c r="V70" s="242">
-        <f t="shared" si="41"/>
-        <v>1.5</v>
-      </c>
-      <c r="W70" s="242">
-        <f t="shared" si="42"/>
-        <v>17875.322458999999</v>
-      </c>
-      <c r="X70" s="247">
-        <f t="shared" si="32"/>
-        <v>24.588749989793911</v>
-      </c>
-      <c r="Y70" s="248">
-        <f t="shared" si="43"/>
-        <v>24.542896561219198</v>
-      </c>
-      <c r="Z70" s="249">
-        <f t="shared" si="33"/>
-        <v>4968.9551583089315</v>
-      </c>
-      <c r="AA70" s="250">
-        <f t="shared" si="34"/>
-        <v>3312.6367722059545</v>
-      </c>
-      <c r="AB70" s="251">
-        <v>22</v>
-      </c>
-      <c r="AC70" s="252">
-        <v>33</v>
-      </c>
-      <c r="AD70" s="253">
-        <f t="shared" si="35"/>
-        <v>1.0227003999391113</v>
-      </c>
-      <c r="AE70" s="254">
-        <f t="shared" si="36"/>
-        <v>3239.1077312604743</v>
-      </c>
-      <c r="AF70" s="255">
-        <v>0</v>
-      </c>
-      <c r="AG70" s="256">
-        <v>250</v>
-      </c>
-      <c r="AH70" s="257">
-        <f t="shared" si="37"/>
-        <v>1</v>
-      </c>
-      <c r="AI70" s="254">
-        <f t="shared" si="44"/>
-        <v>3239.1077312604743</v>
-      </c>
-      <c r="AJ70" s="260">
+      <c r="AI70" s="158">
+        <f>AH70*AE70</f>
+        <v>103.40096074156915</v>
+      </c>
+      <c r="AJ70" s="162">
         <f>AI70</f>
-        <v>3239.1077312604743</v>
-      </c>
-      <c r="AM70" s="258">
+        <v>103.40096074156915</v>
+      </c>
+      <c r="AK70" s="163"/>
+      <c r="AL70" s="163"/>
+      <c r="AM70" s="162">
         <f>AE70</f>
-        <v>3239.1077312604743</v>
-      </c>
-      <c r="AN70" s="259"/>
-      <c r="AP70" s="242" t="s">
-        <v>260</v>
-      </c>
-      <c r="AQ70" s="259"/>
-    </row>
-    <row r="71" spans="1:43" s="150" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>103.40096074156915</v>
+      </c>
+      <c r="AN70" s="163"/>
+      <c r="AO70" s="163"/>
+      <c r="AP70" s="162" t="s">
+        <v>270</v>
+      </c>
+      <c r="AQ70" s="150"/>
+      <c r="AR70" s="150"/>
+      <c r="AS70" s="150"/>
+      <c r="AT70" s="150"/>
+      <c r="AU70" s="150"/>
+      <c r="AV70" s="150"/>
+      <c r="AW70" s="150"/>
+      <c r="AX70" s="150"/>
+      <c r="AY70" s="150"/>
+      <c r="AZ70" s="150"/>
+      <c r="BA70" s="150"/>
+      <c r="BB70" s="150"/>
+      <c r="BC70" s="150"/>
+      <c r="BD70" s="150"/>
+      <c r="BE70" s="150"/>
+      <c r="BF70" s="150"/>
+      <c r="BG70" s="150"/>
+      <c r="BH70" s="150"/>
+    </row>
+    <row r="71" spans="1:60" s="150" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="150" t="s">
-        <v>212</v>
+        <v>128</v>
       </c>
       <c r="B71" s="150" t="s">
         <v>98</v>
       </c>
       <c r="C71" s="150" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D71" s="150" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E71" s="150">
         <v>1.5</v>
       </c>
       <c r="F71" s="261">
-        <v>45447.493576388886</v>
+        <v>45447.499768518515</v>
       </c>
       <c r="G71" s="150">
         <v>1</v>
@@ -13116,71 +13228,71 @@
         <v>55.000300000000003</v>
       </c>
       <c r="I71" s="150">
-        <v>8.4011289999999992</v>
+        <v>8.4475820000000006</v>
       </c>
       <c r="J71" s="150">
-        <v>1.832889</v>
+        <v>1.659699</v>
       </c>
       <c r="K71" s="150">
-        <v>2.576425</v>
+        <v>2.4009010000000002</v>
       </c>
       <c r="L71" s="150">
-        <v>84.266942</v>
+        <v>116.47306</v>
       </c>
       <c r="M71" s="150">
-        <v>62.997447999999999</v>
+        <v>65.997130999999996</v>
       </c>
       <c r="N71" s="150">
-        <v>1206.5142390000001</v>
+        <v>1651.9722039999999</v>
       </c>
       <c r="O71" s="150">
-        <v>1206.5142390000001</v>
+        <v>1651.9722039999999</v>
       </c>
       <c r="P71" s="150">
-        <v>108.908427</v>
+        <v>150.07825500000001</v>
       </c>
       <c r="Q71" s="150" t="s">
         <v>100</v>
       </c>
       <c r="R71" s="147">
-        <f t="shared" si="31"/>
+        <f>INT(T71)</f>
         <v>45447</v>
       </c>
       <c r="S71" s="148">
-        <f t="shared" si="38"/>
-        <v>0.49357638888614019</v>
+        <f>T71-R71</f>
+        <v>0.49976851851533866</v>
       </c>
       <c r="T71" s="149">
-        <f t="shared" si="39"/>
-        <v>45447.493576388886</v>
+        <f>F71</f>
+        <v>45447.499768518515</v>
       </c>
       <c r="U71" s="150" t="str">
-        <f t="shared" si="40"/>
-        <v>DIT_02_BC1-1</v>
+        <f>C71</f>
+        <v>DIT_02_BL1-1</v>
       </c>
       <c r="V71" s="150">
-        <f t="shared" si="41"/>
+        <f>E71</f>
         <v>1.5</v>
       </c>
       <c r="W71" s="150">
-        <f t="shared" si="42"/>
-        <v>1206.5142390000001</v>
+        <f>N71</f>
+        <v>1651.9722039999999</v>
       </c>
       <c r="X71" s="151">
-        <f t="shared" si="32"/>
-        <v>1.6170706345784556</v>
+        <f>($Y$22*W71)+$Z$22</f>
+        <v>2.2309668053874079</v>
       </c>
       <c r="Y71" s="152">
-        <f t="shared" si="43"/>
-        <v>1.6132711652814127</v>
+        <f>($Y$22+$Y$29*(S71-$X$22)/$X$29)*W71+($Z$22+$Z$29*(S71-$X$22)/$X$29)</f>
+        <v>2.2248844440337465</v>
       </c>
       <c r="Z71" s="153">
-        <f t="shared" si="33"/>
-        <v>326.62290119181915</v>
+        <f>Y71*$AA$3</f>
+        <v>224.94153177605298</v>
       </c>
       <c r="AA71" s="154">
-        <f t="shared" si="34"/>
-        <v>217.74860079454609</v>
+        <f>Z71/V71</f>
+        <v>149.96102118403533</v>
       </c>
       <c r="AB71" s="155">
         <v>22</v>
@@ -13189,12 +13301,15 @@
         <v>1.65</v>
       </c>
       <c r="AD71" s="157">
-        <f t="shared" si="35"/>
+        <f>(999.842594 + 0.06793952*AB71 - 0.00909529*AB71^2 + 0.0001001685*AB71^3 -0.000001120083*AB71^4 +
+0.000000006536332*AB71^5 + (0.824493-0.0040899*AB71 + 0.000076438*AB71^2 - 0.00000082467*AB71^3 +
+0.0000000053875*AB71^4)*AC71 + (-0.00572466 + 0.00010227*AB71 - 0.0000016546*AB71^2)*AC71^1.5 +
+0.00048314*AC71^2)/1000</f>
         <v>0.9990258775032208</v>
       </c>
       <c r="AE71" s="158">
-        <f t="shared" si="36"/>
-        <v>217.96092143153126</v>
+        <f>AA71/AD71</f>
+        <v>150.10724402737191</v>
       </c>
       <c r="AF71" s="159">
         <v>0</v>
@@ -13203,121 +13318,121 @@
         <v>250</v>
       </c>
       <c r="AH71" s="161">
-        <f t="shared" si="37"/>
+        <f>1+(AF71/1000/AG71)</f>
         <v>1</v>
       </c>
       <c r="AI71" s="158">
-        <f t="shared" si="44"/>
-        <v>217.96092143153126</v>
+        <f>AH71*AE71</f>
+        <v>150.10724402737191</v>
       </c>
       <c r="AJ71" s="162">
-        <f t="shared" ref="AJ71:AJ94" si="45">AI71</f>
-        <v>217.96092143153126</v>
+        <f>AI71</f>
+        <v>150.10724402737191</v>
       </c>
       <c r="AK71" s="163"/>
       <c r="AL71" s="163"/>
       <c r="AM71" s="162">
-        <f t="shared" ref="AM71:AM94" si="46">AE71</f>
-        <v>217.96092143153126</v>
-      </c>
-      <c r="AN71" s="164"/>
+        <f>AE71</f>
+        <v>150.10724402737191</v>
+      </c>
+      <c r="AN71" s="163"/>
       <c r="AO71" s="163"/>
       <c r="AP71" s="162" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AQ71" s="163"/>
     </row>
-    <row r="72" spans="1:43" s="168" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:60" s="168" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="168" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B72" s="168" t="s">
         <v>98</v>
       </c>
       <c r="C72" s="168" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D72" s="168" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E72" s="168">
         <v>1.5</v>
       </c>
       <c r="F72" s="279">
-        <v>45447.496342592596</v>
+        <v>45447.502557870372</v>
       </c>
       <c r="G72" s="168">
         <v>1</v>
       </c>
       <c r="H72" s="168">
-        <v>55.000300000000003</v>
+        <v>55.000999999999998</v>
       </c>
       <c r="I72" s="168">
-        <v>8.3729209999999998</v>
+        <v>8.4837179999999996</v>
       </c>
       <c r="J72" s="168">
-        <v>1.735514</v>
+        <v>1.6865270000000001</v>
       </c>
       <c r="K72" s="168">
-        <v>2.5128379999999999</v>
+        <v>2.46529</v>
       </c>
       <c r="L72" s="168">
-        <v>81.024382000000003</v>
+        <v>114.58439</v>
       </c>
       <c r="M72" s="168">
-        <v>63.997447000000001</v>
+        <v>66.997139000000004</v>
       </c>
       <c r="N72" s="168">
-        <v>1176.8012249999999</v>
+        <v>1649.5895829999999</v>
       </c>
       <c r="O72" s="168">
-        <v>1176.8012249999999</v>
+        <v>1649.5895829999999</v>
       </c>
       <c r="P72" s="168">
-        <v>106.16231000000001</v>
+        <v>149.85804999999999</v>
       </c>
       <c r="Q72" s="168" t="s">
         <v>100</v>
       </c>
       <c r="R72" s="165">
-        <f t="shared" si="31"/>
+        <f>INT(T72)</f>
         <v>45447</v>
       </c>
       <c r="S72" s="166">
-        <f t="shared" si="38"/>
-        <v>0.49634259259619284</v>
+        <f>T72-R72</f>
+        <v>0.50255787037167465</v>
       </c>
       <c r="T72" s="167">
-        <f t="shared" si="39"/>
-        <v>45447.496342592596</v>
+        <f>F72</f>
+        <v>45447.502557870372</v>
       </c>
       <c r="U72" s="168" t="str">
-        <f t="shared" si="40"/>
-        <v>DIT_02_BC1-2</v>
+        <f>C72</f>
+        <v>DIT_02_BL1-2</v>
       </c>
       <c r="V72" s="168">
-        <f t="shared" si="41"/>
+        <f>E72</f>
         <v>1.5</v>
       </c>
       <c r="W72" s="168">
-        <f t="shared" si="42"/>
-        <v>1176.8012249999999</v>
+        <f>N72</f>
+        <v>1649.5895829999999</v>
       </c>
       <c r="X72" s="169">
-        <f t="shared" si="32"/>
-        <v>1.5761224263276661</v>
+        <f>($Y$22*W72)+$Z$22</f>
+        <v>2.2276832589625748</v>
       </c>
       <c r="Y72" s="170">
-        <f t="shared" si="43"/>
-        <v>1.5720885170385235</v>
+        <f>($Y$22+$Y$29*(S72-$X$22)/$X$29)*W72+($Z$22+$Z$29*(S72-$X$22)/$X$29)</f>
+        <v>2.2211655838432005</v>
       </c>
       <c r="Z72" s="171">
-        <f t="shared" si="33"/>
-        <v>318.28506169072807</v>
+        <f>Y72*$AA$3</f>
+        <v>224.56554545911609</v>
       </c>
       <c r="AA72" s="172">
-        <f t="shared" si="34"/>
-        <v>212.19004112715206</v>
+        <f>Z72/V72</f>
+        <v>149.71036363941073</v>
       </c>
       <c r="AB72" s="173">
         <v>22</v>
@@ -13326,12 +13441,15 @@
         <v>1.65</v>
       </c>
       <c r="AD72" s="175">
-        <f t="shared" si="35"/>
+        <f>(999.842594 + 0.06793952*AB72 - 0.00909529*AB72^2 + 0.0001001685*AB72^3 -0.000001120083*AB72^4 +
+0.000000006536332*AB72^5 + (0.824493-0.0040899*AB72 + 0.000076438*AB72^2 - 0.00000082467*AB72^3 +
+0.0000000053875*AB72^4)*AC72 + (-0.00572466 + 0.00010227*AB72 - 0.0000016546*AB72^2)*AC72^1.5 +
+0.00048314*AC72^2)/1000</f>
         <v>0.9990258775032208</v>
       </c>
       <c r="AE72" s="176">
-        <f t="shared" si="36"/>
-        <v>212.39694176637377</v>
+        <f>AA72/AD72</f>
+        <v>149.85634207350958</v>
       </c>
       <c r="AF72" s="177">
         <v>0</v>
@@ -13340,39 +13458,39 @@
         <v>250</v>
       </c>
       <c r="AH72" s="179">
-        <f t="shared" si="37"/>
+        <f>1+(AF72/1000/AG72)</f>
         <v>1</v>
       </c>
       <c r="AI72" s="176">
-        <f t="shared" si="44"/>
-        <v>212.39694176637377</v>
+        <f>AH72*AE72</f>
+        <v>149.85634207350958</v>
       </c>
       <c r="AJ72" s="180">
-        <f t="shared" si="45"/>
-        <v>212.39694176637377</v>
+        <f>AI72</f>
+        <v>149.85634207350958</v>
       </c>
       <c r="AK72" s="181"/>
       <c r="AL72" s="181"/>
       <c r="AM72" s="180">
-        <f t="shared" si="46"/>
-        <v>212.39694176637377</v>
+        <f>AE72</f>
+        <v>149.85634207350958</v>
       </c>
       <c r="AN72" s="181"/>
       <c r="AO72" s="181"/>
       <c r="AP72" s="180" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AQ72" s="181"/>
     </row>
-    <row r="73" spans="1:43" s="150" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:60" s="150" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="150" t="s">
-        <v>128</v>
+        <v>232</v>
       </c>
       <c r="B73" s="150" t="s">
         <v>98</v>
       </c>
       <c r="C73" s="150" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="D73" s="150" t="s">
         <v>129</v>
@@ -13381,80 +13499,80 @@
         <v>1.5</v>
       </c>
       <c r="F73" s="261">
-        <v>45447.499768518515</v>
+        <v>45447.534166666665</v>
       </c>
       <c r="G73" s="150">
         <v>1</v>
       </c>
       <c r="H73" s="150">
-        <v>55.000300000000003</v>
+        <v>55.000999999999998</v>
       </c>
       <c r="I73" s="150">
-        <v>8.4475820000000006</v>
+        <v>8.4692369999999997</v>
       </c>
       <c r="J73" s="150">
-        <v>1.659699</v>
+        <v>1.644476</v>
       </c>
       <c r="K73" s="150">
-        <v>2.4009010000000002</v>
+        <v>2.4050259999999999</v>
       </c>
       <c r="L73" s="150">
-        <v>116.47306</v>
+        <v>117.86046</v>
       </c>
       <c r="M73" s="150">
-        <v>65.997130999999996</v>
+        <v>65.997138000000007</v>
       </c>
       <c r="N73" s="150">
-        <v>1651.9722039999999</v>
+        <v>1662.6138000000001</v>
       </c>
       <c r="O73" s="150">
-        <v>1651.9722039999999</v>
+        <v>1662.6138000000001</v>
       </c>
       <c r="P73" s="150">
-        <v>150.07825500000001</v>
+        <v>151.06176500000001</v>
       </c>
       <c r="Q73" s="150" t="s">
         <v>100</v>
       </c>
       <c r="R73" s="147">
-        <f t="shared" ref="R73:R92" si="47">INT(T73)</f>
+        <f>INT(T73)</f>
         <v>45447</v>
       </c>
       <c r="S73" s="148">
-        <f t="shared" ref="S73:S92" si="48">T73-R73</f>
-        <v>0.49976851851533866</v>
+        <f>T73-R73</f>
+        <v>0.53416666666453239</v>
       </c>
       <c r="T73" s="149">
-        <f t="shared" ref="T73:T92" si="49">F73</f>
-        <v>45447.499768518515</v>
+        <f>F73</f>
+        <v>45447.534166666665</v>
       </c>
       <c r="U73" s="150" t="str">
-        <f t="shared" ref="U73:U92" si="50">C73</f>
-        <v>DIT_02_BL1-1</v>
+        <f>C73</f>
+        <v>DIT_02_BL2</v>
       </c>
       <c r="V73" s="150">
-        <f t="shared" ref="V73:V92" si="51">E73</f>
+        <f>E73</f>
         <v>1.5</v>
       </c>
       <c r="W73" s="150">
-        <f t="shared" ref="W73:W92" si="52">N73</f>
-        <v>1651.9722039999999</v>
+        <f>N73</f>
+        <v>1662.6138000000001</v>
       </c>
       <c r="X73" s="151">
-        <f t="shared" ref="X73:X92" si="53">($Y$22*W73)+$Z$22</f>
-        <v>2.2309668053874079</v>
+        <f>($Y$22*W73)+$Z$22</f>
+        <v>2.245632240847061</v>
       </c>
       <c r="Y73" s="152">
-        <f t="shared" ref="Y73:Y92" si="54">($Y$22+$Y$29*(S73-$X$22)/$X$29)*W73+($Z$22+$Z$29*(S73-$X$22)/$X$29)</f>
-        <v>2.2248844440337465</v>
+        <f>($Y$22+$Y$29*(S73-$X$22)/$X$29)*W73+($Z$22+$Z$29*(S73-$X$22)/$X$29)</f>
+        <v>2.2340017950645552</v>
       </c>
       <c r="Z73" s="153">
-        <f t="shared" ref="Z73:Z92" si="55">Y73*$AA$3</f>
-        <v>450.45013359554315</v>
+        <f>Y73*$AA$3</f>
+        <v>225.86331938264519</v>
       </c>
       <c r="AA73" s="154">
-        <f t="shared" ref="AA73:AA92" si="56">Z73/V73</f>
-        <v>300.30008906369545</v>
+        <f>Z73/V73</f>
+        <v>150.57554625509678</v>
       </c>
       <c r="AB73" s="155">
         <v>22</v>
@@ -13463,15 +13581,15 @@
         <v>1.65</v>
       </c>
       <c r="AD73" s="157">
-        <f t="shared" ref="AD73:AD92" si="57">(999.842594 + 0.06793952*AB73 - 0.00909529*AB73^2 + 0.0001001685*AB73^3 -0.000001120083*AB73^4 +
+        <f>(999.842594 + 0.06793952*AB73 - 0.00909529*AB73^2 + 0.0001001685*AB73^3 -0.000001120083*AB73^4 +
 0.000000006536332*AB73^5 + (0.824493-0.0040899*AB73 + 0.000076438*AB73^2 - 0.00000082467*AB73^3 +
 0.0000000053875*AB73^4)*AC73 + (-0.00572466 + 0.00010227*AB73 - 0.0000016546*AB73^2)*AC73^1.5 +
 0.00048314*AC73^2)/1000</f>
         <v>0.9990258775032208</v>
       </c>
       <c r="AE73" s="158">
-        <f t="shared" ref="AE73:AE92" si="58">AA73/AD73</f>
-        <v>300.59290337324353</v>
+        <f>AA73/AD73</f>
+        <v>150.72236830483035</v>
       </c>
       <c r="AF73" s="159">
         <v>0</v>
@@ -13480,39 +13598,39 @@
         <v>250</v>
       </c>
       <c r="AH73" s="161">
-        <f t="shared" ref="AH73:AH92" si="59">1+(AF73/1000/AG73)</f>
+        <f>1+(AF73/1000/AG73)</f>
         <v>1</v>
       </c>
       <c r="AI73" s="158">
-        <f t="shared" ref="AI73:AI92" si="60">AH73*AE73</f>
-        <v>300.59290337324353</v>
+        <f>AH73*AE73</f>
+        <v>150.72236830483035</v>
       </c>
       <c r="AJ73" s="162">
-        <f t="shared" si="45"/>
-        <v>300.59290337324353</v>
+        <f>AI73</f>
+        <v>150.72236830483035</v>
       </c>
       <c r="AK73" s="163"/>
       <c r="AL73" s="163"/>
       <c r="AM73" s="162">
-        <f t="shared" si="46"/>
-        <v>300.59290337324353</v>
+        <f>AE73</f>
+        <v>150.72236830483035</v>
       </c>
       <c r="AN73" s="163"/>
       <c r="AO73" s="163"/>
       <c r="AP73" s="162" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AQ73" s="163"/>
     </row>
-    <row r="74" spans="1:43" s="150" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:60" s="150" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="150" t="s">
-        <v>130</v>
+        <v>244</v>
       </c>
       <c r="B74" s="150" t="s">
         <v>98</v>
       </c>
       <c r="C74" s="150" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="D74" s="150" t="s">
         <v>129</v>
@@ -13521,80 +13639,80 @@
         <v>1.5</v>
       </c>
       <c r="F74" s="261">
-        <v>45447.502557870372</v>
+        <v>45447.554745370369</v>
       </c>
       <c r="G74" s="150">
         <v>1</v>
       </c>
       <c r="H74" s="150">
-        <v>55.000999999999998</v>
+        <v>55.000300000000003</v>
       </c>
       <c r="I74" s="150">
-        <v>8.4837179999999996</v>
+        <v>8.4486980000000003</v>
       </c>
       <c r="J74" s="150">
-        <v>1.6865270000000001</v>
+        <v>1.6343179999999999</v>
       </c>
       <c r="K74" s="150">
-        <v>2.46529</v>
+        <v>2.3539240000000001</v>
       </c>
       <c r="L74" s="150">
-        <v>114.58439</v>
+        <v>118.20314</v>
       </c>
       <c r="M74" s="150">
-        <v>66.997139000000004</v>
+        <v>66.997123000000002</v>
       </c>
       <c r="N74" s="150">
-        <v>1649.5895829999999</v>
+        <v>1662.7660410000001</v>
       </c>
       <c r="O74" s="150">
-        <v>1649.5895829999999</v>
+        <v>1662.7660410000001</v>
       </c>
       <c r="P74" s="150">
-        <v>149.85804999999999</v>
+        <v>151.07583600000001</v>
       </c>
       <c r="Q74" s="150" t="s">
         <v>100</v>
       </c>
       <c r="R74" s="147">
-        <f t="shared" si="47"/>
+        <f>INT(T74)</f>
         <v>45447</v>
       </c>
       <c r="S74" s="148">
-        <f t="shared" si="48"/>
-        <v>0.50255787037167465</v>
+        <f>T74-R74</f>
+        <v>0.55474537036934635</v>
       </c>
       <c r="T74" s="149">
-        <f t="shared" si="49"/>
-        <v>45447.502557870372</v>
+        <f>F74</f>
+        <v>45447.554745370369</v>
       </c>
       <c r="U74" s="150" t="str">
-        <f t="shared" si="50"/>
-        <v>DIT_02_BL1-2</v>
+        <f>C74</f>
+        <v>DIT_02_BL3</v>
       </c>
       <c r="V74" s="150">
-        <f t="shared" si="51"/>
+        <f>E74</f>
         <v>1.5</v>
       </c>
       <c r="W74" s="150">
-        <f t="shared" si="52"/>
-        <v>1649.5895829999999</v>
+        <f>N74</f>
+        <v>1662.7660410000001</v>
       </c>
       <c r="X74" s="151">
-        <f t="shared" si="53"/>
-        <v>2.2276832589625748</v>
+        <f>($Y$22*W74)+$Z$22</f>
+        <v>2.2458420477745005</v>
       </c>
       <c r="Y74" s="152">
-        <f t="shared" si="54"/>
-        <v>2.2211655838432005</v>
+        <f>($Y$22+$Y$29*(S74-$X$22)/$X$29)*W74+($Z$22+$Z$29*(S74-$X$22)/$X$29)</f>
+        <v>2.2309132879629465</v>
       </c>
       <c r="Z74" s="153">
-        <f t="shared" si="55"/>
-        <v>449.69721311279778</v>
+        <f>Y74*$AA$3</f>
+        <v>225.55106338202452</v>
       </c>
       <c r="AA74" s="154">
-        <f t="shared" si="56"/>
-        <v>299.79814207519854</v>
+        <f>Z74/V74</f>
+        <v>150.36737558801636</v>
       </c>
       <c r="AB74" s="155">
         <v>22</v>
@@ -13603,12 +13721,15 @@
         <v>1.65</v>
       </c>
       <c r="AD74" s="157">
-        <f t="shared" si="57"/>
+        <f>(999.842594 + 0.06793952*AB74 - 0.00909529*AB74^2 + 0.0001001685*AB74^3 -0.000001120083*AB74^4 +
+0.000000006536332*AB74^5 + (0.824493-0.0040899*AB74 + 0.000076438*AB74^2 - 0.00000082467*AB74^3 +
+0.0000000053875*AB74^4)*AC74 + (-0.00572466 + 0.00010227*AB74 - 0.0000016546*AB74^2)*AC74^1.5 +
+0.00048314*AC74^2)/1000</f>
         <v>0.9990258775032208</v>
       </c>
       <c r="AE74" s="158">
-        <f t="shared" si="58"/>
-        <v>300.09046695012364</v>
+        <f>AA74/AD74</f>
+        <v>150.51399465629115</v>
       </c>
       <c r="AF74" s="159">
         <v>0</v>
@@ -13617,31 +13738,30 @@
         <v>250</v>
       </c>
       <c r="AH74" s="161">
-        <f t="shared" si="59"/>
+        <f>1+(AF74/1000/AG74)</f>
         <v>1</v>
       </c>
       <c r="AI74" s="158">
-        <f t="shared" si="60"/>
-        <v>300.09046695012364</v>
+        <f>AH74*AE74</f>
+        <v>150.51399465629115</v>
       </c>
       <c r="AJ74" s="162">
-        <f t="shared" si="45"/>
-        <v>300.09046695012364</v>
+        <f>AI74</f>
+        <v>150.51399465629115</v>
       </c>
       <c r="AK74" s="163"/>
       <c r="AL74" s="163"/>
       <c r="AM74" s="162">
-        <f t="shared" si="46"/>
-        <v>300.09046695012364</v>
+        <f>AE74</f>
+        <v>150.51399465629115</v>
       </c>
       <c r="AN74" s="163"/>
       <c r="AO74" s="163"/>
       <c r="AP74" s="162" t="s">
-        <v>278</v>
-      </c>
-      <c r="AQ74" s="163"/>
-    </row>
-    <row r="75" spans="1:43" s="185" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="75" spans="1:60" s="185" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="185" t="s">
         <v>132</v>
       </c>
@@ -13694,44 +13814,44 @@
         <v>100</v>
       </c>
       <c r="R75" s="182">
-        <f t="shared" si="47"/>
+        <f>INT(T75)</f>
         <v>45447</v>
       </c>
       <c r="S75" s="183">
-        <f t="shared" si="48"/>
+        <f>T75-R75</f>
         <v>0.50599537036760012</v>
       </c>
       <c r="T75" s="184">
-        <f t="shared" si="49"/>
+        <f>F75</f>
         <v>45447.505995370368</v>
       </c>
       <c r="U75" s="185" t="str">
-        <f t="shared" si="50"/>
+        <f>C75</f>
         <v>DIT_02_FC1-1</v>
       </c>
       <c r="V75" s="185">
-        <f t="shared" si="51"/>
+        <f>E75</f>
         <v>1.5</v>
       </c>
       <c r="W75" s="185">
-        <f t="shared" si="52"/>
+        <f>N75</f>
         <v>775.43810699999995</v>
       </c>
       <c r="X75" s="186">
-        <f t="shared" si="53"/>
+        <f>($Y$22*W75)+$Z$22</f>
         <v>1.022994408414367</v>
       </c>
       <c r="Y75" s="187">
-        <f t="shared" si="54"/>
+        <f>($Y$22+$Y$29*(S75-$X$22)/$X$29)*W75+($Z$22+$Z$29*(S75-$X$22)/$X$29)</f>
         <v>1.0194624416955054</v>
       </c>
       <c r="Z75" s="188">
-        <f t="shared" si="55"/>
-        <v>206.40037925961323</v>
+        <f>Y75*$AA$3</f>
+        <v>103.07027128446398</v>
       </c>
       <c r="AA75" s="189">
-        <f t="shared" si="56"/>
-        <v>137.60025283974215</v>
+        <f>Z75/V75</f>
+        <v>68.713514189642652</v>
       </c>
       <c r="AB75" s="190">
         <v>22</v>
@@ -13740,12 +13860,15 @@
         <v>0</v>
       </c>
       <c r="AD75" s="192">
-        <f t="shared" si="57"/>
+        <f>(999.842594 + 0.06793952*AB75 - 0.00909529*AB75^2 + 0.0001001685*AB75^3 -0.000001120083*AB75^4 +
+0.000000006536332*AB75^5 + (0.824493-0.0040899*AB75 + 0.000076438*AB75^2 - 0.00000082467*AB75^3 +
+0.0000000053875*AB75^4)*AC75 + (-0.00572466 + 0.00010227*AB75 - 0.0000016546*AB75^2)*AC75^1.5 +
+0.00048314*AC75^2)/1000</f>
         <v>0.9977730369545097</v>
       </c>
       <c r="AE75" s="193">
-        <f t="shared" si="58"/>
-        <v>137.90736745075583</v>
+        <f>AA75/AD75</f>
+        <v>68.866878182413174</v>
       </c>
       <c r="AF75" s="194">
         <v>0</v>
@@ -13754,22 +13877,22 @@
         <v>250</v>
       </c>
       <c r="AH75" s="196">
-        <f t="shared" si="59"/>
+        <f>1+(AF75/1000/AG75)</f>
         <v>1</v>
       </c>
       <c r="AI75" s="193">
-        <f t="shared" si="60"/>
-        <v>137.90736745075583</v>
+        <f>AH75*AE75</f>
+        <v>68.866878182413174</v>
       </c>
       <c r="AJ75" s="197">
-        <f t="shared" si="45"/>
-        <v>137.90736745075583</v>
+        <f>AI75</f>
+        <v>68.866878182413174</v>
       </c>
       <c r="AK75" s="198"/>
       <c r="AL75" s="198"/>
       <c r="AM75" s="197">
-        <f t="shared" si="46"/>
-        <v>137.90736745075583</v>
+        <f>AE75</f>
+        <v>68.866878182413174</v>
       </c>
       <c r="AN75" s="198"/>
       <c r="AO75" s="198"/>
@@ -13778,7 +13901,7 @@
       </c>
       <c r="AQ75" s="198"/>
     </row>
-    <row r="76" spans="1:43" s="202" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:60" s="202" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="202" t="s">
         <v>134</v>
       </c>
@@ -13831,44 +13954,44 @@
         <v>100</v>
       </c>
       <c r="R76" s="199">
-        <f t="shared" si="47"/>
+        <f>INT(T76)</f>
         <v>45447</v>
       </c>
       <c r="S76" s="200">
-        <f t="shared" si="48"/>
+        <f>T76-R76</f>
         <v>0.50872685185458977</v>
       </c>
       <c r="T76" s="201">
-        <f t="shared" si="49"/>
+        <f>F76</f>
         <v>45447.508726851855</v>
       </c>
       <c r="U76" s="202" t="str">
-        <f t="shared" si="50"/>
+        <f>C76</f>
         <v>DIT_02_FC1-2</v>
       </c>
       <c r="V76" s="202">
-        <f t="shared" si="51"/>
+        <f>E76</f>
         <v>1.5</v>
       </c>
       <c r="W76" s="202">
-        <f t="shared" si="52"/>
+        <f>N76</f>
         <v>757.66563299999996</v>
       </c>
       <c r="X76" s="203">
-        <f t="shared" si="53"/>
+        <f>($Y$22*W76)+$Z$22</f>
         <v>0.99850174111095114</v>
       </c>
       <c r="Y76" s="204">
-        <f t="shared" si="54"/>
+        <f>($Y$22+$Y$29*(S76-$X$22)/$X$29)*W76+($Z$22+$Z$29*(S76-$X$22)/$X$29)</f>
         <v>0.99482882568912157</v>
       </c>
       <c r="Z76" s="205">
-        <f t="shared" si="55"/>
-        <v>201.41305704125151</v>
+        <f>Y76*$AA$3</f>
+        <v>100.5797494362313</v>
       </c>
       <c r="AA76" s="206">
-        <f t="shared" si="56"/>
-        <v>134.27537136083433</v>
+        <f>Z76/V76</f>
+        <v>67.053166290820869</v>
       </c>
       <c r="AB76" s="207">
         <v>22</v>
@@ -13877,12 +14000,15 @@
         <v>0</v>
       </c>
       <c r="AD76" s="209">
-        <f t="shared" si="57"/>
+        <f>(999.842594 + 0.06793952*AB76 - 0.00909529*AB76^2 + 0.0001001685*AB76^3 -0.000001120083*AB76^4 +
+0.000000006536332*AB76^5 + (0.824493-0.0040899*AB76 + 0.000076438*AB76^2 - 0.00000082467*AB76^3 +
+0.0000000053875*AB76^4)*AC76 + (-0.00572466 + 0.00010227*AB76 - 0.0000016546*AB76^2)*AC76^1.5 +
+0.00048314*AC76^2)/1000</f>
         <v>0.9977730369545097</v>
       </c>
       <c r="AE76" s="210">
-        <f t="shared" si="58"/>
-        <v>134.57506505756197</v>
+        <f>AA76/AD76</f>
+        <v>67.202824497529434</v>
       </c>
       <c r="AF76" s="211">
         <v>0</v>
@@ -13891,22 +14017,22 @@
         <v>250</v>
       </c>
       <c r="AH76" s="213">
-        <f t="shared" si="59"/>
+        <f>1+(AF76/1000/AG76)</f>
         <v>1</v>
       </c>
       <c r="AI76" s="210">
-        <f t="shared" si="60"/>
-        <v>134.57506505756197</v>
+        <f>AH76*AE76</f>
+        <v>67.202824497529434</v>
       </c>
       <c r="AJ76" s="214">
-        <f t="shared" si="45"/>
-        <v>134.57506505756197</v>
+        <f>AI76</f>
+        <v>67.202824497529434</v>
       </c>
       <c r="AK76" s="215"/>
       <c r="AL76" s="215"/>
       <c r="AM76" s="214">
-        <f t="shared" si="46"/>
-        <v>134.57506505756197</v>
+        <f>AE76</f>
+        <v>67.202824497529434</v>
       </c>
       <c r="AN76" s="215"/>
       <c r="AO76" s="215"/>
@@ -13915,24 +14041,24 @@
       </c>
       <c r="AQ76" s="215"/>
     </row>
-    <row r="77" spans="1:43" s="185" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:60" s="185" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="185" t="s">
-        <v>135</v>
+        <v>234</v>
       </c>
       <c r="B77" s="185" t="s">
         <v>98</v>
       </c>
       <c r="C77" s="185" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="D77" s="185" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E77" s="185">
         <v>1.5</v>
       </c>
       <c r="F77" s="262">
-        <v>45447.512118055558</v>
+        <v>45447.537604166668</v>
       </c>
       <c r="G77" s="185">
         <v>1</v>
@@ -13941,71 +14067,71 @@
         <v>55.000999999999998</v>
       </c>
       <c r="I77" s="185">
-        <v>8.5316050000000008</v>
+        <v>8.4708780000000008</v>
       </c>
       <c r="J77" s="185">
-        <v>1.663543</v>
+        <v>1.659313</v>
       </c>
       <c r="K77" s="185">
-        <v>2.449729</v>
+        <v>2.395178</v>
       </c>
       <c r="L77" s="185">
-        <v>87.129647000000006</v>
+        <v>74.205748</v>
       </c>
       <c r="M77" s="185">
-        <v>62.997135</v>
+        <v>62.997459999999997</v>
       </c>
       <c r="N77" s="185">
-        <v>1227.086231</v>
+        <v>1050.6404680000001</v>
       </c>
       <c r="O77" s="185">
-        <v>1227.086231</v>
+        <v>1050.6404680000001</v>
       </c>
       <c r="P77" s="185">
-        <v>110.809719</v>
+        <v>94.449338999999995</v>
       </c>
       <c r="Q77" s="185" t="s">
         <v>100</v>
       </c>
       <c r="R77" s="182">
-        <f t="shared" si="47"/>
+        <f>INT(T77)</f>
         <v>45447</v>
       </c>
       <c r="S77" s="183">
-        <f t="shared" si="48"/>
-        <v>0.51211805555794854</v>
+        <f>T77-R77</f>
+        <v>0.53760416666773381</v>
       </c>
       <c r="T77" s="184">
-        <f t="shared" si="49"/>
-        <v>45447.512118055558</v>
+        <f>F77</f>
+        <v>45447.537604166668</v>
       </c>
       <c r="U77" s="185" t="str">
-        <f t="shared" si="50"/>
-        <v>DIT_02_FL1-1</v>
+        <f>C77</f>
+        <v>DIT_02_FC3-1</v>
       </c>
       <c r="V77" s="185">
-        <f t="shared" si="51"/>
+        <f>E77</f>
         <v>1.5</v>
       </c>
       <c r="W77" s="185">
-        <f t="shared" si="52"/>
-        <v>1227.086231</v>
+        <f>N77</f>
+        <v>1050.6404680000001</v>
       </c>
       <c r="X77" s="186">
-        <f t="shared" si="53"/>
-        <v>1.6454213839352716</v>
+        <f>($Y$22*W77)+$Z$22</f>
+        <v>1.4022572993932791</v>
       </c>
       <c r="Y77" s="187">
-        <f t="shared" si="54"/>
-        <v>1.6393259707402954</v>
+        <f>($Y$22+$Y$29*(S77-$X$22)/$X$29)*W77+($Z$22+$Z$29*(S77-$X$22)/$X$29)</f>
+        <v>1.394308711242501</v>
       </c>
       <c r="Z77" s="188">
-        <f t="shared" si="55"/>
-        <v>331.89795744529425</v>
+        <f>Y77*$AA$3</f>
+        <v>140.96819190616145</v>
       </c>
       <c r="AA77" s="189">
-        <f t="shared" si="56"/>
-        <v>221.2653049635295</v>
+        <f>Z77/V77</f>
+        <v>93.978794604107634</v>
       </c>
       <c r="AB77" s="190">
         <v>22</v>
@@ -14014,12 +14140,15 @@
         <v>0</v>
       </c>
       <c r="AD77" s="192">
-        <f t="shared" si="57"/>
+        <f>(999.842594 + 0.06793952*AB77 - 0.00909529*AB77^2 + 0.0001001685*AB77^3 -0.000001120083*AB77^4 +
+0.000000006536332*AB77^5 + (0.824493-0.0040899*AB77 + 0.000076438*AB77^2 - 0.00000082467*AB77^3 +
+0.0000000053875*AB77^4)*AC77 + (-0.00572466 + 0.00010227*AB77 - 0.0000016546*AB77^2)*AC77^1.5 +
+0.00048314*AC77^2)/1000</f>
         <v>0.9977730369545097</v>
       </c>
       <c r="AE77" s="193">
-        <f t="shared" si="58"/>
-        <v>221.75915440538949</v>
+        <f>AA77/AD77</f>
+        <v>94.188549022088182</v>
       </c>
       <c r="AF77" s="194">
         <v>0</v>
@@ -14028,121 +14157,121 @@
         <v>250</v>
       </c>
       <c r="AH77" s="196">
-        <f t="shared" si="59"/>
+        <f>1+(AF77/1000/AG77)</f>
         <v>1</v>
       </c>
       <c r="AI77" s="193">
-        <f t="shared" si="60"/>
-        <v>221.75915440538949</v>
+        <f>AH77*AE77</f>
+        <v>94.188549022088182</v>
       </c>
       <c r="AJ77" s="197">
-        <f t="shared" si="45"/>
-        <v>221.75915440538949</v>
+        <f>AI77</f>
+        <v>94.188549022088182</v>
       </c>
       <c r="AK77" s="198"/>
       <c r="AL77" s="198"/>
       <c r="AM77" s="197">
-        <f t="shared" si="46"/>
-        <v>221.75915440538949</v>
+        <f>AE77</f>
+        <v>94.188549022088182</v>
       </c>
       <c r="AN77" s="198"/>
       <c r="AO77" s="198"/>
       <c r="AP77" s="197" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="AQ77" s="198"/>
     </row>
-    <row r="78" spans="1:43" s="185" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:60" s="185" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="185" t="s">
-        <v>136</v>
+        <v>246</v>
       </c>
       <c r="B78" s="185" t="s">
         <v>98</v>
       </c>
       <c r="C78" s="185" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="D78" s="185" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E78" s="185">
         <v>1.5</v>
       </c>
       <c r="F78" s="262">
-        <v>45447.514872685184</v>
+        <v>45447.558206018519</v>
       </c>
       <c r="G78" s="185">
         <v>1</v>
       </c>
       <c r="H78" s="185">
-        <v>55.000999999999998</v>
+        <v>55.000300000000003</v>
       </c>
       <c r="I78" s="185">
-        <v>8.5147580000000005</v>
+        <v>8.3208970000000004</v>
       </c>
       <c r="J78" s="185">
-        <v>1.6147560000000001</v>
+        <v>1.6158779999999999</v>
       </c>
       <c r="K78" s="185">
-        <v>2.3486720000000001</v>
+        <v>2.309631</v>
       </c>
       <c r="L78" s="185">
-        <v>85.041734000000005</v>
+        <v>73.708436000000006</v>
       </c>
       <c r="M78" s="185">
-        <v>63.997132999999998</v>
+        <v>63.997129000000001</v>
       </c>
       <c r="N78" s="185">
-        <v>1210.841005</v>
+        <v>1057.5795009999999</v>
       </c>
       <c r="O78" s="185">
-        <v>1210.841005</v>
+        <v>1057.5795009999999</v>
       </c>
       <c r="P78" s="185">
-        <v>109.308313</v>
+        <v>95.095884999999996</v>
       </c>
       <c r="Q78" s="185" t="s">
         <v>100</v>
       </c>
       <c r="R78" s="182">
-        <f t="shared" si="47"/>
+        <f>INT(T78)</f>
         <v>45447</v>
       </c>
       <c r="S78" s="183">
-        <f t="shared" si="48"/>
-        <v>0.51487268518394558</v>
+        <f>T78-R78</f>
+        <v>0.55820601851883112</v>
       </c>
       <c r="T78" s="184">
-        <f t="shared" si="49"/>
-        <v>45447.514872685184</v>
+        <f>F78</f>
+        <v>45447.558206018519</v>
       </c>
       <c r="U78" s="185" t="str">
-        <f t="shared" si="50"/>
-        <v>DIT_02_FL1-2</v>
+        <f>C78</f>
+        <v>DIT_02_FC3-2</v>
       </c>
       <c r="V78" s="185">
-        <f t="shared" si="51"/>
+        <f>E78</f>
         <v>1.5</v>
       </c>
       <c r="W78" s="185">
-        <f t="shared" si="52"/>
-        <v>1210.841005</v>
+        <f>N78</f>
+        <v>1057.5795009999999</v>
       </c>
       <c r="X78" s="186">
-        <f t="shared" si="53"/>
-        <v>1.6230334532686237</v>
+        <f>($Y$22*W78)+$Z$22</f>
+        <v>1.4118201450993086</v>
       </c>
       <c r="Y78" s="187">
-        <f t="shared" si="54"/>
-        <v>1.6166846066695673</v>
+        <f>($Y$22+$Y$29*(S78-$X$22)/$X$29)*W78+($Z$22+$Z$29*(S78-$X$22)/$X$29)</f>
+        <v>1.4016567333271002</v>
       </c>
       <c r="Z78" s="188">
-        <f t="shared" si="55"/>
-        <v>327.31398657984369</v>
+        <f>Y78*$AA$3</f>
+        <v>141.711095811875</v>
       </c>
       <c r="AA78" s="189">
-        <f t="shared" si="56"/>
-        <v>218.20932438656246</v>
+        <f>Z78/V78</f>
+        <v>94.474063874583337</v>
       </c>
       <c r="AB78" s="190">
         <v>22</v>
@@ -14151,12 +14280,15 @@
         <v>0</v>
       </c>
       <c r="AD78" s="192">
-        <f t="shared" si="57"/>
+        <f>(999.842594 + 0.06793952*AB78 - 0.00909529*AB78^2 + 0.0001001685*AB78^3 -0.000001120083*AB78^4 +
+0.000000006536332*AB78^5 + (0.824493-0.0040899*AB78 + 0.000076438*AB78^2 - 0.00000082467*AB78^3 +
+0.0000000053875*AB78^4)*AC78 + (-0.00572466 + 0.00010227*AB78 - 0.0000016546*AB78^2)*AC78^1.5 +
+0.00048314*AC78^2)/1000</f>
         <v>0.9977730369545097</v>
       </c>
       <c r="AE78" s="193">
-        <f t="shared" si="58"/>
-        <v>218.69635308306192</v>
+        <f>AA78/AD78</f>
+        <v>94.68492370062971</v>
       </c>
       <c r="AF78" s="194">
         <v>0</v>
@@ -14165,1144 +14297,1303 @@
         <v>250</v>
       </c>
       <c r="AH78" s="196">
-        <f t="shared" si="59"/>
+        <f>1+(AF78/1000/AG78)</f>
         <v>1</v>
       </c>
       <c r="AI78" s="193">
-        <f t="shared" si="60"/>
-        <v>218.69635308306192</v>
+        <f>AH78*AE78</f>
+        <v>94.68492370062971</v>
       </c>
       <c r="AJ78" s="197">
-        <f t="shared" si="45"/>
-        <v>218.69635308306192</v>
+        <f>AI78</f>
+        <v>94.68492370062971</v>
       </c>
       <c r="AK78" s="198"/>
       <c r="AL78" s="198"/>
       <c r="AM78" s="197">
-        <f t="shared" si="46"/>
-        <v>218.69635308306192</v>
+        <f>AE78</f>
+        <v>94.68492370062971</v>
       </c>
       <c r="AN78" s="198"/>
       <c r="AO78" s="198"/>
       <c r="AP78" s="197" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="79" spans="1:60" s="263" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="185" t="s">
+        <v>135</v>
+      </c>
+      <c r="B79" s="185" t="s">
+        <v>98</v>
+      </c>
+      <c r="C79" s="185" t="s">
+        <v>219</v>
+      </c>
+      <c r="D79" s="185" t="s">
+        <v>133</v>
+      </c>
+      <c r="E79" s="185">
+        <v>1.5</v>
+      </c>
+      <c r="F79" s="262">
+        <v>45447.512118055558</v>
+      </c>
+      <c r="G79" s="185">
+        <v>1</v>
+      </c>
+      <c r="H79" s="185">
+        <v>55.000999999999998</v>
+      </c>
+      <c r="I79" s="185">
+        <v>8.5316050000000008</v>
+      </c>
+      <c r="J79" s="185">
+        <v>1.663543</v>
+      </c>
+      <c r="K79" s="185">
+        <v>2.449729</v>
+      </c>
+      <c r="L79" s="185">
+        <v>87.129647000000006</v>
+      </c>
+      <c r="M79" s="185">
+        <v>62.997135</v>
+      </c>
+      <c r="N79" s="185">
+        <v>1227.086231</v>
+      </c>
+      <c r="O79" s="185">
+        <v>1227.086231</v>
+      </c>
+      <c r="P79" s="185">
+        <v>110.809719</v>
+      </c>
+      <c r="Q79" s="185" t="s">
+        <v>100</v>
+      </c>
+      <c r="R79" s="182">
+        <f>INT(T79)</f>
+        <v>45447</v>
+      </c>
+      <c r="S79" s="183">
+        <f>T79-R79</f>
+        <v>0.51211805555794854</v>
+      </c>
+      <c r="T79" s="184">
+        <f>F79</f>
+        <v>45447.512118055558</v>
+      </c>
+      <c r="U79" s="185" t="str">
+        <f>C79</f>
+        <v>DIT_02_FL1-1</v>
+      </c>
+      <c r="V79" s="185">
+        <f>E79</f>
+        <v>1.5</v>
+      </c>
+      <c r="W79" s="185">
+        <f>N79</f>
+        <v>1227.086231</v>
+      </c>
+      <c r="X79" s="186">
+        <f>($Y$22*W79)+$Z$22</f>
+        <v>1.6454213839352716</v>
+      </c>
+      <c r="Y79" s="187">
+        <f>($Y$22+$Y$29*(S79-$X$22)/$X$29)*W79+($Z$22+$Z$29*(S79-$X$22)/$X$29)</f>
+        <v>1.6393259707402954</v>
+      </c>
+      <c r="Z79" s="188">
+        <f>Y79*$AA$3</f>
+        <v>165.74006615374307</v>
+      </c>
+      <c r="AA79" s="189">
+        <f>Z79/V79</f>
+        <v>110.49337743582872</v>
+      </c>
+      <c r="AB79" s="190">
+        <v>22</v>
+      </c>
+      <c r="AC79" s="191">
+        <v>0</v>
+      </c>
+      <c r="AD79" s="192">
+        <f>(999.842594 + 0.06793952*AB79 - 0.00909529*AB79^2 + 0.0001001685*AB79^3 -0.000001120083*AB79^4 +
+0.000000006536332*AB79^5 + (0.824493-0.0040899*AB79 + 0.000076438*AB79^2 - 0.00000082467*AB79^3 +
+0.0000000053875*AB79^4)*AC79 + (-0.00572466 + 0.00010227*AB79 - 0.0000016546*AB79^2)*AC79^1.5 +
+0.00048314*AC79^2)/1000</f>
+        <v>0.9977730369545097</v>
+      </c>
+      <c r="AE79" s="193">
+        <f>AA79/AD79</f>
+        <v>110.73999130412092</v>
+      </c>
+      <c r="AF79" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG79" s="195">
+        <v>250</v>
+      </c>
+      <c r="AH79" s="196">
+        <f>1+(AF79/1000/AG79)</f>
+        <v>1</v>
+      </c>
+      <c r="AI79" s="193">
+        <f>AH79*AE79</f>
+        <v>110.73999130412092</v>
+      </c>
+      <c r="AJ79" s="197">
+        <f>AI79</f>
+        <v>110.73999130412092</v>
+      </c>
+      <c r="AK79" s="198"/>
+      <c r="AL79" s="198"/>
+      <c r="AM79" s="197">
+        <f>AE79</f>
+        <v>110.73999130412092</v>
+      </c>
+      <c r="AN79" s="198"/>
+      <c r="AO79" s="198"/>
+      <c r="AP79" s="197" t="s">
         <v>280</v>
       </c>
-      <c r="AQ78" s="198"/>
-    </row>
-    <row r="79" spans="1:43" s="263" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="263" t="s">
+      <c r="AQ79" s="198"/>
+      <c r="AR79" s="185"/>
+      <c r="AS79" s="185"/>
+      <c r="AT79" s="185"/>
+      <c r="AU79" s="185"/>
+      <c r="AV79" s="185"/>
+      <c r="AW79" s="185"/>
+      <c r="AX79" s="185"/>
+      <c r="AY79" s="185"/>
+      <c r="AZ79" s="185"/>
+      <c r="BA79" s="185"/>
+      <c r="BB79" s="185"/>
+      <c r="BC79" s="185"/>
+      <c r="BD79" s="185"/>
+      <c r="BE79" s="185"/>
+      <c r="BF79" s="185"/>
+      <c r="BG79" s="185"/>
+      <c r="BH79" s="185"/>
+    </row>
+    <row r="80" spans="1:60" s="219" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="202" t="s">
+        <v>136</v>
+      </c>
+      <c r="B80" s="202" t="s">
+        <v>98</v>
+      </c>
+      <c r="C80" s="202" t="s">
+        <v>220</v>
+      </c>
+      <c r="D80" s="202" t="s">
+        <v>133</v>
+      </c>
+      <c r="E80" s="202">
+        <v>1.5</v>
+      </c>
+      <c r="F80" s="280">
+        <v>45447.514872685184</v>
+      </c>
+      <c r="G80" s="202">
+        <v>1</v>
+      </c>
+      <c r="H80" s="202">
+        <v>55.000999999999998</v>
+      </c>
+      <c r="I80" s="202">
+        <v>8.5147580000000005</v>
+      </c>
+      <c r="J80" s="202">
+        <v>1.6147560000000001</v>
+      </c>
+      <c r="K80" s="202">
+        <v>2.3486720000000001</v>
+      </c>
+      <c r="L80" s="202">
+        <v>85.041734000000005</v>
+      </c>
+      <c r="M80" s="202">
+        <v>63.997132999999998</v>
+      </c>
+      <c r="N80" s="202">
+        <v>1210.841005</v>
+      </c>
+      <c r="O80" s="202">
+        <v>1210.841005</v>
+      </c>
+      <c r="P80" s="202">
+        <v>109.308313</v>
+      </c>
+      <c r="Q80" s="202" t="s">
+        <v>100</v>
+      </c>
+      <c r="R80" s="199">
+        <f>INT(T80)</f>
+        <v>45447</v>
+      </c>
+      <c r="S80" s="200">
+        <f>T80-R80</f>
+        <v>0.51487268518394558</v>
+      </c>
+      <c r="T80" s="201">
+        <f>F80</f>
+        <v>45447.514872685184</v>
+      </c>
+      <c r="U80" s="202" t="str">
+        <f>C80</f>
+        <v>DIT_02_FL1-2</v>
+      </c>
+      <c r="V80" s="202">
+        <f>E80</f>
+        <v>1.5</v>
+      </c>
+      <c r="W80" s="202">
+        <f>N80</f>
+        <v>1210.841005</v>
+      </c>
+      <c r="X80" s="203">
+        <f>($Y$22*W80)+$Z$22</f>
+        <v>1.6230334532686237</v>
+      </c>
+      <c r="Y80" s="204">
+        <f>($Y$22+$Y$29*(S80-$X$22)/$X$29)*W80+($Z$22+$Z$29*(S80-$X$22)/$X$29)</f>
+        <v>1.6166846066695673</v>
+      </c>
+      <c r="Z80" s="205">
+        <f>Y80*$AA$3</f>
+        <v>163.45096609318657</v>
+      </c>
+      <c r="AA80" s="206">
+        <f>Z80/V80</f>
+        <v>108.96731072879105</v>
+      </c>
+      <c r="AB80" s="207">
+        <v>22</v>
+      </c>
+      <c r="AC80" s="208">
+        <v>0</v>
+      </c>
+      <c r="AD80" s="209">
+        <f>(999.842594 + 0.06793952*AB80 - 0.00909529*AB80^2 + 0.0001001685*AB80^3 -0.000001120083*AB80^4 +
+0.000000006536332*AB80^5 + (0.824493-0.0040899*AB80 + 0.000076438*AB80^2 - 0.00000082467*AB80^3 +
+0.0000000053875*AB80^4)*AC80 + (-0.00572466 + 0.00010227*AB80 - 0.0000016546*AB80^2)*AC80^1.5 +
+0.00048314*AC80^2)/1000</f>
+        <v>0.9977730369545097</v>
+      </c>
+      <c r="AE80" s="210">
+        <f>AA80/AD80</f>
+        <v>109.21051851770882</v>
+      </c>
+      <c r="AF80" s="211">
+        <v>0</v>
+      </c>
+      <c r="AG80" s="212">
+        <v>250</v>
+      </c>
+      <c r="AH80" s="213">
+        <f>1+(AF80/1000/AG80)</f>
+        <v>1</v>
+      </c>
+      <c r="AI80" s="210">
+        <f>AH80*AE80</f>
+        <v>109.21051851770882</v>
+      </c>
+      <c r="AJ80" s="214">
+        <f>AI80</f>
+        <v>109.21051851770882</v>
+      </c>
+      <c r="AK80" s="215"/>
+      <c r="AL80" s="215"/>
+      <c r="AM80" s="214">
+        <f>AE80</f>
+        <v>109.21051851770882</v>
+      </c>
+      <c r="AN80" s="215"/>
+      <c r="AO80" s="215"/>
+      <c r="AP80" s="214" t="s">
+        <v>280</v>
+      </c>
+      <c r="AQ80" s="215"/>
+      <c r="AR80" s="202"/>
+      <c r="AS80" s="202"/>
+      <c r="AT80" s="202"/>
+      <c r="AU80" s="202"/>
+      <c r="AV80" s="202"/>
+      <c r="AW80" s="202"/>
+      <c r="AX80" s="202"/>
+      <c r="AY80" s="202"/>
+      <c r="AZ80" s="202"/>
+      <c r="BA80" s="202"/>
+      <c r="BB80" s="202"/>
+      <c r="BC80" s="202"/>
+      <c r="BD80" s="202"/>
+      <c r="BE80" s="202"/>
+      <c r="BF80" s="202"/>
+      <c r="BG80" s="202"/>
+      <c r="BH80" s="202"/>
+    </row>
+    <row r="81" spans="1:60" s="263" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="185" t="s">
+        <v>236</v>
+      </c>
+      <c r="B81" s="185" t="s">
+        <v>98</v>
+      </c>
+      <c r="C81" s="185" t="s">
+        <v>237</v>
+      </c>
+      <c r="D81" s="185" t="s">
+        <v>133</v>
+      </c>
+      <c r="E81" s="185">
+        <v>1.5</v>
+      </c>
+      <c r="F81" s="262">
+        <v>45447.541030092594</v>
+      </c>
+      <c r="G81" s="185">
+        <v>1</v>
+      </c>
+      <c r="H81" s="185">
+        <v>55.000999999999998</v>
+      </c>
+      <c r="I81" s="185">
+        <v>8.3633290000000002</v>
+      </c>
+      <c r="J81" s="185">
+        <v>1.6313690000000001</v>
+      </c>
+      <c r="K81" s="185">
+        <v>2.32775</v>
+      </c>
+      <c r="L81" s="185">
+        <v>89.606458000000003</v>
+      </c>
+      <c r="M81" s="185">
+        <v>63.997132000000001</v>
+      </c>
+      <c r="N81" s="185">
+        <v>1240.9325409999999</v>
+      </c>
+      <c r="O81" s="185">
+        <v>1240.9325409999999</v>
+      </c>
+      <c r="P81" s="185">
+        <v>112.08941299999999</v>
+      </c>
+      <c r="Q81" s="185" t="s">
+        <v>100</v>
+      </c>
+      <c r="R81" s="182">
+        <f>INT(T81)</f>
+        <v>45447</v>
+      </c>
+      <c r="S81" s="183">
+        <f>T81-R81</f>
+        <v>0.54103009259415558</v>
+      </c>
+      <c r="T81" s="184">
+        <f>F81</f>
+        <v>45447.541030092594</v>
+      </c>
+      <c r="U81" s="185" t="str">
+        <f>C81</f>
+        <v>DIT_02_FL2</v>
+      </c>
+      <c r="V81" s="185">
+        <f>E81</f>
+        <v>1.5</v>
+      </c>
+      <c r="W81" s="185">
+        <f>N81</f>
+        <v>1240.9325409999999</v>
+      </c>
+      <c r="X81" s="186">
+        <f>($Y$22*W81)+$Z$22</f>
+        <v>1.6645033116516919</v>
+      </c>
+      <c r="Y81" s="187">
+        <f>($Y$22+$Y$29*(S81-$X$22)/$X$29)*W81+($Z$22+$Z$29*(S81-$X$22)/$X$29)</f>
+        <v>1.6548211354440467</v>
+      </c>
+      <c r="Z81" s="188">
+        <f>Y81*$AA$3</f>
+        <v>167.30666710370738</v>
+      </c>
+      <c r="AA81" s="189">
+        <f>Z81/V81</f>
+        <v>111.53777806913826</v>
+      </c>
+      <c r="AB81" s="190">
+        <v>22</v>
+      </c>
+      <c r="AC81" s="191">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="192">
+        <f>(999.842594 + 0.06793952*AB81 - 0.00909529*AB81^2 + 0.0001001685*AB81^3 -0.000001120083*AB81^4 +
+0.000000006536332*AB81^5 + (0.824493-0.0040899*AB81 + 0.000076438*AB81^2 - 0.00000082467*AB81^3 +
+0.0000000053875*AB81^4)*AC81 + (-0.00572466 + 0.00010227*AB81 - 0.0000016546*AB81^2)*AC81^1.5 +
+0.00048314*AC81^2)/1000</f>
+        <v>0.9977730369545097</v>
+      </c>
+      <c r="AE81" s="193">
+        <f>AA81/AD81</f>
+        <v>111.78672297016928</v>
+      </c>
+      <c r="AF81" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG81" s="195">
+        <v>250</v>
+      </c>
+      <c r="AH81" s="196">
+        <f>1+(AF81/1000/AG81)</f>
+        <v>1</v>
+      </c>
+      <c r="AI81" s="193">
+        <f>AH81*AE81</f>
+        <v>111.78672297016928</v>
+      </c>
+      <c r="AJ81" s="197">
+        <f>AI81</f>
+        <v>111.78672297016928</v>
+      </c>
+      <c r="AK81" s="198"/>
+      <c r="AL81" s="198"/>
+      <c r="AM81" s="197">
+        <f>AE81</f>
+        <v>111.78672297016928</v>
+      </c>
+      <c r="AN81" s="198"/>
+      <c r="AO81" s="198"/>
+      <c r="AP81" s="197" t="s">
+        <v>267</v>
+      </c>
+      <c r="AQ81" s="198"/>
+      <c r="AR81" s="185"/>
+      <c r="AS81" s="185"/>
+      <c r="AT81" s="185"/>
+      <c r="AU81" s="185"/>
+      <c r="AV81" s="185"/>
+      <c r="AW81" s="185"/>
+      <c r="AX81" s="185"/>
+      <c r="AY81" s="185"/>
+      <c r="AZ81" s="185"/>
+      <c r="BA81" s="185"/>
+      <c r="BB81" s="185"/>
+      <c r="BC81" s="185"/>
+      <c r="BD81" s="185"/>
+      <c r="BE81" s="185"/>
+      <c r="BF81" s="185"/>
+      <c r="BG81" s="185"/>
+      <c r="BH81" s="185"/>
+    </row>
+    <row r="82" spans="1:60" s="263" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="185" t="s">
+        <v>248</v>
+      </c>
+      <c r="B82" s="185" t="s">
+        <v>98</v>
+      </c>
+      <c r="C82" s="185" t="s">
+        <v>249</v>
+      </c>
+      <c r="D82" s="185" t="s">
+        <v>133</v>
+      </c>
+      <c r="E82" s="185">
+        <v>1.5</v>
+      </c>
+      <c r="F82" s="262">
+        <v>45447.561620370368</v>
+      </c>
+      <c r="G82" s="185">
+        <v>1</v>
+      </c>
+      <c r="H82" s="185">
+        <v>55.000999999999998</v>
+      </c>
+      <c r="I82" s="185">
+        <v>8.3342530000000004</v>
+      </c>
+      <c r="J82" s="185">
+        <v>1.6110279999999999</v>
+      </c>
+      <c r="K82" s="185">
+        <v>2.4051490000000002</v>
+      </c>
+      <c r="L82" s="185">
+        <v>88.826706999999999</v>
+      </c>
+      <c r="M82" s="185">
+        <v>63.997450000000001</v>
+      </c>
+      <c r="N82" s="185">
+        <v>1242.760485</v>
+      </c>
+      <c r="O82" s="185">
+        <v>1242.760485</v>
+      </c>
+      <c r="P82" s="185">
+        <v>112.258354</v>
+      </c>
+      <c r="Q82" s="185" t="s">
+        <v>100</v>
+      </c>
+      <c r="R82" s="182">
+        <f>INT(T82)</f>
+        <v>45447</v>
+      </c>
+      <c r="S82" s="183">
+        <f>T82-R82</f>
+        <v>0.56162037036847323</v>
+      </c>
+      <c r="T82" s="184">
+        <f>F82</f>
+        <v>45447.561620370368</v>
+      </c>
+      <c r="U82" s="185" t="str">
+        <f>C82</f>
+        <v>DIT_02_FL3</v>
+      </c>
+      <c r="V82" s="185">
+        <f>E82</f>
+        <v>1.5</v>
+      </c>
+      <c r="W82" s="185">
+        <f>N82</f>
+        <v>1242.760485</v>
+      </c>
+      <c r="X82" s="186">
+        <f>($Y$22*W82)+$Z$22</f>
+        <v>1.6670224445670798</v>
+      </c>
+      <c r="Y82" s="187">
+        <f>($Y$22+$Y$29*(S82-$X$22)/$X$29)*W82+($Z$22+$Z$29*(S82-$X$22)/$X$29)</f>
+        <v>1.6548145875645721</v>
+      </c>
+      <c r="Z82" s="188">
+        <f>Y82*$AA$3</f>
+        <v>167.30600509627465</v>
+      </c>
+      <c r="AA82" s="189">
+        <f>Z82/V82</f>
+        <v>111.53733673084976</v>
+      </c>
+      <c r="AB82" s="190">
+        <v>22</v>
+      </c>
+      <c r="AC82" s="191">
+        <v>0</v>
+      </c>
+      <c r="AD82" s="192">
+        <f>(999.842594 + 0.06793952*AB82 - 0.00909529*AB82^2 + 0.0001001685*AB82^3 -0.000001120083*AB82^4 +
+0.000000006536332*AB82^5 + (0.824493-0.0040899*AB82 + 0.000076438*AB82^2 - 0.00000082467*AB82^3 +
+0.0000000053875*AB82^4)*AC82 + (-0.00572466 + 0.00010227*AB82 - 0.0000016546*AB82^2)*AC82^1.5 +
+0.00048314*AC82^2)/1000</f>
+        <v>0.9977730369545097</v>
+      </c>
+      <c r="AE82" s="193">
+        <f>AA82/AD82</f>
+        <v>111.78628064684308</v>
+      </c>
+      <c r="AF82" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG82" s="195">
+        <v>250</v>
+      </c>
+      <c r="AH82" s="196">
+        <f>1+(AF82/1000/AG82)</f>
+        <v>1</v>
+      </c>
+      <c r="AI82" s="193">
+        <f>AH82*AE82</f>
+        <v>111.78628064684308</v>
+      </c>
+      <c r="AJ82" s="197">
+        <f>AI82</f>
+        <v>111.78628064684308</v>
+      </c>
+      <c r="AK82" s="198"/>
+      <c r="AL82" s="198"/>
+      <c r="AM82" s="197">
+        <f>AE82</f>
+        <v>111.78628064684308</v>
+      </c>
+      <c r="AN82" s="198"/>
+      <c r="AO82" s="198"/>
+      <c r="AP82" s="197" t="s">
+        <v>272</v>
+      </c>
+      <c r="AQ82" s="185"/>
+      <c r="AR82" s="185"/>
+      <c r="AS82" s="185"/>
+      <c r="AT82" s="185"/>
+      <c r="AU82" s="185"/>
+      <c r="AV82" s="185"/>
+      <c r="AW82" s="185"/>
+      <c r="AX82" s="185"/>
+      <c r="AY82" s="185"/>
+      <c r="AZ82" s="185"/>
+      <c r="BA82" s="185"/>
+      <c r="BB82" s="185"/>
+      <c r="BC82" s="185"/>
+      <c r="BD82" s="185"/>
+      <c r="BE82" s="185"/>
+      <c r="BF82" s="185"/>
+      <c r="BG82" s="185"/>
+      <c r="BH82" s="185"/>
+    </row>
+    <row r="83" spans="1:60" s="168" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="219" t="s">
         <v>221</v>
       </c>
-      <c r="B79" s="263" t="s">
+      <c r="B83" s="219" t="s">
         <v>98</v>
       </c>
-      <c r="C79" s="263" t="s">
+      <c r="C83" s="219" t="s">
         <v>222</v>
       </c>
-      <c r="D79" s="263" t="s">
+      <c r="D83" s="219" t="s">
         <v>223</v>
       </c>
-      <c r="E79" s="263">
+      <c r="E83" s="219">
         <v>1.5</v>
       </c>
-      <c r="F79" s="264">
+      <c r="F83" s="281">
         <v>45447.518287037034</v>
       </c>
-      <c r="G79" s="263">
+      <c r="G83" s="219">
         <v>1</v>
       </c>
-      <c r="H79" s="263">
+      <c r="H83" s="219">
         <v>55.000999999999998</v>
       </c>
-      <c r="I79" s="263">
+      <c r="I83" s="219">
         <v>8.4489509999999992</v>
       </c>
-      <c r="J79" s="263">
+      <c r="J83" s="219">
         <v>1.642603</v>
       </c>
-      <c r="K79" s="263">
+      <c r="K83" s="219">
         <v>2.3463699999999998</v>
       </c>
-      <c r="L79" s="263">
+      <c r="L83" s="219">
         <v>94.308822000000006</v>
       </c>
-      <c r="M79" s="263">
+      <c r="M83" s="219">
         <v>64.997128000000004</v>
       </c>
-      <c r="N79" s="263">
+      <c r="N83" s="219">
         <v>1354.3750950000001</v>
       </c>
-      <c r="O79" s="263">
+      <c r="O83" s="219">
         <v>1354.3750950000001</v>
       </c>
-      <c r="P79" s="263">
+      <c r="P83" s="219">
         <v>122.573928</v>
       </c>
-      <c r="Q79" s="263" t="s">
+      <c r="Q83" s="219" t="s">
         <v>100</v>
       </c>
-      <c r="R79" s="265">
-        <f t="shared" si="47"/>
+      <c r="R83" s="216">
+        <f>INT(T83)</f>
         <v>45447</v>
       </c>
-      <c r="S79" s="266">
-        <f t="shared" si="48"/>
+      <c r="S83" s="217">
+        <f>T83-R83</f>
         <v>0.51828703703358769</v>
       </c>
-      <c r="T79" s="267">
-        <f t="shared" si="49"/>
+      <c r="T83" s="218">
+        <f>F83</f>
         <v>45447.518287037034</v>
       </c>
-      <c r="U79" s="263" t="str">
-        <f t="shared" si="50"/>
+      <c r="U83" s="219" t="str">
+        <f>C83</f>
         <v>DIT_02_SC1-1</v>
       </c>
-      <c r="V79" s="263">
-        <f t="shared" si="51"/>
+      <c r="V83" s="219">
+        <f>E83</f>
         <v>1.5</v>
       </c>
-      <c r="W79" s="263">
-        <f t="shared" si="52"/>
+      <c r="W83" s="219">
+        <f>N83</f>
         <v>1354.3750950000001</v>
       </c>
-      <c r="X79" s="268">
-        <f t="shared" si="53"/>
+      <c r="X83" s="220">
+        <f>($Y$22*W83)+$Z$22</f>
         <v>1.820841181841953</v>
       </c>
-      <c r="Y79" s="126">
-        <f t="shared" si="54"/>
+      <c r="Y83" s="129">
+        <f>($Y$22+$Y$29*(S83-$X$22)/$X$29)*W83+($Z$22+$Z$29*(S83-$X$22)/$X$29)</f>
         <v>1.813345120776183</v>
       </c>
-      <c r="Z79" s="127">
-        <f t="shared" si="55"/>
-        <v>367.12987683420948</v>
-      </c>
-      <c r="AA79" s="269">
-        <f t="shared" si="56"/>
-        <v>244.75325122280631</v>
-      </c>
-      <c r="AB79" s="270">
+      <c r="Z83" s="97">
+        <f>Y83*$AA$3</f>
+        <v>183.33384918027659</v>
+      </c>
+      <c r="AA83" s="221">
+        <f>Z83/V83</f>
+        <v>122.2225661201844</v>
+      </c>
+      <c r="AB83" s="222">
         <v>22</v>
       </c>
-      <c r="AC79" s="271">
+      <c r="AC83" s="223">
         <v>3.3</v>
       </c>
-      <c r="AD79" s="272">
-        <f t="shared" si="57"/>
+      <c r="AD83" s="224">
+        <f>(999.842594 + 0.06793952*AB83 - 0.00909529*AB83^2 + 0.0001001685*AB83^3 -0.000001120083*AB83^4 +
+0.000000006536332*AB83^5 + (0.824493-0.0040899*AB83 + 0.000076438*AB83^2 - 0.00000082467*AB83^3 +
+0.0000000053875*AB83^4)*AC83 + (-0.00572466 + 0.00010227*AB83 - 0.0000016546*AB83^2)*AC83^1.5 +
+0.00048314*AC83^2)/1000</f>
         <v>1.0002738416552892</v>
       </c>
-      <c r="AE79" s="273">
-        <f t="shared" si="58"/>
-        <v>244.68624593619265</v>
-      </c>
-      <c r="AF79" s="274">
+      <c r="AE83" s="225">
+        <f>AA83/AD83</f>
+        <v>122.18910565323401</v>
+      </c>
+      <c r="AF83" s="226">
         <v>0</v>
       </c>
-      <c r="AG79" s="275">
+      <c r="AG83" s="227">
         <v>250</v>
       </c>
-      <c r="AH79" s="276">
-        <f t="shared" si="59"/>
+      <c r="AH83" s="228">
+        <f>1+(AF83/1000/AG83)</f>
         <v>1</v>
       </c>
-      <c r="AI79" s="273">
-        <f t="shared" si="60"/>
-        <v>244.68624593619265</v>
-      </c>
-      <c r="AJ79" s="277">
-        <f t="shared" si="45"/>
-        <v>244.68624593619265</v>
-      </c>
-      <c r="AK79" s="278"/>
-      <c r="AL79" s="278"/>
-      <c r="AM79" s="277">
-        <f t="shared" si="46"/>
-        <v>244.68624593619265</v>
-      </c>
-      <c r="AN79" s="278"/>
-      <c r="AO79" s="278"/>
-      <c r="AP79" s="277" t="s">
+      <c r="AI83" s="225">
+        <f>AH83*AE83</f>
+        <v>122.18910565323401</v>
+      </c>
+      <c r="AJ83" s="229">
+        <f>AI83</f>
+        <v>122.18910565323401</v>
+      </c>
+      <c r="AK83" s="230"/>
+      <c r="AL83" s="230"/>
+      <c r="AM83" s="229">
+        <f>AE83</f>
+        <v>122.18910565323401</v>
+      </c>
+      <c r="AN83" s="230"/>
+      <c r="AO83" s="230"/>
+      <c r="AP83" s="229" t="s">
         <v>264</v>
       </c>
-      <c r="AQ79" s="278"/>
-    </row>
-    <row r="80" spans="1:43" s="219" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="219" t="s">
+      <c r="AQ83" s="230"/>
+      <c r="AR83" s="219"/>
+      <c r="AS83" s="219"/>
+      <c r="AT83" s="219"/>
+      <c r="AU83" s="219"/>
+      <c r="AV83" s="219"/>
+      <c r="AW83" s="219"/>
+      <c r="AX83" s="219"/>
+      <c r="AY83" s="219"/>
+      <c r="AZ83" s="219"/>
+      <c r="BA83" s="219"/>
+      <c r="BB83" s="219"/>
+      <c r="BC83" s="219"/>
+      <c r="BD83" s="219"/>
+      <c r="BE83" s="219"/>
+      <c r="BF83" s="219"/>
+      <c r="BG83" s="219"/>
+      <c r="BH83" s="219"/>
+    </row>
+    <row r="84" spans="1:60" s="150" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="263" t="s">
         <v>224</v>
       </c>
-      <c r="B80" s="219" t="s">
+      <c r="B84" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="C80" s="219" t="s">
+      <c r="C84" s="263" t="s">
         <v>225</v>
       </c>
-      <c r="D80" s="219" t="s">
+      <c r="D84" s="263" t="s">
         <v>223</v>
       </c>
-      <c r="E80" s="219">
+      <c r="E84" s="263">
         <v>1.5</v>
       </c>
-      <c r="F80" s="281">
+      <c r="F84" s="264">
         <v>45447.52107638889</v>
       </c>
-      <c r="G80" s="219">
+      <c r="G84" s="263">
         <v>1</v>
       </c>
-      <c r="H80" s="219">
+      <c r="H84" s="263">
         <v>55.000999999999998</v>
       </c>
-      <c r="I80" s="219">
+      <c r="I84" s="263">
         <v>8.4877669999999998</v>
       </c>
-      <c r="J80" s="219">
+      <c r="J84" s="263">
         <v>1.691352</v>
       </c>
-      <c r="K80" s="219">
+      <c r="K84" s="263">
         <v>2.488893</v>
       </c>
-      <c r="L80" s="219">
+      <c r="L84" s="263">
         <v>94.304890999999998</v>
       </c>
-      <c r="M80" s="219">
+      <c r="M84" s="263">
         <v>64.997445999999997</v>
       </c>
-      <c r="N80" s="219">
+      <c r="N84" s="263">
         <v>1358.326851</v>
       </c>
-      <c r="O80" s="219">
+      <c r="O84" s="263">
         <v>1358.326851</v>
       </c>
-      <c r="P80" s="219">
+      <c r="P84" s="263">
         <v>122.939154</v>
       </c>
-      <c r="Q80" s="219" t="s">
+      <c r="Q84" s="263" t="s">
         <v>100</v>
       </c>
-      <c r="R80" s="216">
-        <f t="shared" si="47"/>
+      <c r="R84" s="265">
+        <f>INT(T84)</f>
         <v>45447</v>
       </c>
-      <c r="S80" s="217">
-        <f t="shared" si="48"/>
+      <c r="S84" s="266">
+        <f>T84-R84</f>
         <v>0.52107638888992369</v>
       </c>
-      <c r="T80" s="218">
-        <f t="shared" si="49"/>
+      <c r="T84" s="267">
+        <f>F84</f>
         <v>45447.52107638889</v>
       </c>
-      <c r="U80" s="219" t="str">
-        <f t="shared" si="50"/>
+      <c r="U84" s="263" t="str">
+        <f>C84</f>
         <v>DIT_02_SC1-2</v>
       </c>
-      <c r="V80" s="219">
-        <f t="shared" si="51"/>
+      <c r="V84" s="263">
+        <f>E84</f>
         <v>1.5</v>
       </c>
-      <c r="W80" s="219">
-        <f t="shared" si="52"/>
+      <c r="W84" s="263">
+        <f>N84</f>
         <v>1358.326851</v>
       </c>
-      <c r="X80" s="220">
-        <f t="shared" si="53"/>
+      <c r="X84" s="268">
+        <f>($Y$22*W84)+$Z$22</f>
         <v>1.8262871903702129</v>
       </c>
-      <c r="Y80" s="129">
-        <f t="shared" si="54"/>
+      <c r="Y84" s="126">
+        <f>($Y$22+$Y$29*(S84-$X$22)/$X$29)*W84+($Z$22+$Z$29*(S84-$X$22)/$X$29)</f>
         <v>1.8184010553764518</v>
       </c>
-      <c r="Z80" s="97">
-        <f t="shared" si="55"/>
-        <v>368.15350141940922</v>
-      </c>
-      <c r="AA80" s="221">
-        <f t="shared" si="56"/>
-        <v>245.43566761293948</v>
-      </c>
-      <c r="AB80" s="222">
+      <c r="Z84" s="127">
+        <f>Y84*$AA$3</f>
+        <v>183.84501715423306</v>
+      </c>
+      <c r="AA84" s="269">
+        <f>Z84/V84</f>
+        <v>122.56334476948871</v>
+      </c>
+      <c r="AB84" s="270">
         <v>22</v>
       </c>
-      <c r="AC80" s="223">
+      <c r="AC84" s="271">
         <v>3.3</v>
       </c>
-      <c r="AD80" s="224">
-        <f t="shared" si="57"/>
+      <c r="AD84" s="272">
+        <f>(999.842594 + 0.06793952*AB84 - 0.00909529*AB84^2 + 0.0001001685*AB84^3 -0.000001120083*AB84^4 +
+0.000000006536332*AB84^5 + (0.824493-0.0040899*AB84 + 0.000076438*AB84^2 - 0.00000082467*AB84^3 +
+0.0000000053875*AB84^4)*AC84 + (-0.00572466 + 0.00010227*AB84 - 0.0000016546*AB84^2)*AC84^1.5 +
+0.00048314*AC84^2)/1000</f>
         <v>1.0002738416552892</v>
       </c>
-      <c r="AE80" s="225">
-        <f t="shared" si="58"/>
-        <v>245.36847550345183</v>
-      </c>
-      <c r="AF80" s="226">
+      <c r="AE84" s="273">
+        <f>AA84/AD84</f>
+        <v>122.52979100869665</v>
+      </c>
+      <c r="AF84" s="274">
         <v>0</v>
       </c>
-      <c r="AG80" s="227">
+      <c r="AG84" s="275">
         <v>250</v>
       </c>
-      <c r="AH80" s="228">
-        <f t="shared" si="59"/>
+      <c r="AH84" s="276">
+        <f>1+(AF84/1000/AG84)</f>
         <v>1</v>
       </c>
-      <c r="AI80" s="225">
-        <f t="shared" si="60"/>
-        <v>245.36847550345183</v>
-      </c>
-      <c r="AJ80" s="229">
-        <f t="shared" si="45"/>
-        <v>245.36847550345183</v>
-      </c>
-      <c r="AK80" s="230"/>
-      <c r="AL80" s="230"/>
-      <c r="AM80" s="229">
-        <f t="shared" si="46"/>
-        <v>245.36847550345183</v>
-      </c>
-      <c r="AN80" s="230"/>
-      <c r="AO80" s="230"/>
-      <c r="AP80" s="229" t="s">
+      <c r="AI84" s="273">
+        <f>AH84*AE84</f>
+        <v>122.52979100869665</v>
+      </c>
+      <c r="AJ84" s="277">
+        <f>AI84</f>
+        <v>122.52979100869665</v>
+      </c>
+      <c r="AK84" s="278"/>
+      <c r="AL84" s="278"/>
+      <c r="AM84" s="277">
+        <f>AE84</f>
+        <v>122.52979100869665</v>
+      </c>
+      <c r="AN84" s="278"/>
+      <c r="AO84" s="278"/>
+      <c r="AP84" s="277" t="s">
         <v>281</v>
       </c>
-      <c r="AQ80" s="230"/>
-    </row>
-    <row r="81" spans="1:43" s="263" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="263" t="s">
+      <c r="AQ84" s="278"/>
+      <c r="AR84" s="263"/>
+      <c r="AS84" s="263"/>
+      <c r="AT84" s="263"/>
+      <c r="AU84" s="263"/>
+      <c r="AV84" s="263"/>
+      <c r="AW84" s="263"/>
+      <c r="AX84" s="263"/>
+      <c r="AY84" s="263"/>
+      <c r="AZ84" s="263"/>
+      <c r="BA84" s="263"/>
+      <c r="BB84" s="263"/>
+      <c r="BC84" s="263"/>
+      <c r="BD84" s="263"/>
+      <c r="BE84" s="263"/>
+      <c r="BF84" s="263"/>
+      <c r="BG84" s="263"/>
+      <c r="BH84" s="263"/>
+    </row>
+    <row r="85" spans="1:60" s="202" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="219" t="s">
+        <v>238</v>
+      </c>
+      <c r="B85" s="219" t="s">
+        <v>98</v>
+      </c>
+      <c r="C85" s="219" t="s">
+        <v>239</v>
+      </c>
+      <c r="D85" s="219" t="s">
+        <v>223</v>
+      </c>
+      <c r="E85" s="219">
+        <v>1.5</v>
+      </c>
+      <c r="F85" s="281">
+        <v>45447.544444444444</v>
+      </c>
+      <c r="G85" s="219">
+        <v>1</v>
+      </c>
+      <c r="H85" s="219">
+        <v>55.000999999999998</v>
+      </c>
+      <c r="I85" s="219">
+        <v>8.3902169999999998</v>
+      </c>
+      <c r="J85" s="219">
+        <v>1.6178220000000001</v>
+      </c>
+      <c r="K85" s="219">
+        <v>2.3193220000000001</v>
+      </c>
+      <c r="L85" s="219">
+        <v>75.512827999999999</v>
+      </c>
+      <c r="M85" s="219">
+        <v>63.997456</v>
+      </c>
+      <c r="N85" s="219">
+        <v>1070.418829</v>
+      </c>
+      <c r="O85" s="219">
+        <v>1070.418829</v>
+      </c>
+      <c r="P85" s="219">
+        <v>96.292192</v>
+      </c>
+      <c r="Q85" s="219" t="s">
+        <v>100</v>
+      </c>
+      <c r="R85" s="216">
+        <f>INT(T85)</f>
+        <v>45447</v>
+      </c>
+      <c r="S85" s="217">
+        <f>T85-R85</f>
+        <v>0.54444444444379769</v>
+      </c>
+      <c r="T85" s="218">
+        <f>F85</f>
+        <v>45447.544444444444</v>
+      </c>
+      <c r="U85" s="219" t="str">
+        <f>C85</f>
+        <v>DIT_02_SC2</v>
+      </c>
+      <c r="V85" s="219">
+        <f>E85</f>
+        <v>1.5</v>
+      </c>
+      <c r="W85" s="219">
+        <f>N85</f>
+        <v>1070.418829</v>
+      </c>
+      <c r="X85" s="220">
+        <f>($Y$22*W85)+$Z$22</f>
+        <v>1.4295143270743917</v>
+      </c>
+      <c r="Y85" s="129">
+        <f>($Y$22+$Y$29*(S85-$X$22)/$X$29)*W85+($Z$22+$Z$29*(S85-$X$22)/$X$29)</f>
+        <v>1.4207015197767587</v>
+      </c>
+      <c r="Z85" s="97">
+        <f>Y85*$AA$3</f>
+        <v>143.63657263734427</v>
+      </c>
+      <c r="AA85" s="221">
+        <f>Z85/V85</f>
+        <v>95.757715091562844</v>
+      </c>
+      <c r="AB85" s="222">
+        <v>22</v>
+      </c>
+      <c r="AC85" s="223">
+        <v>3.3</v>
+      </c>
+      <c r="AD85" s="224">
+        <f>(999.842594 + 0.06793952*AB85 - 0.00909529*AB85^2 + 0.0001001685*AB85^3 -0.000001120083*AB85^4 +
+0.000000006536332*AB85^5 + (0.824493-0.0040899*AB85 + 0.000076438*AB85^2 - 0.00000082467*AB85^3 +
+0.0000000053875*AB85^4)*AC85 + (-0.00572466 + 0.00010227*AB85 - 0.0000016546*AB85^2)*AC85^1.5 +
+0.00048314*AC85^2)/1000</f>
+        <v>1.0002738416552892</v>
+      </c>
+      <c r="AE85" s="225">
+        <f>AA85/AD85</f>
+        <v>95.73149981918904</v>
+      </c>
+      <c r="AF85" s="226">
+        <v>0</v>
+      </c>
+      <c r="AG85" s="227">
+        <v>250</v>
+      </c>
+      <c r="AH85" s="228">
+        <f>1+(AF85/1000/AG85)</f>
+        <v>1</v>
+      </c>
+      <c r="AI85" s="225">
+        <f>AH85*AE85</f>
+        <v>95.73149981918904</v>
+      </c>
+      <c r="AJ85" s="229">
+        <f>AI85</f>
+        <v>95.73149981918904</v>
+      </c>
+      <c r="AK85" s="230"/>
+      <c r="AL85" s="230"/>
+      <c r="AM85" s="229">
+        <f>AE85</f>
+        <v>95.73149981918904</v>
+      </c>
+      <c r="AN85" s="230"/>
+      <c r="AO85" s="230"/>
+      <c r="AP85" s="229" t="s">
+        <v>268</v>
+      </c>
+      <c r="AQ85" s="230"/>
+      <c r="AR85" s="219"/>
+      <c r="AS85" s="219"/>
+      <c r="AT85" s="219"/>
+      <c r="AU85" s="219"/>
+      <c r="AV85" s="219"/>
+      <c r="AW85" s="219"/>
+      <c r="AX85" s="219"/>
+      <c r="AY85" s="219"/>
+      <c r="AZ85" s="219"/>
+      <c r="BA85" s="219"/>
+      <c r="BB85" s="219"/>
+      <c r="BC85" s="219"/>
+      <c r="BD85" s="219"/>
+      <c r="BE85" s="219"/>
+      <c r="BF85" s="219"/>
+      <c r="BG85" s="219"/>
+      <c r="BH85" s="219"/>
+    </row>
+    <row r="86" spans="1:60" s="185" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="263" t="s">
+        <v>250</v>
+      </c>
+      <c r="B86" s="263" t="s">
+        <v>98</v>
+      </c>
+      <c r="C86" s="263" t="s">
+        <v>251</v>
+      </c>
+      <c r="D86" s="263" t="s">
+        <v>223</v>
+      </c>
+      <c r="E86" s="263">
+        <v>1.5</v>
+      </c>
+      <c r="F86" s="264">
+        <v>45447.565069444441</v>
+      </c>
+      <c r="G86" s="263">
+        <v>1</v>
+      </c>
+      <c r="H86" s="263">
+        <v>55.000999999999998</v>
+      </c>
+      <c r="I86" s="263">
+        <v>8.2132989999999992</v>
+      </c>
+      <c r="J86" s="263">
+        <v>1.608336</v>
+      </c>
+      <c r="K86" s="263">
+        <v>2.3824290000000001</v>
+      </c>
+      <c r="L86" s="263">
+        <v>91.029374000000004</v>
+      </c>
+      <c r="M86" s="263">
+        <v>64.997131999999993</v>
+      </c>
+      <c r="N86" s="263">
+        <v>1315.575642</v>
+      </c>
+      <c r="O86" s="263">
+        <v>1315.575642</v>
+      </c>
+      <c r="P86" s="263">
+        <v>118.98802999999999</v>
+      </c>
+      <c r="Q86" s="263" t="s">
+        <v>100</v>
+      </c>
+      <c r="R86" s="265">
+        <f>INT(T86)</f>
+        <v>45447</v>
+      </c>
+      <c r="S86" s="266">
+        <f>T86-R86</f>
+        <v>0.56506944444117835</v>
+      </c>
+      <c r="T86" s="267">
+        <f>F86</f>
+        <v>45447.565069444441</v>
+      </c>
+      <c r="U86" s="263" t="str">
+        <f>C86</f>
+        <v>DIT_02_SC3</v>
+      </c>
+      <c r="V86" s="263">
+        <f>E86</f>
+        <v>1.5</v>
+      </c>
+      <c r="W86" s="263">
+        <f>N86</f>
+        <v>1315.575642</v>
+      </c>
+      <c r="X86" s="268">
+        <f>($Y$22*W86)+$Z$22</f>
+        <v>1.7673707368221139</v>
+      </c>
+      <c r="Y86" s="126">
+        <f>($Y$22+$Y$29*(S86-$X$22)/$X$29)*W86+($Z$22+$Z$29*(S86-$X$22)/$X$29)</f>
+        <v>1.7540564783702399</v>
+      </c>
+      <c r="Z86" s="127">
+        <f>Y86*$AA$3</f>
+        <v>177.33961515366067</v>
+      </c>
+      <c r="AA86" s="269">
+        <f>Z86/V86</f>
+        <v>118.22641010244045</v>
+      </c>
+      <c r="AB86" s="270">
+        <v>22</v>
+      </c>
+      <c r="AC86" s="271">
+        <v>3.3</v>
+      </c>
+      <c r="AD86" s="272">
+        <f>(999.842594 + 0.06793952*AB86 - 0.00909529*AB86^2 + 0.0001001685*AB86^3 -0.000001120083*AB86^4 +
+0.000000006536332*AB86^5 + (0.824493-0.0040899*AB86 + 0.000076438*AB86^2 - 0.00000082467*AB86^3 +
+0.0000000053875*AB86^4)*AC86 + (-0.00572466 + 0.00010227*AB86 - 0.0000016546*AB86^2)*AC86^1.5 +
+0.00048314*AC86^2)/1000</f>
+        <v>1.0002738416552892</v>
+      </c>
+      <c r="AE86" s="273">
+        <f>AA86/AD86</f>
+        <v>118.19404364988205</v>
+      </c>
+      <c r="AF86" s="274">
+        <v>0</v>
+      </c>
+      <c r="AG86" s="275">
+        <v>250</v>
+      </c>
+      <c r="AH86" s="276">
+        <f>1+(AF86/1000/AG86)</f>
+        <v>1</v>
+      </c>
+      <c r="AI86" s="273">
+        <f>AH86*AE86</f>
+        <v>118.19404364988205</v>
+      </c>
+      <c r="AJ86" s="263">
+        <f>AI86</f>
+        <v>118.19404364988205</v>
+      </c>
+      <c r="AK86" s="263"/>
+      <c r="AL86" s="263"/>
+      <c r="AM86" s="263">
+        <f>AE86</f>
+        <v>118.19404364988205</v>
+      </c>
+      <c r="AN86" s="263"/>
+      <c r="AO86" s="263"/>
+      <c r="AP86" s="263" t="s">
+        <v>273</v>
+      </c>
+      <c r="AQ86" s="263"/>
+      <c r="AR86" s="263"/>
+      <c r="AS86" s="263"/>
+      <c r="AT86" s="263"/>
+      <c r="AU86" s="263"/>
+      <c r="AV86" s="263"/>
+      <c r="AW86" s="263"/>
+      <c r="AX86" s="263"/>
+      <c r="AY86" s="263"/>
+      <c r="AZ86" s="263"/>
+      <c r="BA86" s="263"/>
+      <c r="BB86" s="263"/>
+      <c r="BC86" s="263"/>
+      <c r="BD86" s="263"/>
+      <c r="BE86" s="263"/>
+      <c r="BF86" s="263"/>
+      <c r="BG86" s="263"/>
+      <c r="BH86" s="263"/>
+    </row>
+    <row r="87" spans="1:60" s="219" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="219" t="s">
         <v>226</v>
-      </c>
-      <c r="B81" s="263" t="s">
-        <v>98</v>
-      </c>
-      <c r="C81" s="263" t="s">
-        <v>227</v>
-      </c>
-      <c r="D81" s="263" t="s">
-        <v>228</v>
-      </c>
-      <c r="E81" s="263">
-        <v>1.5</v>
-      </c>
-      <c r="F81" s="264">
-        <v>45447.524513888886</v>
-      </c>
-      <c r="G81" s="263">
-        <v>1</v>
-      </c>
-      <c r="H81" s="263">
-        <v>55.000999999999998</v>
-      </c>
-      <c r="I81" s="263">
-        <v>8.4211399999999994</v>
-      </c>
-      <c r="J81" s="263">
-        <v>1.683837</v>
-      </c>
-      <c r="K81" s="263">
-        <v>2.4528289999999999</v>
-      </c>
-      <c r="L81" s="263">
-        <v>106.07026999999999</v>
-      </c>
-      <c r="M81" s="263">
-        <v>64.997127000000006</v>
-      </c>
-      <c r="N81" s="263">
-        <v>1496.8146609999999</v>
-      </c>
-      <c r="O81" s="263">
-        <v>1496.8146609999999</v>
-      </c>
-      <c r="P81" s="263">
-        <v>135.73838499999999</v>
-      </c>
-      <c r="Q81" s="263" t="s">
-        <v>100</v>
-      </c>
-      <c r="R81" s="265">
-        <f t="shared" si="47"/>
-        <v>45447</v>
-      </c>
-      <c r="S81" s="266">
-        <f t="shared" si="48"/>
-        <v>0.52451388888584916</v>
-      </c>
-      <c r="T81" s="267">
-        <f t="shared" si="49"/>
-        <v>45447.524513888886</v>
-      </c>
-      <c r="U81" s="263" t="str">
-        <f t="shared" si="50"/>
-        <v>DIT_02_SL1-1</v>
-      </c>
-      <c r="V81" s="263">
-        <f t="shared" si="51"/>
-        <v>1.5</v>
-      </c>
-      <c r="W81" s="263">
-        <f t="shared" si="52"/>
-        <v>1496.8146609999999</v>
-      </c>
-      <c r="X81" s="268">
-        <f t="shared" si="53"/>
-        <v>2.0171405209705933</v>
-      </c>
-      <c r="Y81" s="126">
-        <f t="shared" si="54"/>
-        <v>2.0080058833302425</v>
-      </c>
-      <c r="Z81" s="127">
-        <f t="shared" si="55"/>
-        <v>406.54089736312841</v>
-      </c>
-      <c r="AA81" s="269">
-        <f t="shared" si="56"/>
-        <v>271.02726490875227</v>
-      </c>
-      <c r="AB81" s="270">
-        <v>22</v>
-      </c>
-      <c r="AC81" s="271">
-        <v>3.3</v>
-      </c>
-      <c r="AD81" s="272">
-        <f t="shared" si="57"/>
-        <v>1.0002738416552892</v>
-      </c>
-      <c r="AE81" s="273">
-        <f t="shared" si="58"/>
-        <v>270.95306667246899</v>
-      </c>
-      <c r="AF81" s="274">
-        <v>0</v>
-      </c>
-      <c r="AG81" s="275">
-        <v>250</v>
-      </c>
-      <c r="AH81" s="276">
-        <f t="shared" si="59"/>
-        <v>1</v>
-      </c>
-      <c r="AI81" s="273">
-        <f t="shared" si="60"/>
-        <v>270.95306667246899</v>
-      </c>
-      <c r="AJ81" s="277">
-        <f t="shared" si="45"/>
-        <v>270.95306667246899</v>
-      </c>
-      <c r="AK81" s="278"/>
-      <c r="AL81" s="278"/>
-      <c r="AM81" s="277">
-        <f t="shared" si="46"/>
-        <v>270.95306667246899</v>
-      </c>
-      <c r="AN81" s="278"/>
-      <c r="AO81" s="278"/>
-      <c r="AP81" s="277" t="s">
-        <v>282</v>
-      </c>
-      <c r="AQ81" s="278"/>
-    </row>
-    <row r="82" spans="1:43" s="263" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="263" t="s">
-        <v>229</v>
-      </c>
-      <c r="B82" s="263" t="s">
-        <v>98</v>
-      </c>
-      <c r="C82" s="263" t="s">
-        <v>227</v>
-      </c>
-      <c r="D82" s="263" t="s">
-        <v>228</v>
-      </c>
-      <c r="E82" s="263">
-        <v>1.5</v>
-      </c>
-      <c r="F82" s="264">
-        <v>45447.527303240742</v>
-      </c>
-      <c r="G82" s="263">
-        <v>1</v>
-      </c>
-      <c r="H82" s="263">
-        <v>55.000999999999998</v>
-      </c>
-      <c r="I82" s="263">
-        <v>8.4925460000000008</v>
-      </c>
-      <c r="J82" s="263">
-        <v>1.636193</v>
-      </c>
-      <c r="K82" s="263">
-        <v>2.378549</v>
-      </c>
-      <c r="L82" s="263">
-        <v>105.51170999999999</v>
-      </c>
-      <c r="M82" s="263">
-        <v>65.997128000000004</v>
-      </c>
-      <c r="N82" s="263">
-        <v>1508.472473</v>
-      </c>
-      <c r="O82" s="263">
-        <v>1508.472473</v>
-      </c>
-      <c r="P82" s="263">
-        <v>136.81581600000001</v>
-      </c>
-      <c r="Q82" s="263" t="s">
-        <v>100</v>
-      </c>
-      <c r="R82" s="265">
-        <f t="shared" si="47"/>
-        <v>45447</v>
-      </c>
-      <c r="S82" s="266">
-        <f t="shared" si="48"/>
-        <v>0.52730324074218515</v>
-      </c>
-      <c r="T82" s="267">
-        <f t="shared" si="49"/>
-        <v>45447.527303240742</v>
-      </c>
-      <c r="U82" s="263" t="str">
-        <f t="shared" si="50"/>
-        <v>DIT_02_SL1-1</v>
-      </c>
-      <c r="V82" s="263">
-        <f t="shared" si="51"/>
-        <v>1.5</v>
-      </c>
-      <c r="W82" s="263">
-        <f t="shared" si="52"/>
-        <v>1508.472473</v>
-      </c>
-      <c r="X82" s="268">
-        <f t="shared" si="53"/>
-        <v>2.0332064277656619</v>
-      </c>
-      <c r="Y82" s="126">
-        <f t="shared" si="54"/>
-        <v>2.0235972583738646</v>
-      </c>
-      <c r="Z82" s="127">
-        <f t="shared" si="55"/>
-        <v>409.69752735807987</v>
-      </c>
-      <c r="AA82" s="269">
-        <f t="shared" si="56"/>
-        <v>273.13168490538658</v>
-      </c>
-      <c r="AB82" s="270">
-        <v>22</v>
-      </c>
-      <c r="AC82" s="271">
-        <v>3.3</v>
-      </c>
-      <c r="AD82" s="272">
-        <f t="shared" si="57"/>
-        <v>1.0002738416552892</v>
-      </c>
-      <c r="AE82" s="273">
-        <f t="shared" si="58"/>
-        <v>273.05691054901365</v>
-      </c>
-      <c r="AF82" s="274">
-        <v>0</v>
-      </c>
-      <c r="AG82" s="275">
-        <v>250</v>
-      </c>
-      <c r="AH82" s="276">
-        <f t="shared" si="59"/>
-        <v>1</v>
-      </c>
-      <c r="AI82" s="273">
-        <f t="shared" si="60"/>
-        <v>273.05691054901365</v>
-      </c>
-      <c r="AJ82" s="277">
-        <f t="shared" si="45"/>
-        <v>273.05691054901365</v>
-      </c>
-      <c r="AK82" s="278"/>
-      <c r="AL82" s="278"/>
-      <c r="AM82" s="277">
-        <f t="shared" si="46"/>
-        <v>273.05691054901365</v>
-      </c>
-      <c r="AN82" s="278"/>
-      <c r="AO82" s="278"/>
-      <c r="AP82" s="277" t="s">
-        <v>282</v>
-      </c>
-      <c r="AQ82" s="278"/>
-    </row>
-    <row r="83" spans="1:43" s="168" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="168" t="s">
-        <v>230</v>
-      </c>
-      <c r="B83" s="168" t="s">
-        <v>98</v>
-      </c>
-      <c r="C83" s="168" t="s">
-        <v>231</v>
-      </c>
-      <c r="D83" s="168" t="s">
-        <v>119</v>
-      </c>
-      <c r="E83" s="168">
-        <v>1.5</v>
-      </c>
-      <c r="F83" s="279">
-        <v>45447.530740740738</v>
-      </c>
-      <c r="G83" s="168">
-        <v>1</v>
-      </c>
-      <c r="H83" s="168">
-        <v>55.000999999999998</v>
-      </c>
-      <c r="I83" s="168">
-        <v>8.465306</v>
-      </c>
-      <c r="J83" s="168">
-        <v>1.7522819999999999</v>
-      </c>
-      <c r="K83" s="168">
-        <v>2.5455899999999998</v>
-      </c>
-      <c r="L83" s="168">
-        <v>81.260220000000004</v>
-      </c>
-      <c r="M83" s="168">
-        <v>62.997450999999998</v>
-      </c>
-      <c r="N83" s="168">
-        <v>1141.602785</v>
-      </c>
-      <c r="O83" s="168">
-        <v>1141.602785</v>
-      </c>
-      <c r="P83" s="168">
-        <v>102.909223</v>
-      </c>
-      <c r="Q83" s="168" t="s">
-        <v>100</v>
-      </c>
-      <c r="R83" s="165">
-        <f t="shared" si="47"/>
-        <v>45447</v>
-      </c>
-      <c r="S83" s="166">
-        <f t="shared" si="48"/>
-        <v>0.53074074073811062</v>
-      </c>
-      <c r="T83" s="167">
-        <f t="shared" si="49"/>
-        <v>45447.530740740738</v>
-      </c>
-      <c r="U83" s="168" t="str">
-        <f t="shared" si="50"/>
-        <v>DIT_02_BC2</v>
-      </c>
-      <c r="V83" s="168">
-        <f t="shared" si="51"/>
-        <v>1.5</v>
-      </c>
-      <c r="W83" s="168">
-        <f t="shared" si="52"/>
-        <v>1141.602785</v>
-      </c>
-      <c r="X83" s="169">
-        <f t="shared" si="53"/>
-        <v>1.5276146226015646</v>
-      </c>
-      <c r="Y83" s="170">
-        <f t="shared" si="54"/>
-        <v>1.519811242210154</v>
-      </c>
-      <c r="Z83" s="171">
-        <f t="shared" si="55"/>
-        <v>307.7010039462474</v>
-      </c>
-      <c r="AA83" s="172">
-        <f t="shared" si="56"/>
-        <v>205.13400263083159</v>
-      </c>
-      <c r="AB83" s="173">
-        <v>22</v>
-      </c>
-      <c r="AC83" s="174">
-        <v>1.65</v>
-      </c>
-      <c r="AD83" s="175">
-        <f t="shared" si="57"/>
-        <v>0.9990258775032208</v>
-      </c>
-      <c r="AE83" s="176">
-        <f t="shared" si="58"/>
-        <v>205.33402312210902</v>
-      </c>
-      <c r="AF83" s="177">
-        <v>0</v>
-      </c>
-      <c r="AG83" s="178">
-        <v>250</v>
-      </c>
-      <c r="AH83" s="179">
-        <f t="shared" si="59"/>
-        <v>1</v>
-      </c>
-      <c r="AI83" s="176">
-        <f t="shared" si="60"/>
-        <v>205.33402312210902</v>
-      </c>
-      <c r="AJ83" s="180">
-        <f t="shared" si="45"/>
-        <v>205.33402312210902</v>
-      </c>
-      <c r="AK83" s="181"/>
-      <c r="AL83" s="181"/>
-      <c r="AM83" s="180">
-        <f t="shared" si="46"/>
-        <v>205.33402312210902</v>
-      </c>
-      <c r="AN83" s="181"/>
-      <c r="AO83" s="181"/>
-      <c r="AP83" s="180" t="s">
-        <v>276</v>
-      </c>
-      <c r="AQ83" s="181"/>
-    </row>
-    <row r="84" spans="1:43" s="150" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="150" t="s">
-        <v>232</v>
-      </c>
-      <c r="B84" s="150" t="s">
-        <v>98</v>
-      </c>
-      <c r="C84" s="150" t="s">
-        <v>233</v>
-      </c>
-      <c r="D84" s="150" t="s">
-        <v>129</v>
-      </c>
-      <c r="E84" s="150">
-        <v>1.5</v>
-      </c>
-      <c r="F84" s="261">
-        <v>45447.534166666665</v>
-      </c>
-      <c r="G84" s="150">
-        <v>1</v>
-      </c>
-      <c r="H84" s="150">
-        <v>55.000999999999998</v>
-      </c>
-      <c r="I84" s="150">
-        <v>8.4692369999999997</v>
-      </c>
-      <c r="J84" s="150">
-        <v>1.644476</v>
-      </c>
-      <c r="K84" s="150">
-        <v>2.4050259999999999</v>
-      </c>
-      <c r="L84" s="150">
-        <v>117.86046</v>
-      </c>
-      <c r="M84" s="150">
-        <v>65.997138000000007</v>
-      </c>
-      <c r="N84" s="150">
-        <v>1662.6138000000001</v>
-      </c>
-      <c r="O84" s="150">
-        <v>1662.6138000000001</v>
-      </c>
-      <c r="P84" s="150">
-        <v>151.06176500000001</v>
-      </c>
-      <c r="Q84" s="150" t="s">
-        <v>100</v>
-      </c>
-      <c r="R84" s="147">
-        <f t="shared" si="47"/>
-        <v>45447</v>
-      </c>
-      <c r="S84" s="148">
-        <f t="shared" si="48"/>
-        <v>0.53416666666453239</v>
-      </c>
-      <c r="T84" s="149">
-        <f t="shared" si="49"/>
-        <v>45447.534166666665</v>
-      </c>
-      <c r="U84" s="150" t="str">
-        <f t="shared" si="50"/>
-        <v>DIT_02_BL2</v>
-      </c>
-      <c r="V84" s="150">
-        <f t="shared" si="51"/>
-        <v>1.5</v>
-      </c>
-      <c r="W84" s="150">
-        <f t="shared" si="52"/>
-        <v>1662.6138000000001</v>
-      </c>
-      <c r="X84" s="151">
-        <f t="shared" si="53"/>
-        <v>2.245632240847061</v>
-      </c>
-      <c r="Y84" s="152">
-        <f t="shared" si="54"/>
-        <v>2.2340017950645552</v>
-      </c>
-      <c r="Z84" s="153">
-        <f t="shared" si="55"/>
-        <v>452.29603260431116</v>
-      </c>
-      <c r="AA84" s="154">
-        <f t="shared" si="56"/>
-        <v>301.53068840287409</v>
-      </c>
-      <c r="AB84" s="155">
-        <v>22</v>
-      </c>
-      <c r="AC84" s="156">
-        <v>1.65</v>
-      </c>
-      <c r="AD84" s="157">
-        <f t="shared" si="57"/>
-        <v>0.9990258775032208</v>
-      </c>
-      <c r="AE84" s="158">
-        <f t="shared" si="58"/>
-        <v>301.82470263579529</v>
-      </c>
-      <c r="AF84" s="159">
-        <v>0</v>
-      </c>
-      <c r="AG84" s="160">
-        <v>250</v>
-      </c>
-      <c r="AH84" s="161">
-        <f t="shared" si="59"/>
-        <v>1</v>
-      </c>
-      <c r="AI84" s="158">
-        <f t="shared" si="60"/>
-        <v>301.82470263579529</v>
-      </c>
-      <c r="AJ84" s="162">
-        <f t="shared" si="45"/>
-        <v>301.82470263579529</v>
-      </c>
-      <c r="AK84" s="163"/>
-      <c r="AL84" s="163"/>
-      <c r="AM84" s="162">
-        <f t="shared" si="46"/>
-        <v>301.82470263579529</v>
-      </c>
-      <c r="AN84" s="163"/>
-      <c r="AO84" s="163"/>
-      <c r="AP84" s="162" t="s">
-        <v>266</v>
-      </c>
-      <c r="AQ84" s="163"/>
-    </row>
-    <row r="85" spans="1:43" s="202" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="202" t="s">
-        <v>234</v>
-      </c>
-      <c r="B85" s="202" t="s">
-        <v>98</v>
-      </c>
-      <c r="C85" s="202" t="s">
-        <v>235</v>
-      </c>
-      <c r="D85" s="202" t="s">
-        <v>131</v>
-      </c>
-      <c r="E85" s="202">
-        <v>1.5</v>
-      </c>
-      <c r="F85" s="280">
-        <v>45447.537604166668</v>
-      </c>
-      <c r="G85" s="202">
-        <v>1</v>
-      </c>
-      <c r="H85" s="202">
-        <v>55.000999999999998</v>
-      </c>
-      <c r="I85" s="202">
-        <v>8.4708780000000008</v>
-      </c>
-      <c r="J85" s="202">
-        <v>1.659313</v>
-      </c>
-      <c r="K85" s="202">
-        <v>2.395178</v>
-      </c>
-      <c r="L85" s="202">
-        <v>74.205748</v>
-      </c>
-      <c r="M85" s="202">
-        <v>62.997459999999997</v>
-      </c>
-      <c r="N85" s="202">
-        <v>1050.6404680000001</v>
-      </c>
-      <c r="O85" s="202">
-        <v>1050.6404680000001</v>
-      </c>
-      <c r="P85" s="202">
-        <v>94.449338999999995</v>
-      </c>
-      <c r="Q85" s="202" t="s">
-        <v>100</v>
-      </c>
-      <c r="R85" s="199">
-        <f t="shared" si="47"/>
-        <v>45447</v>
-      </c>
-      <c r="S85" s="200">
-        <f t="shared" si="48"/>
-        <v>0.53760416666773381</v>
-      </c>
-      <c r="T85" s="201">
-        <f t="shared" si="49"/>
-        <v>45447.537604166668</v>
-      </c>
-      <c r="U85" s="202" t="str">
-        <f t="shared" si="50"/>
-        <v>DIT_02_FC3-1</v>
-      </c>
-      <c r="V85" s="202">
-        <f t="shared" si="51"/>
-        <v>1.5</v>
-      </c>
-      <c r="W85" s="202">
-        <f t="shared" si="52"/>
-        <v>1050.6404680000001</v>
-      </c>
-      <c r="X85" s="203">
-        <f t="shared" si="53"/>
-        <v>1.4022572993932791</v>
-      </c>
-      <c r="Y85" s="204">
-        <f t="shared" si="54"/>
-        <v>1.394308711242501</v>
-      </c>
-      <c r="Z85" s="205">
-        <f t="shared" si="55"/>
-        <v>282.29175988750262</v>
-      </c>
-      <c r="AA85" s="206">
-        <f t="shared" si="56"/>
-        <v>188.19450659166841</v>
-      </c>
-      <c r="AB85" s="207">
-        <v>22</v>
-      </c>
-      <c r="AC85" s="208">
-        <v>0</v>
-      </c>
-      <c r="AD85" s="209">
-        <f t="shared" si="57"/>
-        <v>0.9977730369545097</v>
-      </c>
-      <c r="AE85" s="210">
-        <f t="shared" si="58"/>
-        <v>188.61454421146937</v>
-      </c>
-      <c r="AF85" s="211">
-        <v>0</v>
-      </c>
-      <c r="AG85" s="212">
-        <v>250</v>
-      </c>
-      <c r="AH85" s="213">
-        <f t="shared" si="59"/>
-        <v>1</v>
-      </c>
-      <c r="AI85" s="210">
-        <f t="shared" si="60"/>
-        <v>188.61454421146937</v>
-      </c>
-      <c r="AJ85" s="214">
-        <f t="shared" si="45"/>
-        <v>188.61454421146937</v>
-      </c>
-      <c r="AK85" s="215"/>
-      <c r="AL85" s="215"/>
-      <c r="AM85" s="214">
-        <f t="shared" si="46"/>
-        <v>188.61454421146937</v>
-      </c>
-      <c r="AN85" s="215"/>
-      <c r="AO85" s="215"/>
-      <c r="AP85" s="214" t="s">
-        <v>275</v>
-      </c>
-      <c r="AQ85" s="215"/>
-    </row>
-    <row r="86" spans="1:43" s="185" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="185" t="s">
-        <v>236</v>
-      </c>
-      <c r="B86" s="185" t="s">
-        <v>98</v>
-      </c>
-      <c r="C86" s="185" t="s">
-        <v>237</v>
-      </c>
-      <c r="D86" s="185" t="s">
-        <v>133</v>
-      </c>
-      <c r="E86" s="185">
-        <v>1.5</v>
-      </c>
-      <c r="F86" s="262">
-        <v>45447.541030092594</v>
-      </c>
-      <c r="G86" s="185">
-        <v>1</v>
-      </c>
-      <c r="H86" s="185">
-        <v>55.000999999999998</v>
-      </c>
-      <c r="I86" s="185">
-        <v>8.3633290000000002</v>
-      </c>
-      <c r="J86" s="185">
-        <v>1.6313690000000001</v>
-      </c>
-      <c r="K86" s="185">
-        <v>2.32775</v>
-      </c>
-      <c r="L86" s="185">
-        <v>89.606458000000003</v>
-      </c>
-      <c r="M86" s="185">
-        <v>63.997132000000001</v>
-      </c>
-      <c r="N86" s="185">
-        <v>1240.9325409999999</v>
-      </c>
-      <c r="O86" s="185">
-        <v>1240.9325409999999</v>
-      </c>
-      <c r="P86" s="185">
-        <v>112.08941299999999</v>
-      </c>
-      <c r="Q86" s="185" t="s">
-        <v>100</v>
-      </c>
-      <c r="R86" s="182">
-        <f t="shared" si="47"/>
-        <v>45447</v>
-      </c>
-      <c r="S86" s="183">
-        <f t="shared" si="48"/>
-        <v>0.54103009259415558</v>
-      </c>
-      <c r="T86" s="184">
-        <f t="shared" si="49"/>
-        <v>45447.541030092594</v>
-      </c>
-      <c r="U86" s="185" t="str">
-        <f t="shared" si="50"/>
-        <v>DIT_02_FL2</v>
-      </c>
-      <c r="V86" s="185">
-        <f t="shared" si="51"/>
-        <v>1.5</v>
-      </c>
-      <c r="W86" s="185">
-        <f t="shared" si="52"/>
-        <v>1240.9325409999999</v>
-      </c>
-      <c r="X86" s="186">
-        <f t="shared" si="53"/>
-        <v>1.6645033116516919</v>
-      </c>
-      <c r="Y86" s="187">
-        <f t="shared" si="54"/>
-        <v>1.6548211354440467</v>
-      </c>
-      <c r="Z86" s="188">
-        <f t="shared" si="55"/>
-        <v>335.03510869357899</v>
-      </c>
-      <c r="AA86" s="189">
-        <f t="shared" si="56"/>
-        <v>223.35673912905267</v>
-      </c>
-      <c r="AB86" s="190">
-        <v>22</v>
-      </c>
-      <c r="AC86" s="191">
-        <v>0</v>
-      </c>
-      <c r="AD86" s="192">
-        <f t="shared" si="57"/>
-        <v>0.9977730369545097</v>
-      </c>
-      <c r="AE86" s="193">
-        <f t="shared" si="58"/>
-        <v>223.85525651284553</v>
-      </c>
-      <c r="AF86" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG86" s="195">
-        <v>250</v>
-      </c>
-      <c r="AH86" s="196">
-        <f t="shared" si="59"/>
-        <v>1</v>
-      </c>
-      <c r="AI86" s="193">
-        <f t="shared" si="60"/>
-        <v>223.85525651284553</v>
-      </c>
-      <c r="AJ86" s="197">
-        <f t="shared" si="45"/>
-        <v>223.85525651284553</v>
-      </c>
-      <c r="AK86" s="198"/>
-      <c r="AL86" s="198"/>
-      <c r="AM86" s="197">
-        <f t="shared" si="46"/>
-        <v>223.85525651284553</v>
-      </c>
-      <c r="AN86" s="198"/>
-      <c r="AO86" s="198"/>
-      <c r="AP86" s="197" t="s">
-        <v>267</v>
-      </c>
-      <c r="AQ86" s="198"/>
-    </row>
-    <row r="87" spans="1:43" s="219" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="219" t="s">
-        <v>238</v>
       </c>
       <c r="B87" s="219" t="s">
         <v>98</v>
       </c>
       <c r="C87" s="219" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D87" s="219" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E87" s="219">
         <v>1.5</v>
       </c>
       <c r="F87" s="281">
-        <v>45447.544444444444</v>
+        <v>45447.524513888886</v>
       </c>
       <c r="G87" s="219">
         <v>1</v>
@@ -15311,71 +15602,71 @@
         <v>55.000999999999998</v>
       </c>
       <c r="I87" s="219">
-        <v>8.3902169999999998</v>
+        <v>8.4211399999999994</v>
       </c>
       <c r="J87" s="219">
-        <v>1.6178220000000001</v>
+        <v>1.683837</v>
       </c>
       <c r="K87" s="219">
-        <v>2.3193220000000001</v>
+        <v>2.4528289999999999</v>
       </c>
       <c r="L87" s="219">
-        <v>75.512827999999999</v>
+        <v>106.07026999999999</v>
       </c>
       <c r="M87" s="219">
-        <v>63.997456</v>
+        <v>64.997127000000006</v>
       </c>
       <c r="N87" s="219">
-        <v>1070.418829</v>
+        <v>1496.8146609999999</v>
       </c>
       <c r="O87" s="219">
-        <v>1070.418829</v>
+        <v>1496.8146609999999</v>
       </c>
       <c r="P87" s="219">
-        <v>96.292192</v>
+        <v>135.73838499999999</v>
       </c>
       <c r="Q87" s="219" t="s">
         <v>100</v>
       </c>
       <c r="R87" s="216">
-        <f t="shared" si="47"/>
+        <f>INT(T87)</f>
         <v>45447</v>
       </c>
       <c r="S87" s="217">
-        <f t="shared" si="48"/>
-        <v>0.54444444444379769</v>
+        <f>T87-R87</f>
+        <v>0.52451388888584916</v>
       </c>
       <c r="T87" s="218">
-        <f t="shared" si="49"/>
-        <v>45447.544444444444</v>
+        <f>F87</f>
+        <v>45447.524513888886</v>
       </c>
       <c r="U87" s="219" t="str">
-        <f t="shared" si="50"/>
-        <v>DIT_02_SC2</v>
+        <f>C87</f>
+        <v>DIT_02_SL1-1</v>
       </c>
       <c r="V87" s="219">
-        <f t="shared" si="51"/>
+        <f>E87</f>
         <v>1.5</v>
       </c>
       <c r="W87" s="219">
-        <f t="shared" si="52"/>
-        <v>1070.418829</v>
+        <f>N87</f>
+        <v>1496.8146609999999</v>
       </c>
       <c r="X87" s="220">
-        <f t="shared" si="53"/>
-        <v>1.4295143270743917</v>
+        <f>($Y$22*W87)+$Z$22</f>
+        <v>2.0171405209705933</v>
       </c>
       <c r="Y87" s="129">
-        <f t="shared" si="54"/>
-        <v>1.4207015197767587</v>
+        <f>($Y$22+$Y$29*(S87-$X$22)/$X$29)*W87+($Z$22+$Z$29*(S87-$X$22)/$X$29)</f>
+        <v>2.0080058833302425</v>
       </c>
       <c r="Z87" s="97">
-        <f t="shared" si="55"/>
-        <v>287.63524824803238</v>
+        <f>Y87*$AA$3</f>
+        <v>203.01455224915944</v>
       </c>
       <c r="AA87" s="221">
-        <f t="shared" si="56"/>
-        <v>191.75683216535492</v>
+        <f>Z87/V87</f>
+        <v>135.34303483277296</v>
       </c>
       <c r="AB87" s="222">
         <v>22</v>
@@ -15384,12 +15675,15 @@
         <v>3.3</v>
       </c>
       <c r="AD87" s="224">
-        <f t="shared" si="57"/>
+        <f>(999.842594 + 0.06793952*AB87 - 0.00909529*AB87^2 + 0.0001001685*AB87^3 -0.000001120083*AB87^4 +
+0.000000006536332*AB87^5 + (0.824493-0.0040899*AB87 + 0.000076438*AB87^2 - 0.00000082467*AB87^3 +
+0.0000000053875*AB87^4)*AC87 + (-0.00572466 + 0.00010227*AB87 - 0.0000016546*AB87^2)*AC87^1.5 +
+0.00048314*AC87^2)/1000</f>
         <v>1.0002738416552892</v>
       </c>
       <c r="AE87" s="225">
-        <f t="shared" si="58"/>
-        <v>191.7043355327865</v>
+        <f>AA87/AD87</f>
+        <v>135.30598241857692</v>
       </c>
       <c r="AF87" s="226">
         <v>0</v>
@@ -15398,39 +15692,39 @@
         <v>250</v>
       </c>
       <c r="AH87" s="228">
-        <f t="shared" si="59"/>
+        <f>1+(AF87/1000/AG87)</f>
         <v>1</v>
       </c>
       <c r="AI87" s="225">
-        <f t="shared" si="60"/>
-        <v>191.7043355327865</v>
+        <f>AH87*AE87</f>
+        <v>135.30598241857692</v>
       </c>
       <c r="AJ87" s="229">
-        <f t="shared" si="45"/>
-        <v>191.7043355327865</v>
+        <f>AI87</f>
+        <v>135.30598241857692</v>
       </c>
       <c r="AK87" s="230"/>
       <c r="AL87" s="230"/>
       <c r="AM87" s="229">
-        <f t="shared" si="46"/>
-        <v>191.7043355327865</v>
+        <f>AE87</f>
+        <v>135.30598241857692</v>
       </c>
       <c r="AN87" s="230"/>
       <c r="AO87" s="230"/>
       <c r="AP87" s="229" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="AQ87" s="230"/>
     </row>
-    <row r="88" spans="1:43" s="263" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:60" s="263" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="263" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="B88" s="263" t="s">
         <v>98</v>
       </c>
       <c r="C88" s="263" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D88" s="263" t="s">
         <v>228</v>
@@ -15439,80 +15733,80 @@
         <v>1.5</v>
       </c>
       <c r="F88" s="264">
-        <v>45447.54787037037</v>
+        <v>45447.527303240742</v>
       </c>
       <c r="G88" s="263">
         <v>1</v>
       </c>
       <c r="H88" s="263">
-        <v>55.000500000000002</v>
+        <v>55.000999999999998</v>
       </c>
       <c r="I88" s="263">
-        <v>8.3885330000000007</v>
+        <v>8.4925460000000008</v>
       </c>
       <c r="J88" s="263">
-        <v>1.637202</v>
+        <v>1.636193</v>
       </c>
       <c r="K88" s="263">
-        <v>2.406908</v>
+        <v>2.378549</v>
       </c>
       <c r="L88" s="263">
-        <v>107.20262</v>
+        <v>105.51170999999999</v>
       </c>
       <c r="M88" s="263">
-        <v>64.997139000000004</v>
+        <v>65.997128000000004</v>
       </c>
       <c r="N88" s="263">
-        <v>1515.760031</v>
+        <v>1508.472473</v>
       </c>
       <c r="O88" s="263">
-        <v>1515.760031</v>
+        <v>1508.472473</v>
       </c>
       <c r="P88" s="263">
-        <v>137.489341</v>
+        <v>136.81581600000001</v>
       </c>
       <c r="Q88" s="263" t="s">
         <v>100</v>
       </c>
       <c r="R88" s="265">
-        <f t="shared" si="47"/>
+        <f>INT(T88)</f>
         <v>45447</v>
       </c>
       <c r="S88" s="266">
-        <f t="shared" si="48"/>
-        <v>0.54787037037021946</v>
+        <f>T88-R88</f>
+        <v>0.52730324074218515</v>
       </c>
       <c r="T88" s="267">
-        <f t="shared" si="49"/>
-        <v>45447.54787037037</v>
+        <f>F88</f>
+        <v>45447.527303240742</v>
       </c>
       <c r="U88" s="263" t="str">
-        <f t="shared" si="50"/>
-        <v>DIT_02_SL2</v>
+        <f>C88</f>
+        <v>DIT_02_SL1-1</v>
       </c>
       <c r="V88" s="263">
-        <f t="shared" si="51"/>
+        <f>E88</f>
         <v>1.5</v>
       </c>
       <c r="W88" s="263">
-        <f t="shared" si="52"/>
-        <v>1515.760031</v>
+        <f>N88</f>
+        <v>1508.472473</v>
       </c>
       <c r="X88" s="268">
-        <f t="shared" si="53"/>
-        <v>2.0432495840278877</v>
+        <f>($Y$22*W88)+$Z$22</f>
+        <v>2.0332064277656619</v>
       </c>
       <c r="Y88" s="126">
-        <f t="shared" si="54"/>
-        <v>2.0305764274852138</v>
+        <f>($Y$22+$Y$29*(S88-$X$22)/$X$29)*W88+($Z$22+$Z$29*(S88-$X$22)/$X$29)</f>
+        <v>2.0235972583738646</v>
       </c>
       <c r="Z88" s="127">
-        <f t="shared" si="55"/>
-        <v>411.11053002750998</v>
+        <f>Y88*$AA$3</f>
+        <v>204.59088031159524</v>
       </c>
       <c r="AA88" s="269">
-        <f t="shared" si="56"/>
-        <v>274.07368668500663</v>
+        <f>Z88/V88</f>
+        <v>136.39392020773016</v>
       </c>
       <c r="AB88" s="270">
         <v>22</v>
@@ -15521,12 +15815,15 @@
         <v>3.3</v>
       </c>
       <c r="AD88" s="272">
-        <f t="shared" si="57"/>
+        <f>(999.842594 + 0.06793952*AB88 - 0.00909529*AB88^2 + 0.0001001685*AB88^3 -0.000001120083*AB88^4 +
+0.000000006536332*AB88^5 + (0.824493-0.0040899*AB88 + 0.000076438*AB88^2 - 0.00000082467*AB88^3 +
+0.0000000053875*AB88^4)*AC88 + (-0.00572466 + 0.00010227*AB88 - 0.0000016546*AB88^2)*AC88^1.5 +
+0.00048314*AC88^2)/1000</f>
         <v>1.0002738416552892</v>
       </c>
       <c r="AE88" s="273">
-        <f t="shared" si="58"/>
-        <v>273.9986544399278</v>
+        <f>AA88/AD88</f>
+        <v>136.35658009612706</v>
       </c>
       <c r="AF88" s="274">
         <v>0</v>
@@ -15535,841 +15832,973 @@
         <v>250</v>
       </c>
       <c r="AH88" s="276">
-        <f t="shared" si="59"/>
+        <f>1+(AF88/1000/AG88)</f>
         <v>1</v>
       </c>
       <c r="AI88" s="273">
-        <f t="shared" si="60"/>
-        <v>273.9986544399278</v>
+        <f>AH88*AE88</f>
+        <v>136.35658009612706</v>
       </c>
       <c r="AJ88" s="277">
-        <f t="shared" si="45"/>
-        <v>273.9986544399278</v>
+        <f>AI88</f>
+        <v>136.35658009612706</v>
       </c>
       <c r="AK88" s="278"/>
       <c r="AL88" s="278"/>
       <c r="AM88" s="277">
-        <f t="shared" si="46"/>
-        <v>273.9986544399278</v>
+        <f>AE88</f>
+        <v>136.35658009612706</v>
       </c>
       <c r="AN88" s="278"/>
       <c r="AO88" s="278"/>
       <c r="AP88" s="277" t="s">
+        <v>282</v>
+      </c>
+      <c r="AQ88" s="278"/>
+    </row>
+    <row r="89" spans="1:60" s="168" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="219" t="s">
+        <v>240</v>
+      </c>
+      <c r="B89" s="219" t="s">
+        <v>98</v>
+      </c>
+      <c r="C89" s="219" t="s">
+        <v>241</v>
+      </c>
+      <c r="D89" s="219" t="s">
+        <v>228</v>
+      </c>
+      <c r="E89" s="219">
+        <v>1.5</v>
+      </c>
+      <c r="F89" s="281">
+        <v>45447.54787037037</v>
+      </c>
+      <c r="G89" s="219">
+        <v>1</v>
+      </c>
+      <c r="H89" s="219">
+        <v>55.000500000000002</v>
+      </c>
+      <c r="I89" s="219">
+        <v>8.3885330000000007</v>
+      </c>
+      <c r="J89" s="219">
+        <v>1.637202</v>
+      </c>
+      <c r="K89" s="219">
+        <v>2.406908</v>
+      </c>
+      <c r="L89" s="219">
+        <v>107.20262</v>
+      </c>
+      <c r="M89" s="219">
+        <v>64.997139000000004</v>
+      </c>
+      <c r="N89" s="219">
+        <v>1515.760031</v>
+      </c>
+      <c r="O89" s="219">
+        <v>1515.760031</v>
+      </c>
+      <c r="P89" s="219">
+        <v>137.489341</v>
+      </c>
+      <c r="Q89" s="219" t="s">
+        <v>100</v>
+      </c>
+      <c r="R89" s="216">
+        <f>INT(T89)</f>
+        <v>45447</v>
+      </c>
+      <c r="S89" s="217">
+        <f>T89-R89</f>
+        <v>0.54787037037021946</v>
+      </c>
+      <c r="T89" s="218">
+        <f>F89</f>
+        <v>45447.54787037037</v>
+      </c>
+      <c r="U89" s="219" t="str">
+        <f>C89</f>
+        <v>DIT_02_SL2</v>
+      </c>
+      <c r="V89" s="219">
+        <f>E89</f>
+        <v>1.5</v>
+      </c>
+      <c r="W89" s="219">
+        <f>N89</f>
+        <v>1515.760031</v>
+      </c>
+      <c r="X89" s="220">
+        <f>($Y$22*W89)+$Z$22</f>
+        <v>2.0432495840278877</v>
+      </c>
+      <c r="Y89" s="129">
+        <f>($Y$22+$Y$29*(S89-$X$22)/$X$29)*W89+($Z$22+$Z$29*(S89-$X$22)/$X$29)</f>
+        <v>2.0305764274852138</v>
+      </c>
+      <c r="Z89" s="97">
+        <f>Y89*$AA$3</f>
+        <v>205.29649223433617</v>
+      </c>
+      <c r="AA89" s="221">
+        <f>Z89/V89</f>
+        <v>136.8643281562241</v>
+      </c>
+      <c r="AB89" s="222">
+        <v>22</v>
+      </c>
+      <c r="AC89" s="223">
+        <v>3.3</v>
+      </c>
+      <c r="AD89" s="224">
+        <f>(999.842594 + 0.06793952*AB89 - 0.00909529*AB89^2 + 0.0001001685*AB89^3 -0.000001120083*AB89^4 +
+0.000000006536332*AB89^5 + (0.824493-0.0040899*AB89 + 0.000076438*AB89^2 - 0.00000082467*AB89^3 +
+0.0000000053875*AB89^4)*AC89 + (-0.00572466 + 0.00010227*AB89 - 0.0000016546*AB89^2)*AC89^1.5 +
+0.00048314*AC89^2)/1000</f>
+        <v>1.0002738416552892</v>
+      </c>
+      <c r="AE89" s="225">
+        <f>AA89/AD89</f>
+        <v>136.8268592625956</v>
+      </c>
+      <c r="AF89" s="226">
+        <v>0</v>
+      </c>
+      <c r="AG89" s="227">
+        <v>250</v>
+      </c>
+      <c r="AH89" s="228">
+        <f>1+(AF89/1000/AG89)</f>
+        <v>1</v>
+      </c>
+      <c r="AI89" s="225">
+        <f>AH89*AE89</f>
+        <v>136.8268592625956</v>
+      </c>
+      <c r="AJ89" s="229">
+        <f>AI89</f>
+        <v>136.8268592625956</v>
+      </c>
+      <c r="AK89" s="230"/>
+      <c r="AL89" s="230"/>
+      <c r="AM89" s="229">
+        <f>AE89</f>
+        <v>136.8268592625956</v>
+      </c>
+      <c r="AN89" s="230"/>
+      <c r="AO89" s="230"/>
+      <c r="AP89" s="229" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="89" spans="1:43" s="168" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="168" t="s">
-        <v>242</v>
-      </c>
-      <c r="B89" s="168" t="s">
+      <c r="AQ89" s="219"/>
+      <c r="AR89" s="219"/>
+      <c r="AS89" s="219"/>
+      <c r="AT89" s="219"/>
+      <c r="AU89" s="219"/>
+      <c r="AV89" s="219"/>
+      <c r="AW89" s="219"/>
+      <c r="AX89" s="219"/>
+      <c r="AY89" s="219"/>
+      <c r="AZ89" s="219"/>
+      <c r="BA89" s="219"/>
+      <c r="BB89" s="219"/>
+      <c r="BC89" s="219"/>
+      <c r="BD89" s="219"/>
+      <c r="BE89" s="219"/>
+      <c r="BF89" s="219"/>
+      <c r="BG89" s="219"/>
+      <c r="BH89" s="219"/>
+    </row>
+    <row r="90" spans="1:60" s="150" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="263" t="s">
+        <v>252</v>
+      </c>
+      <c r="B90" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="C89" s="168" t="s">
-        <v>243</v>
-      </c>
-      <c r="D89" s="168" t="s">
+      <c r="C90" s="263" t="s">
+        <v>253</v>
+      </c>
+      <c r="D90" s="263" t="s">
+        <v>228</v>
+      </c>
+      <c r="E90" s="263">
+        <v>1.5</v>
+      </c>
+      <c r="F90" s="264">
+        <v>45447.568495370368</v>
+      </c>
+      <c r="G90" s="263">
+        <v>1</v>
+      </c>
+      <c r="H90" s="263">
+        <v>55.000300000000003</v>
+      </c>
+      <c r="I90" s="263">
+        <v>8.2458530000000003</v>
+      </c>
+      <c r="J90" s="263">
+        <v>1.685082</v>
+      </c>
+      <c r="K90" s="263">
+        <v>2.451724</v>
+      </c>
+      <c r="L90" s="263">
+        <v>110.88672</v>
+      </c>
+      <c r="M90" s="263">
+        <v>64.997445999999997</v>
+      </c>
+      <c r="N90" s="263">
+        <v>1569.803302</v>
+      </c>
+      <c r="O90" s="263">
+        <v>1569.803302</v>
+      </c>
+      <c r="P90" s="263">
+        <v>142.484094</v>
+      </c>
+      <c r="Q90" s="263" t="s">
+        <v>100</v>
+      </c>
+      <c r="R90" s="265">
+        <f>INT(T90)</f>
+        <v>45447</v>
+      </c>
+      <c r="S90" s="266">
+        <f>T90-R90</f>
+        <v>0.56849537036760012</v>
+      </c>
+      <c r="T90" s="267">
+        <f>F90</f>
+        <v>45447.568495370368</v>
+      </c>
+      <c r="U90" s="263" t="str">
+        <f>C90</f>
+        <v>DIT_02_SL3</v>
+      </c>
+      <c r="V90" s="263">
+        <f>E90</f>
+        <v>1.5</v>
+      </c>
+      <c r="W90" s="263">
+        <f>N90</f>
+        <v>1569.803302</v>
+      </c>
+      <c r="X90" s="268">
+        <f>($Y$22*W90)+$Z$22</f>
+        <v>2.117727895634439</v>
+      </c>
+      <c r="Y90" s="126">
+        <f>($Y$22+$Y$29*(S90-$X$22)/$X$29)*W90+($Z$22+$Z$29*(S90-$X$22)/$X$29)</f>
+        <v>2.1015001797097512</v>
+      </c>
+      <c r="Z90" s="127">
+        <f>Y90*$AA$3</f>
+        <v>212.46706574770408</v>
+      </c>
+      <c r="AA90" s="269">
+        <f>Z90/V90</f>
+        <v>141.64471049846938</v>
+      </c>
+      <c r="AB90" s="270">
+        <v>22</v>
+      </c>
+      <c r="AC90" s="271">
+        <v>3.3</v>
+      </c>
+      <c r="AD90" s="272">
+        <f>(999.842594 + 0.06793952*AB90 - 0.00909529*AB90^2 + 0.0001001685*AB90^3 -0.000001120083*AB90^4 +
+0.000000006536332*AB90^5 + (0.824493-0.0040899*AB90 + 0.000076438*AB90^2 - 0.00000082467*AB90^3 +
+0.0000000053875*AB90^4)*AC90 + (-0.00572466 + 0.00010227*AB90 - 0.0000016546*AB90^2)*AC90^1.5 +
+0.00048314*AC90^2)/1000</f>
+        <v>1.0002738416552892</v>
+      </c>
+      <c r="AE90" s="273">
+        <f>AA90/AD90</f>
+        <v>141.60593289540654</v>
+      </c>
+      <c r="AF90" s="274">
+        <v>0</v>
+      </c>
+      <c r="AG90" s="275">
+        <v>250</v>
+      </c>
+      <c r="AH90" s="276">
+        <f>1+(AF90/1000/AG90)</f>
+        <v>1</v>
+      </c>
+      <c r="AI90" s="273">
+        <f>AH90*AE90</f>
+        <v>141.60593289540654</v>
+      </c>
+      <c r="AJ90" s="263">
+        <f>AI90</f>
+        <v>141.60593289540654</v>
+      </c>
+      <c r="AK90" s="263"/>
+      <c r="AL90" s="263"/>
+      <c r="AM90" s="263">
+        <f>AE90</f>
+        <v>141.60593289540654</v>
+      </c>
+      <c r="AN90" s="263"/>
+      <c r="AO90" s="263"/>
+      <c r="AP90" s="263" t="s">
+        <v>274</v>
+      </c>
+      <c r="AQ90" s="263"/>
+      <c r="AR90" s="263"/>
+      <c r="AS90" s="263"/>
+      <c r="AT90" s="263"/>
+      <c r="AU90" s="263"/>
+      <c r="AV90" s="263"/>
+      <c r="AW90" s="263"/>
+      <c r="AX90" s="263"/>
+      <c r="AY90" s="263"/>
+      <c r="AZ90" s="263"/>
+      <c r="BA90" s="263"/>
+      <c r="BB90" s="263"/>
+      <c r="BC90" s="263"/>
+      <c r="BD90" s="263"/>
+      <c r="BE90" s="263"/>
+      <c r="BF90" s="263"/>
+      <c r="BG90" s="263"/>
+      <c r="BH90" s="263"/>
+    </row>
+    <row r="91" spans="1:60" s="202" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="282" t="s">
+        <v>120</v>
+      </c>
+      <c r="B91" s="282" t="s">
+        <v>98</v>
+      </c>
+      <c r="C91" s="282" t="s">
+        <v>208</v>
+      </c>
+      <c r="D91" s="282" t="s">
         <v>119</v>
       </c>
-      <c r="E89" s="168">
+      <c r="E91" s="282">
         <v>1.5</v>
       </c>
-      <c r="F89" s="279">
-        <v>45447.551319444443</v>
-      </c>
-      <c r="G89" s="168">
+      <c r="F91" s="284">
+        <v>45447.478113425925</v>
+      </c>
+      <c r="G91" s="282">
         <v>1</v>
       </c>
-      <c r="H89" s="168">
-        <v>55.000300000000003</v>
-      </c>
-      <c r="I89" s="168">
-        <v>8.4709129999999995</v>
-      </c>
-      <c r="J89" s="168">
-        <v>1.636906</v>
-      </c>
-      <c r="K89" s="168">
-        <v>2.3828900000000002</v>
-      </c>
-      <c r="L89" s="168">
-        <v>80.997467999999998</v>
-      </c>
-      <c r="M89" s="168">
-        <v>63.997124999999997</v>
-      </c>
-      <c r="N89" s="168">
-        <v>1152.636653</v>
-      </c>
-      <c r="O89" s="168">
-        <v>1152.636653</v>
-      </c>
-      <c r="P89" s="168">
-        <v>103.928988</v>
-      </c>
-      <c r="Q89" s="168" t="s">
+      <c r="H91" s="282">
+        <v>55.000999999999998</v>
+      </c>
+      <c r="I91" s="282">
+        <v>8.5353080000000006</v>
+      </c>
+      <c r="J91" s="282">
+        <v>1.7420949999999999</v>
+      </c>
+      <c r="K91" s="282">
+        <v>2.5376989999999999</v>
+      </c>
+      <c r="L91" s="282">
+        <v>758.95289000000002</v>
+      </c>
+      <c r="M91" s="282">
+        <v>95.995845000000003</v>
+      </c>
+      <c r="N91" s="282">
+        <v>10669.7078</v>
+      </c>
+      <c r="O91" s="282">
+        <v>10669.7078</v>
+      </c>
+      <c r="P91" s="282">
+        <v>983.50956699999995</v>
+      </c>
+      <c r="Q91" s="282" t="s">
         <v>100</v>
       </c>
-      <c r="R89" s="165">
-        <f t="shared" si="47"/>
+      <c r="R91" s="286">
+        <f>INT(T91)</f>
         <v>45447</v>
       </c>
-      <c r="S89" s="166">
-        <f t="shared" si="48"/>
-        <v>0.55131944444292458</v>
-      </c>
-      <c r="T89" s="167">
-        <f t="shared" si="49"/>
-        <v>45447.551319444443</v>
-      </c>
-      <c r="U89" s="168" t="str">
-        <f t="shared" si="50"/>
-        <v>DIT_02_BC3</v>
-      </c>
-      <c r="V89" s="168">
-        <f t="shared" si="51"/>
+      <c r="S91" s="288">
+        <f>T91-R91</f>
+        <v>0.47811342592467554</v>
+      </c>
+      <c r="T91" s="290">
+        <f>F91</f>
+        <v>45447.478113425925</v>
+      </c>
+      <c r="U91" s="282" t="str">
+        <f>C91</f>
+        <v>ScottCr</v>
+      </c>
+      <c r="V91" s="282">
+        <f>E91</f>
         <v>1.5</v>
       </c>
-      <c r="W89" s="168">
-        <f t="shared" si="52"/>
-        <v>1152.636653</v>
-      </c>
-      <c r="X89" s="169">
-        <f t="shared" si="53"/>
-        <v>1.542820657394121</v>
-      </c>
-      <c r="Y89" s="170">
-        <f t="shared" si="54"/>
-        <v>1.5326055084330974</v>
-      </c>
-      <c r="Z89" s="171">
-        <f t="shared" si="55"/>
-        <v>310.29133125283465</v>
-      </c>
-      <c r="AA89" s="172">
-        <f t="shared" si="56"/>
-        <v>206.86088750188978</v>
-      </c>
-      <c r="AB89" s="173">
+      <c r="W91" s="282">
+        <f>N91</f>
+        <v>10669.7078</v>
+      </c>
+      <c r="X91" s="292">
+        <f>($Y$22*W91)+$Z$22</f>
+        <v>14.658521786365213</v>
+      </c>
+      <c r="Y91" s="294">
+        <f>($Y$22+$Y$29*(S91-$X$22)/$X$29)*W91+($Z$22+$Z$29*(S91-$X$22)/$X$29)</f>
+        <v>14.642320279019291</v>
+      </c>
+      <c r="Z91" s="296">
+        <f>Y91*$AA$3</f>
+        <v>1480.3761881433718</v>
+      </c>
+      <c r="AA91" s="298">
+        <f>Z91/V91</f>
+        <v>986.91745876224786</v>
+      </c>
+      <c r="AB91" s="300">
         <v>22</v>
       </c>
-      <c r="AC89" s="174">
-        <v>1.65</v>
-      </c>
-      <c r="AD89" s="175">
-        <f t="shared" si="57"/>
-        <v>0.9990258775032208</v>
-      </c>
-      <c r="AE89" s="176">
-        <f t="shared" si="58"/>
-        <v>207.06259183083361</v>
-      </c>
-      <c r="AF89" s="177">
+      <c r="AC91" s="302">
         <v>0</v>
       </c>
-      <c r="AG89" s="178">
+      <c r="AD91" s="304">
+        <f>(999.842594 + 0.06793952*AB91 - 0.00909529*AB91^2 + 0.0001001685*AB91^3 -0.000001120083*AB91^4 +
+0.000000006536332*AB91^5 + (0.824493-0.0040899*AB91 + 0.000076438*AB91^2 - 0.00000082467*AB91^3 +
+0.0000000053875*AB91^4)*AC91 + (-0.00572466 + 0.00010227*AB91 - 0.0000016546*AB91^2)*AC91^1.5 +
+0.00048314*AC91^2)/1000</f>
+        <v>0.9977730369545097</v>
+      </c>
+      <c r="AE91" s="306">
+        <f>AA91/AD91</f>
+        <v>989.12019287933833</v>
+      </c>
+      <c r="AF91" s="308">
+        <v>0</v>
+      </c>
+      <c r="AG91" s="310">
         <v>250</v>
       </c>
-      <c r="AH89" s="179">
-        <f t="shared" si="59"/>
+      <c r="AH91" s="312">
+        <f>1+(AF91/1000/AG91)</f>
         <v>1</v>
       </c>
-      <c r="AI89" s="176">
-        <f t="shared" si="60"/>
-        <v>207.06259183083361</v>
-      </c>
-      <c r="AJ89" s="180">
-        <f t="shared" si="45"/>
-        <v>207.06259183083361</v>
-      </c>
-      <c r="AK89" s="181"/>
-      <c r="AL89" s="181"/>
-      <c r="AM89" s="180">
-        <f t="shared" si="46"/>
-        <v>207.06259183083361</v>
-      </c>
-      <c r="AN89" s="181"/>
-      <c r="AO89" s="181"/>
-      <c r="AP89" s="180" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="90" spans="1:43" s="150" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="150" t="s">
-        <v>244</v>
-      </c>
-      <c r="B90" s="150" t="s">
+      <c r="AI91" s="306">
+        <f>AH91*AE91</f>
+        <v>989.12019287933833</v>
+      </c>
+      <c r="AJ91" s="298">
+        <f>AI91</f>
+        <v>989.12019287933833</v>
+      </c>
+      <c r="AK91" s="298"/>
+      <c r="AL91" s="316"/>
+      <c r="AM91" s="317">
+        <f>AE91</f>
+        <v>989.12019287933833</v>
+      </c>
+      <c r="AN91" s="316"/>
+      <c r="AO91" s="316"/>
+      <c r="AP91" s="317" t="s">
+        <v>257</v>
+      </c>
+      <c r="AQ91" s="316"/>
+      <c r="AR91" s="282"/>
+      <c r="AS91" s="282"/>
+      <c r="AT91" s="282"/>
+      <c r="AU91" s="282"/>
+      <c r="AV91" s="282"/>
+      <c r="AW91" s="282"/>
+      <c r="AX91" s="282"/>
+      <c r="AY91" s="282"/>
+      <c r="AZ91" s="282"/>
+      <c r="BA91" s="282"/>
+      <c r="BB91" s="282"/>
+      <c r="BC91" s="282"/>
+      <c r="BD91" s="282"/>
+      <c r="BE91" s="282"/>
+      <c r="BF91" s="282"/>
+      <c r="BG91" s="282"/>
+      <c r="BH91" s="282"/>
+    </row>
+    <row r="92" spans="1:60" s="185" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="133" t="s">
+        <v>121</v>
+      </c>
+      <c r="B92" s="133" t="s">
         <v>98</v>
       </c>
-      <c r="C90" s="150" t="s">
-        <v>245</v>
-      </c>
-      <c r="D90" s="150" t="s">
+      <c r="C92" s="133" t="s">
+        <v>209</v>
+      </c>
+      <c r="D92" s="133" t="s">
         <v>129</v>
       </c>
-      <c r="E90" s="150">
+      <c r="E92" s="133">
         <v>1.5</v>
       </c>
-      <c r="F90" s="261">
-        <v>45447.554745370369</v>
-      </c>
-      <c r="G90" s="150">
+      <c r="F92" s="241">
+        <v>45447.481921296298</v>
+      </c>
+      <c r="G92" s="133">
         <v>1</v>
       </c>
-      <c r="H90" s="150">
-        <v>55.000300000000003</v>
-      </c>
-      <c r="I90" s="150">
-        <v>8.4486980000000003</v>
-      </c>
-      <c r="J90" s="150">
-        <v>1.6343179999999999</v>
-      </c>
-      <c r="K90" s="150">
-        <v>2.3539240000000001</v>
-      </c>
-      <c r="L90" s="150">
-        <v>118.20314</v>
-      </c>
-      <c r="M90" s="150">
-        <v>66.997123000000002</v>
-      </c>
-      <c r="N90" s="150">
-        <v>1662.7660410000001</v>
-      </c>
-      <c r="O90" s="150">
-        <v>1662.7660410000001</v>
-      </c>
-      <c r="P90" s="150">
-        <v>151.07583600000001</v>
-      </c>
-      <c r="Q90" s="150" t="s">
+      <c r="H92" s="133">
+        <v>55.000999999999998</v>
+      </c>
+      <c r="I92" s="133">
+        <v>8.4028379999999991</v>
+      </c>
+      <c r="J92" s="133">
+        <v>1.824022</v>
+      </c>
+      <c r="K92" s="133">
+        <v>2.6180400000000001</v>
+      </c>
+      <c r="L92" s="133">
+        <v>766.37964999999997</v>
+      </c>
+      <c r="M92" s="133">
+        <v>93.995856000000003</v>
+      </c>
+      <c r="N92" s="133">
+        <v>10655.873065</v>
+      </c>
+      <c r="O92" s="133">
+        <v>10655.873065</v>
+      </c>
+      <c r="P92" s="133">
+        <v>982.23094200000003</v>
+      </c>
+      <c r="Q92" s="133" t="s">
         <v>100</v>
       </c>
-      <c r="R90" s="147">
-        <f t="shared" si="47"/>
+      <c r="R92" s="130">
+        <f>INT(T92)</f>
         <v>45447</v>
       </c>
-      <c r="S90" s="148">
-        <f t="shared" si="48"/>
-        <v>0.55474537036934635</v>
-      </c>
-      <c r="T90" s="149">
-        <f t="shared" si="49"/>
-        <v>45447.554745370369</v>
-      </c>
-      <c r="U90" s="150" t="str">
-        <f t="shared" si="50"/>
-        <v>DIT_02_BL3</v>
-      </c>
-      <c r="V90" s="150">
-        <f t="shared" si="51"/>
+      <c r="S92" s="131">
+        <f>T92-R92</f>
+        <v>0.48192129629751435</v>
+      </c>
+      <c r="T92" s="132">
+        <f>F92</f>
+        <v>45447.481921296298</v>
+      </c>
+      <c r="U92" s="133" t="str">
+        <f>C92</f>
+        <v>ScottCrF</v>
+      </c>
+      <c r="V92" s="133">
+        <f>E92</f>
         <v>1.5</v>
       </c>
-      <c r="W90" s="150">
-        <f t="shared" si="52"/>
-        <v>1662.7660410000001</v>
-      </c>
-      <c r="X90" s="151">
-        <f t="shared" si="53"/>
-        <v>2.2458420477745005</v>
-      </c>
-      <c r="Y90" s="152">
-        <f t="shared" si="54"/>
-        <v>2.2309132879629465</v>
-      </c>
-      <c r="Z90" s="153">
-        <f t="shared" si="55"/>
-        <v>451.67073341618431</v>
-      </c>
-      <c r="AA90" s="154">
-        <f t="shared" si="56"/>
-        <v>301.11382227745622</v>
-      </c>
-      <c r="AB90" s="155">
+      <c r="W92" s="133">
+        <f>N92</f>
+        <v>10655.873065</v>
+      </c>
+      <c r="X92" s="134">
+        <f>($Y$22*W92)+$Z$22</f>
+        <v>14.639455810430409</v>
+      </c>
+      <c r="Y92" s="135">
+        <f>($Y$22+$Y$29*(S92-$X$22)/$X$29)*W92+($Z$22+$Z$29*(S92-$X$22)/$X$29)</f>
+        <v>14.619549822334692</v>
+      </c>
+      <c r="Z92" s="136">
+        <f>Y92*$AA$3</f>
+        <v>1478.0740364879862</v>
+      </c>
+      <c r="AA92" s="137">
+        <f>Z92/V92</f>
+        <v>985.38269099199078</v>
+      </c>
+      <c r="AB92" s="138">
         <v>22</v>
       </c>
-      <c r="AC90" s="156">
-        <v>1.65</v>
-      </c>
-      <c r="AD90" s="157">
-        <f t="shared" si="57"/>
-        <v>0.9990258775032208</v>
-      </c>
-      <c r="AE90" s="158">
-        <f t="shared" si="58"/>
-        <v>301.40743003575045</v>
-      </c>
-      <c r="AF90" s="159">
+      <c r="AC92" s="139">
         <v>0</v>
       </c>
-      <c r="AG90" s="160">
+      <c r="AD92" s="140">
+        <f>(999.842594 + 0.06793952*AB92 - 0.00909529*AB92^2 + 0.0001001685*AB92^3 -0.000001120083*AB92^4 +
+0.000000006536332*AB92^5 + (0.824493-0.0040899*AB92 + 0.000076438*AB92^2 - 0.00000082467*AB92^3 +
+0.0000000053875*AB92^4)*AC92 + (-0.00572466 + 0.00010227*AB92 - 0.0000016546*AB92^2)*AC92^1.5 +
+0.00048314*AC92^2)/1000</f>
+        <v>0.9977730369545097</v>
+      </c>
+      <c r="AE92" s="141">
+        <f>AA92/AD92</f>
+        <v>987.58199960951254</v>
+      </c>
+      <c r="AF92" s="142">
+        <v>0</v>
+      </c>
+      <c r="AG92" s="143">
         <v>250</v>
       </c>
-      <c r="AH90" s="161">
-        <f t="shared" si="59"/>
+      <c r="AH92" s="144">
+        <f>1+(AF92/1000/AG92)</f>
         <v>1</v>
       </c>
-      <c r="AI90" s="158">
-        <f t="shared" si="60"/>
-        <v>301.40743003575045</v>
-      </c>
-      <c r="AJ90" s="162">
-        <f t="shared" si="45"/>
-        <v>301.40743003575045</v>
-      </c>
-      <c r="AK90" s="163"/>
-      <c r="AL90" s="163"/>
-      <c r="AM90" s="162">
-        <f t="shared" si="46"/>
-        <v>301.40743003575045</v>
-      </c>
-      <c r="AN90" s="163"/>
-      <c r="AO90" s="163"/>
-      <c r="AP90" s="162" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="91" spans="1:43" s="202" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="202" t="s">
-        <v>246</v>
-      </c>
-      <c r="B91" s="202" t="s">
+      <c r="AI92" s="141">
+        <f>AH92*AE92</f>
+        <v>987.58199960951254</v>
+      </c>
+      <c r="AJ92" s="137">
+        <f>AI92</f>
+        <v>987.58199960951254</v>
+      </c>
+      <c r="AK92" s="137"/>
+      <c r="AL92" s="145"/>
+      <c r="AM92" s="146">
+        <f>AE92</f>
+        <v>987.58199960951254</v>
+      </c>
+      <c r="AN92" s="145"/>
+      <c r="AO92" s="145"/>
+      <c r="AP92" s="146" t="s">
+        <v>258</v>
+      </c>
+      <c r="AQ92" s="145"/>
+      <c r="AR92" s="133"/>
+      <c r="AS92" s="133"/>
+      <c r="AT92" s="133"/>
+      <c r="AU92" s="133"/>
+      <c r="AV92" s="133"/>
+      <c r="AW92" s="133"/>
+      <c r="AX92" s="133"/>
+      <c r="AY92" s="133"/>
+      <c r="AZ92" s="133"/>
+      <c r="BA92" s="133"/>
+      <c r="BB92" s="133"/>
+      <c r="BC92" s="133"/>
+      <c r="BD92" s="133"/>
+      <c r="BE92" s="133"/>
+      <c r="BF92" s="133"/>
+      <c r="BG92" s="133"/>
+      <c r="BH92" s="133"/>
+    </row>
+    <row r="93" spans="1:60" s="219" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="283" t="s">
+        <v>122</v>
+      </c>
+      <c r="B93" s="283" t="s">
         <v>98</v>
       </c>
-      <c r="C91" s="202" t="s">
-        <v>247</v>
-      </c>
-      <c r="D91" s="202" t="s">
+      <c r="C93" s="283" t="s">
+        <v>210</v>
+      </c>
+      <c r="D93" s="283" t="s">
         <v>131</v>
       </c>
-      <c r="E91" s="202">
+      <c r="E93" s="283">
         <v>1.5</v>
       </c>
-      <c r="F91" s="280">
-        <v>45447.558206018519</v>
-      </c>
-      <c r="G91" s="202">
+      <c r="F93" s="285">
+        <v>45447.485682870371</v>
+      </c>
+      <c r="G93" s="283">
         <v>1</v>
       </c>
-      <c r="H91" s="202">
-        <v>55.000300000000003</v>
-      </c>
-      <c r="I91" s="202">
-        <v>8.3208970000000004</v>
-      </c>
-      <c r="J91" s="202">
-        <v>1.6158779999999999</v>
-      </c>
-      <c r="K91" s="202">
-        <v>2.309631</v>
-      </c>
-      <c r="L91" s="202">
-        <v>73.708436000000006</v>
-      </c>
-      <c r="M91" s="202">
-        <v>63.997129000000001</v>
-      </c>
-      <c r="N91" s="202">
-        <v>1057.5795009999999</v>
-      </c>
-      <c r="O91" s="202">
-        <v>1057.5795009999999</v>
-      </c>
-      <c r="P91" s="202">
-        <v>95.095884999999996</v>
-      </c>
-      <c r="Q91" s="202" t="s">
+      <c r="H93" s="283">
+        <v>55.000999999999998</v>
+      </c>
+      <c r="I93" s="283">
+        <v>8.5042989999999996</v>
+      </c>
+      <c r="J93" s="283">
+        <v>1.788816</v>
+      </c>
+      <c r="K93" s="283">
+        <v>2.5689540000000002</v>
+      </c>
+      <c r="L93" s="283">
+        <v>1347.2832000000001</v>
+      </c>
+      <c r="M93" s="283">
+        <v>107.995537</v>
+      </c>
+      <c r="N93" s="283">
+        <v>17923.270355000001</v>
+      </c>
+      <c r="O93" s="283">
+        <v>17923.270355000001</v>
+      </c>
+      <c r="P93" s="283">
+        <v>1653.8936229999999</v>
+      </c>
+      <c r="Q93" s="283" t="s">
         <v>100</v>
       </c>
-      <c r="R91" s="199">
-        <f t="shared" si="47"/>
+      <c r="R93" s="287">
+        <f>INT(T93)</f>
         <v>45447</v>
       </c>
-      <c r="S91" s="200">
-        <f t="shared" si="48"/>
-        <v>0.55820601851883112</v>
-      </c>
-      <c r="T91" s="201">
-        <f t="shared" si="49"/>
-        <v>45447.558206018519</v>
-      </c>
-      <c r="U91" s="202" t="str">
-        <f t="shared" si="50"/>
-        <v>DIT_02_FC3-2</v>
-      </c>
-      <c r="V91" s="202">
-        <f t="shared" si="51"/>
+      <c r="S93" s="289">
+        <f>T93-R93</f>
+        <v>0.4856828703705105</v>
+      </c>
+      <c r="T93" s="291">
+        <f>F93</f>
+        <v>45447.485682870371</v>
+      </c>
+      <c r="U93" s="283" t="str">
+        <f>C93</f>
+        <v>SequimBay</v>
+      </c>
+      <c r="V93" s="283">
+        <f>E93</f>
         <v>1.5</v>
       </c>
-      <c r="W91" s="202">
-        <f t="shared" si="52"/>
-        <v>1057.5795009999999</v>
-      </c>
-      <c r="X91" s="203">
-        <f t="shared" si="53"/>
-        <v>1.4118201450993086</v>
-      </c>
-      <c r="Y91" s="204">
-        <f t="shared" si="54"/>
-        <v>1.4016567333271002</v>
-      </c>
-      <c r="Z91" s="205">
-        <f t="shared" si="55"/>
-        <v>283.77944053471407</v>
-      </c>
-      <c r="AA91" s="206">
-        <f t="shared" si="56"/>
-        <v>189.18629368980939</v>
-      </c>
-      <c r="AB91" s="207">
+      <c r="W93" s="283">
+        <f>N93</f>
+        <v>17923.270355000001</v>
+      </c>
+      <c r="X93" s="293">
+        <f>($Y$22*W93)+$Z$22</f>
+        <v>24.654828120763568</v>
+      </c>
+      <c r="Y93" s="295">
+        <f>($Y$22+$Y$29*(S93-$X$22)/$X$29)*W93+($Z$22+$Z$29*(S93-$X$22)/$X$29)</f>
+        <v>24.61530377709747</v>
+      </c>
+      <c r="Z93" s="297">
+        <f>Y93*$AA$3</f>
+        <v>2488.6704348179546</v>
+      </c>
+      <c r="AA93" s="299">
+        <f>Z93/V93</f>
+        <v>1659.1136232119698</v>
+      </c>
+      <c r="AB93" s="301">
         <v>22</v>
       </c>
-      <c r="AC91" s="208">
-        <v>0</v>
-      </c>
-      <c r="AD91" s="209">
-        <f t="shared" si="57"/>
-        <v>0.9977730369545097</v>
-      </c>
-      <c r="AE91" s="210">
-        <f t="shared" si="58"/>
-        <v>189.60854491243859</v>
-      </c>
-      <c r="AF91" s="211">
-        <v>0</v>
-      </c>
-      <c r="AG91" s="212">
-        <v>250</v>
-      </c>
-      <c r="AH91" s="213">
-        <f t="shared" si="59"/>
-        <v>1</v>
-      </c>
-      <c r="AI91" s="210">
-        <f t="shared" si="60"/>
-        <v>189.60854491243859</v>
-      </c>
-      <c r="AJ91" s="214">
-        <f t="shared" si="45"/>
-        <v>189.60854491243859</v>
-      </c>
-      <c r="AK91" s="215"/>
-      <c r="AL91" s="215"/>
-      <c r="AM91" s="214">
-        <f t="shared" si="46"/>
-        <v>189.60854491243859</v>
-      </c>
-      <c r="AN91" s="215"/>
-      <c r="AO91" s="215"/>
-      <c r="AP91" s="214" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="92" spans="1:43" s="185" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="185" t="s">
-        <v>248</v>
-      </c>
-      <c r="B92" s="185" t="s">
-        <v>98</v>
-      </c>
-      <c r="C92" s="185" t="s">
-        <v>249</v>
-      </c>
-      <c r="D92" s="185" t="s">
-        <v>133</v>
-      </c>
-      <c r="E92" s="185">
-        <v>1.5</v>
-      </c>
-      <c r="F92" s="262">
-        <v>45447.561620370368</v>
-      </c>
-      <c r="G92" s="185">
-        <v>1</v>
-      </c>
-      <c r="H92" s="185">
-        <v>55.000999999999998</v>
-      </c>
-      <c r="I92" s="185">
-        <v>8.3342530000000004</v>
-      </c>
-      <c r="J92" s="185">
-        <v>1.6110279999999999</v>
-      </c>
-      <c r="K92" s="185">
-        <v>2.4051490000000002</v>
-      </c>
-      <c r="L92" s="185">
-        <v>88.826706999999999</v>
-      </c>
-      <c r="M92" s="185">
-        <v>63.997450000000001</v>
-      </c>
-      <c r="N92" s="185">
-        <v>1242.760485</v>
-      </c>
-      <c r="O92" s="185">
-        <v>1242.760485</v>
-      </c>
-      <c r="P92" s="185">
-        <v>112.258354</v>
-      </c>
-      <c r="Q92" s="185" t="s">
-        <v>100</v>
-      </c>
-      <c r="R92" s="182">
-        <f t="shared" si="47"/>
-        <v>45447</v>
-      </c>
-      <c r="S92" s="183">
-        <f t="shared" si="48"/>
-        <v>0.56162037036847323</v>
-      </c>
-      <c r="T92" s="184">
-        <f t="shared" si="49"/>
-        <v>45447.561620370368</v>
-      </c>
-      <c r="U92" s="185" t="str">
-        <f t="shared" si="50"/>
-        <v>DIT_02_FL3</v>
-      </c>
-      <c r="V92" s="185">
-        <f t="shared" si="51"/>
-        <v>1.5</v>
-      </c>
-      <c r="W92" s="185">
-        <f t="shared" si="52"/>
-        <v>1242.760485</v>
-      </c>
-      <c r="X92" s="186">
-        <f t="shared" si="53"/>
-        <v>1.6670224445670798</v>
-      </c>
-      <c r="Y92" s="187">
-        <f t="shared" si="54"/>
-        <v>1.6548145875645721</v>
-      </c>
-      <c r="Z92" s="188">
-        <f t="shared" si="55"/>
-        <v>335.03378300981501</v>
-      </c>
-      <c r="AA92" s="189">
-        <f t="shared" si="56"/>
-        <v>223.35585533987668</v>
-      </c>
-      <c r="AB92" s="190">
-        <v>22</v>
-      </c>
-      <c r="AC92" s="191">
-        <v>0</v>
-      </c>
-      <c r="AD92" s="192">
-        <f t="shared" si="57"/>
-        <v>0.9977730369545097</v>
-      </c>
-      <c r="AE92" s="193">
-        <f t="shared" si="58"/>
-        <v>223.85437075111091</v>
-      </c>
-      <c r="AF92" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG92" s="195">
-        <v>250</v>
-      </c>
-      <c r="AH92" s="196">
-        <f t="shared" si="59"/>
-        <v>1</v>
-      </c>
-      <c r="AI92" s="193">
-        <f t="shared" si="60"/>
-        <v>223.85437075111091</v>
-      </c>
-      <c r="AJ92" s="197">
-        <f t="shared" si="45"/>
-        <v>223.85437075111091</v>
-      </c>
-      <c r="AK92" s="198"/>
-      <c r="AL92" s="198"/>
-      <c r="AM92" s="197">
-        <f t="shared" si="46"/>
-        <v>223.85437075111091</v>
-      </c>
-      <c r="AN92" s="198"/>
-      <c r="AO92" s="198"/>
-      <c r="AP92" s="197" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="93" spans="1:43" s="219" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="219" t="s">
-        <v>250</v>
-      </c>
-      <c r="B93" s="219" t="s">
-        <v>98</v>
-      </c>
-      <c r="C93" s="219" t="s">
-        <v>251</v>
-      </c>
-      <c r="D93" s="219" t="s">
-        <v>223</v>
-      </c>
-      <c r="E93" s="219">
-        <v>1.5</v>
-      </c>
-      <c r="F93" s="281">
-        <v>45447.565069444441</v>
-      </c>
-      <c r="G93" s="219">
-        <v>1</v>
-      </c>
-      <c r="H93" s="219">
-        <v>55.000999999999998</v>
-      </c>
-      <c r="I93" s="219">
-        <v>8.2132989999999992</v>
-      </c>
-      <c r="J93" s="219">
-        <v>1.608336</v>
-      </c>
-      <c r="K93" s="219">
-        <v>2.3824290000000001</v>
-      </c>
-      <c r="L93" s="219">
-        <v>91.029374000000004</v>
-      </c>
-      <c r="M93" s="219">
-        <v>64.997131999999993</v>
-      </c>
-      <c r="N93" s="219">
-        <v>1315.575642</v>
-      </c>
-      <c r="O93" s="219">
-        <v>1315.575642</v>
-      </c>
-      <c r="P93" s="219">
-        <v>118.98802999999999</v>
-      </c>
-      <c r="Q93" s="219" t="s">
-        <v>100</v>
-      </c>
-      <c r="R93" s="216">
-        <f t="shared" ref="R93:R94" si="61">INT(T93)</f>
-        <v>45447</v>
-      </c>
-      <c r="S93" s="217">
-        <f t="shared" ref="S93:S94" si="62">T93-R93</f>
-        <v>0.56506944444117835</v>
-      </c>
-      <c r="T93" s="218">
-        <f t="shared" ref="T93:T94" si="63">F93</f>
-        <v>45447.565069444441</v>
-      </c>
-      <c r="U93" s="219" t="str">
-        <f t="shared" ref="U93:U94" si="64">C93</f>
-        <v>DIT_02_SC3</v>
-      </c>
-      <c r="V93" s="219">
-        <f t="shared" ref="V93:V94" si="65">E93</f>
-        <v>1.5</v>
-      </c>
-      <c r="W93" s="219">
-        <f t="shared" ref="W93:W94" si="66">N93</f>
-        <v>1315.575642</v>
-      </c>
-      <c r="X93" s="220">
-        <f t="shared" ref="X93:X94" si="67">($Y$22*W93)+$Z$22</f>
-        <v>1.7673707368221139</v>
-      </c>
-      <c r="Y93" s="129">
-        <f t="shared" ref="Y93:Y94" si="68">($Y$22+$Y$29*(S93-$X$22)/$X$29)*W93+($Z$22+$Z$29*(S93-$X$22)/$X$29)</f>
-        <v>1.7540564783702399</v>
-      </c>
-      <c r="Z93" s="97">
-        <f t="shared" ref="Z93:Z94" si="69">Y93*$AA$3</f>
-        <v>355.12629751840643</v>
-      </c>
-      <c r="AA93" s="221">
-        <f t="shared" ref="AA93:AA94" si="70">Z93/V93</f>
-        <v>236.75086501227096</v>
-      </c>
-      <c r="AB93" s="222">
-        <v>22</v>
-      </c>
-      <c r="AC93" s="223">
-        <v>3.3</v>
-      </c>
-      <c r="AD93" s="224">
-        <f t="shared" ref="AD93:AD94" si="71">(999.842594 + 0.06793952*AB93 - 0.00909529*AB93^2 + 0.0001001685*AB93^3 -0.000001120083*AB93^4 +
+      <c r="AC93" s="303">
+        <v>33</v>
+      </c>
+      <c r="AD93" s="305">
+        <f>(999.842594 + 0.06793952*AB93 - 0.00909529*AB93^2 + 0.0001001685*AB93^3 -0.000001120083*AB93^4 +
 0.000000006536332*AB93^5 + (0.824493-0.0040899*AB93 + 0.000076438*AB93^2 - 0.00000082467*AB93^3 +
 0.0000000053875*AB93^4)*AC93 + (-0.00572466 + 0.00010227*AB93 - 0.0000016546*AB93^2)*AC93^1.5 +
 0.00048314*AC93^2)/1000</f>
-        <v>1.0002738416552892</v>
-      </c>
-      <c r="AE93" s="225">
-        <f t="shared" ref="AE93:AE94" si="72">AA93/AD93</f>
-        <v>236.68605051241477</v>
-      </c>
-      <c r="AF93" s="226">
+        <v>1.0227003999391113</v>
+      </c>
+      <c r="AE93" s="307">
+        <f>AA93/AD93</f>
+        <v>1622.287058175345</v>
+      </c>
+      <c r="AF93" s="309">
         <v>0</v>
       </c>
-      <c r="AG93" s="227">
+      <c r="AG93" s="311">
         <v>250</v>
       </c>
-      <c r="AH93" s="228">
-        <f t="shared" ref="AH93:AH94" si="73">1+(AF93/1000/AG93)</f>
+      <c r="AH93" s="313">
+        <f>1+(AF93/1000/AG93)</f>
         <v>1</v>
       </c>
-      <c r="AI93" s="225">
-        <f t="shared" ref="AI93:AI94" si="74">AH93*AE93</f>
-        <v>236.68605051241477</v>
-      </c>
-      <c r="AJ93" s="219">
-        <f t="shared" si="45"/>
-        <v>236.68605051241477</v>
-      </c>
-      <c r="AM93" s="219">
-        <f t="shared" si="46"/>
-        <v>236.68605051241477</v>
-      </c>
-      <c r="AP93" s="219" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="94" spans="1:43" s="263" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" s="263" t="s">
-        <v>252</v>
-      </c>
-      <c r="B94" s="263" t="s">
+      <c r="AI93" s="307">
+        <f>AH93*AE93</f>
+        <v>1622.287058175345</v>
+      </c>
+      <c r="AJ93" s="314">
+        <f>AI93</f>
+        <v>1622.287058175345</v>
+      </c>
+      <c r="AK93" s="315"/>
+      <c r="AL93" s="315"/>
+      <c r="AM93" s="314">
+        <f>AE93</f>
+        <v>1622.287058175345</v>
+      </c>
+      <c r="AN93" s="315"/>
+      <c r="AO93" s="315"/>
+      <c r="AP93" s="314" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ93" s="315"/>
+      <c r="AR93" s="283"/>
+      <c r="AS93" s="283"/>
+      <c r="AT93" s="283"/>
+      <c r="AU93" s="283"/>
+      <c r="AV93" s="283"/>
+      <c r="AW93" s="283"/>
+      <c r="AX93" s="283"/>
+      <c r="AY93" s="283"/>
+      <c r="AZ93" s="283"/>
+      <c r="BA93" s="283"/>
+      <c r="BB93" s="283"/>
+      <c r="BC93" s="283"/>
+      <c r="BD93" s="283"/>
+      <c r="BE93" s="283"/>
+      <c r="BF93" s="283"/>
+      <c r="BG93" s="283"/>
+      <c r="BH93" s="283"/>
+    </row>
+    <row r="94" spans="1:60" s="263" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="242" t="s">
+        <v>123</v>
+      </c>
+      <c r="B94" s="242" t="s">
         <v>98</v>
       </c>
-      <c r="C94" s="263" t="s">
-        <v>253</v>
-      </c>
-      <c r="D94" s="263" t="s">
-        <v>228</v>
-      </c>
-      <c r="E94" s="263">
+      <c r="C94" s="242" t="s">
+        <v>211</v>
+      </c>
+      <c r="D94" s="242" t="s">
+        <v>133</v>
+      </c>
+      <c r="E94" s="242">
         <v>1.5</v>
       </c>
-      <c r="F94" s="264">
-        <v>45447.568495370368</v>
-      </c>
-      <c r="G94" s="263">
+      <c r="F94" s="243">
+        <v>45447.489618055559</v>
+      </c>
+      <c r="G94" s="242">
         <v>1</v>
       </c>
-      <c r="H94" s="263">
-        <v>55.000300000000003</v>
-      </c>
-      <c r="I94" s="263">
-        <v>8.2458530000000003</v>
-      </c>
-      <c r="J94" s="263">
-        <v>1.685082</v>
-      </c>
-      <c r="K94" s="263">
-        <v>2.451724</v>
-      </c>
-      <c r="L94" s="263">
-        <v>110.88672</v>
-      </c>
-      <c r="M94" s="263">
-        <v>64.997445999999997</v>
-      </c>
-      <c r="N94" s="263">
-        <v>1569.803302</v>
-      </c>
-      <c r="O94" s="263">
-        <v>1569.803302</v>
-      </c>
-      <c r="P94" s="263">
-        <v>142.484094</v>
-      </c>
-      <c r="Q94" s="263" t="s">
+      <c r="H94" s="242">
+        <v>55.000999999999998</v>
+      </c>
+      <c r="I94" s="242">
+        <v>8.4932560000000006</v>
+      </c>
+      <c r="J94" s="242">
+        <v>1.776794</v>
+      </c>
+      <c r="K94" s="242">
+        <v>2.5753629999999998</v>
+      </c>
+      <c r="L94" s="242">
+        <v>1326.848</v>
+      </c>
+      <c r="M94" s="242">
+        <v>110.995217</v>
+      </c>
+      <c r="N94" s="242">
+        <v>17875.322458999999</v>
+      </c>
+      <c r="O94" s="242">
+        <v>17875.322458999999</v>
+      </c>
+      <c r="P94" s="242">
+        <v>1649.462213</v>
+      </c>
+      <c r="Q94" s="242" t="s">
         <v>100</v>
       </c>
-      <c r="R94" s="265">
-        <f t="shared" si="61"/>
+      <c r="R94" s="244">
+        <f>INT(T94)</f>
         <v>45447</v>
       </c>
-      <c r="S94" s="266">
-        <f t="shared" si="62"/>
-        <v>0.56849537036760012</v>
-      </c>
-      <c r="T94" s="267">
-        <f t="shared" si="63"/>
-        <v>45447.568495370368</v>
-      </c>
-      <c r="U94" s="263" t="str">
-        <f t="shared" si="64"/>
-        <v>DIT_02_SL3</v>
-      </c>
-      <c r="V94" s="263">
-        <f t="shared" si="65"/>
+      <c r="S94" s="245">
+        <f>T94-R94</f>
+        <v>0.48961805555882165</v>
+      </c>
+      <c r="T94" s="246">
+        <f>F94</f>
+        <v>45447.489618055559</v>
+      </c>
+      <c r="U94" s="242" t="str">
+        <f>C94</f>
+        <v>SequimBayF</v>
+      </c>
+      <c r="V94" s="242">
+        <f>E94</f>
         <v>1.5</v>
       </c>
-      <c r="W94" s="263">
-        <f t="shared" si="66"/>
-        <v>1569.803302</v>
-      </c>
-      <c r="X94" s="268">
-        <f t="shared" si="67"/>
-        <v>2.117727895634439</v>
-      </c>
-      <c r="Y94" s="126">
-        <f t="shared" si="68"/>
-        <v>2.1015001797097512</v>
-      </c>
-      <c r="Z94" s="127">
-        <f t="shared" si="69"/>
-        <v>425.4697538291374</v>
-      </c>
-      <c r="AA94" s="269">
-        <f t="shared" si="70"/>
-        <v>283.64650255275825</v>
-      </c>
-      <c r="AB94" s="270">
+      <c r="W94" s="242">
+        <f>N94</f>
+        <v>17875.322458999999</v>
+      </c>
+      <c r="X94" s="247">
+        <f>($Y$22*W94)+$Z$22</f>
+        <v>24.588749989793911</v>
+      </c>
+      <c r="Y94" s="248">
+        <f>($Y$22+$Y$29*(S94-$X$22)/$X$29)*W94+($Z$22+$Z$29*(S94-$X$22)/$X$29)</f>
+        <v>24.542896561219198</v>
+      </c>
+      <c r="Z94" s="249">
+        <f>Y94*$AA$3</f>
+        <v>2481.3498793190056</v>
+      </c>
+      <c r="AA94" s="250">
+        <f>Z94/V94</f>
+        <v>1654.233252879337</v>
+      </c>
+      <c r="AB94" s="251">
         <v>22</v>
       </c>
-      <c r="AC94" s="271">
-        <v>3.3</v>
-      </c>
-      <c r="AD94" s="272">
-        <f t="shared" si="71"/>
-        <v>1.0002738416552892</v>
-      </c>
-      <c r="AE94" s="273">
-        <f t="shared" si="72"/>
-        <v>283.56884958959819</v>
-      </c>
-      <c r="AF94" s="274">
+      <c r="AC94" s="252">
+        <v>33</v>
+      </c>
+      <c r="AD94" s="253">
+        <f>(999.842594 + 0.06793952*AB94 - 0.00909529*AB94^2 + 0.0001001685*AB94^3 -0.000001120083*AB94^4 +
+0.000000006536332*AB94^5 + (0.824493-0.0040899*AB94 + 0.000076438*AB94^2 - 0.00000082467*AB94^3 +
+0.0000000053875*AB94^4)*AC94 + (-0.00572466 + 0.00010227*AB94 - 0.0000016546*AB94^2)*AC94^1.5 +
+0.00048314*AC94^2)/1000</f>
+        <v>1.0227003999391113</v>
+      </c>
+      <c r="AE94" s="254">
+        <f>AA94/AD94</f>
+        <v>1617.5150151284045</v>
+      </c>
+      <c r="AF94" s="255">
         <v>0</v>
       </c>
-      <c r="AG94" s="275">
+      <c r="AG94" s="256">
         <v>250</v>
       </c>
-      <c r="AH94" s="276">
-        <f t="shared" si="73"/>
+      <c r="AH94" s="257">
+        <f>1+(AF94/1000/AG94)</f>
         <v>1</v>
       </c>
-      <c r="AI94" s="273">
-        <f t="shared" si="74"/>
-        <v>283.56884958959819</v>
-      </c>
-      <c r="AJ94" s="263">
-        <f t="shared" si="45"/>
-        <v>283.56884958959819</v>
-      </c>
-      <c r="AM94" s="263">
-        <f t="shared" si="46"/>
-        <v>283.56884958959819</v>
-      </c>
-      <c r="AP94" s="263" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="95" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AI94" s="254">
+        <f>AH94*AE94</f>
+        <v>1617.5150151284045</v>
+      </c>
+      <c r="AJ94" s="260">
+        <f>AI94</f>
+        <v>1617.5150151284045</v>
+      </c>
+      <c r="AK94" s="242"/>
+      <c r="AL94" s="242"/>
+      <c r="AM94" s="258">
+        <f>AE94</f>
+        <v>1617.5150151284045</v>
+      </c>
+      <c r="AN94" s="259"/>
+      <c r="AO94" s="242"/>
+      <c r="AP94" s="242" t="s">
+        <v>260</v>
+      </c>
+      <c r="AQ94" s="259"/>
+      <c r="AR94" s="242"/>
+      <c r="AS94" s="242"/>
+      <c r="AT94" s="242"/>
+      <c r="AU94" s="242"/>
+      <c r="AV94" s="242"/>
+      <c r="AW94" s="242"/>
+      <c r="AX94" s="242"/>
+      <c r="AY94" s="242"/>
+      <c r="AZ94" s="242"/>
+      <c r="BA94" s="242"/>
+      <c r="BB94" s="242"/>
+      <c r="BC94" s="242"/>
+      <c r="BD94" s="242"/>
+      <c r="BE94" s="242"/>
+      <c r="BF94" s="242"/>
+      <c r="BG94" s="242"/>
+      <c r="BH94" s="242"/>
+    </row>
+    <row r="95" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="R95" s="100"/>
       <c r="S95" s="54"/>
       <c r="T95" s="75"/>
@@ -16377,7 +16806,7 @@
       <c r="Y95" s="54"/>
       <c r="Z95" s="29"/>
     </row>
-    <row r="96" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="73"/>
       <c r="B96" s="74"/>
       <c r="C96" s="75"/>
@@ -40904,6 +41333,11 @@
       <c r="Z981" s="29"/>
     </row>
   </sheetData>
+  <autoFilter ref="A66:BH66" xr:uid="{00000000-0001-0000-0200-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A67:BH94">
+      <sortCondition ref="C66"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -40913,7 +41347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
